--- a/tools/IJE_File_Layouts_Tabular_Input_Mapping_Version_2021.xlsx
+++ b/tools/IJE_File_Layouts_Tabular_Input_Mapping_Version_2021.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rscalfani/Documents/code/NVSS/vrdr-dotnet/tools/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/krautscheid/git/vrdr-dotnet/tools/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{935F0586-CB10-2C4E-B5AA-8B5242FC0165}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1700D00C-B164-A748-B4CF-19E68D35B176}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="20500" tabRatio="779" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2980" yWindow="7940" windowWidth="25600" windowHeight="20500" tabRatio="779" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mortality_Trim_mappings" sheetId="2" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1979" uniqueCount="748">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1977" uniqueCount="749">
   <si>
     <t>Field #</t>
   </si>
@@ -2624,6 +2624,9 @@
   </si>
   <si>
     <t>Input header is "Injury Date year" from the stat file. but we want to default to 2022.</t>
+  </si>
+  <si>
+    <t>SPOUSEL</t>
   </si>
 </sst>
 </file>
@@ -2764,217 +2767,196 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="3" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="45" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3000,7 +2982,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2013 - 2022">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3322,8 +3304,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD74E696-0F05-DF43-9EB9-28DAB6A6F493}">
   <dimension ref="A1:G260"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="F119" sqref="F119"/>
+    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="C146" sqref="C146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -3338,25 +3320,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="75" t="s">
+      <c r="B1" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="75" t="s">
+      <c r="C1" s="67" t="s">
         <v>626</v>
       </c>
-      <c r="D1" s="75" t="s">
+      <c r="D1" s="67" t="s">
         <v>627</v>
       </c>
-      <c r="E1" s="75" t="s">
+      <c r="E1" s="67" t="s">
         <v>726</v>
       </c>
-      <c r="F1" s="75" t="s">
+      <c r="F1" s="67" t="s">
         <v>700</v>
       </c>
-      <c r="G1" s="75" t="s">
+      <c r="G1" s="67" t="s">
         <v>657</v>
       </c>
     </row>
@@ -5935,11 +5917,8 @@
       <c r="C145" t="s">
         <v>329</v>
       </c>
-      <c r="D145" t="s">
-        <v>630</v>
-      </c>
-      <c r="F145" t="s">
-        <v>706</v>
+      <c r="D145" s="70" t="s">
+        <v>717</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -5950,14 +5929,11 @@
       <c r="B146">
         <v>50</v>
       </c>
-      <c r="C146" t="s">
-        <v>332</v>
-      </c>
-      <c r="D146" t="s">
-        <v>630</v>
-      </c>
-      <c r="F146" t="s">
-        <v>706</v>
+      <c r="C146" s="70" t="s">
+        <v>748</v>
+      </c>
+      <c r="D146" s="70" t="s">
+        <v>717</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -7854,22 +7830,22 @@
   </sheetPr>
   <dimension ref="A1:L1048511"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="95" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView topLeftCell="A138" zoomScaleNormal="100" zoomScaleSheetLayoutView="95" workbookViewId="0">
+      <selection activeCell="K147" sqref="K147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="7.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.6640625" style="56" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.1640625" style="48" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" style="53" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.1640625" style="45" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="33.33203125" style="11" customWidth="1"/>
     <col min="5" max="5" width="19.5" style="11" customWidth="1"/>
     <col min="6" max="6" width="24.1640625" style="11" customWidth="1"/>
-    <col min="7" max="8" width="13" style="14" customWidth="1"/>
-    <col min="9" max="9" width="9" style="14" customWidth="1"/>
-    <col min="10" max="10" width="15.5" style="14" customWidth="1"/>
-    <col min="11" max="11" width="30.6640625" style="17" customWidth="1"/>
+    <col min="7" max="8" width="13" style="7" customWidth="1"/>
+    <col min="9" max="9" width="9" style="7" customWidth="1"/>
+    <col min="10" max="10" width="15.5" style="7" customWidth="1"/>
+    <col min="11" max="11" width="30.6640625" style="10" customWidth="1"/>
     <col min="12" max="12" width="20.5" style="11" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="15.1640625" style="11" customWidth="1"/>
     <col min="14" max="14" width="11.6640625" style="11" customWidth="1"/>
@@ -7935,11 +7911,9 @@
       <c r="G2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="7"/>
       <c r="I2" s="7">
         <v>2022</v>
       </c>
-      <c r="J2" s="7"/>
       <c r="K2" s="10" t="s">
         <v>746</v>
       </c>
@@ -8003,9 +7977,6 @@
       <c r="H4" s="7" t="s">
         <v>727</v>
       </c>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="10"/>
     </row>
     <row r="5" spans="1:12" ht="56">
       <c r="A5" s="5">
@@ -8031,7 +8002,6 @@
       <c r="G5" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="7"/>
       <c r="I5" s="7">
         <v>0</v>
       </c>
@@ -8066,9 +8036,6 @@
       <c r="H6" s="7" t="s">
         <v>727</v>
       </c>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="10"/>
     </row>
     <row r="7" spans="1:12" ht="84">
       <c r="A7" s="5">
@@ -8094,11 +8061,9 @@
       <c r="G7" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="H7" s="7"/>
       <c r="I7" s="7">
         <v>0</v>
       </c>
-      <c r="J7" s="7"/>
       <c r="K7" s="10" t="s">
         <v>701</v>
       </c>
@@ -8124,10 +8089,6 @@
       <c r="F8" s="7" t="s">
         <v>717</v>
       </c>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
       <c r="K8" s="10" t="s">
         <v>705</v>
       </c>
@@ -8153,10 +8114,6 @@
       <c r="F9" s="7" t="s">
         <v>717</v>
       </c>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
       <c r="K9" s="10" t="s">
         <v>705</v>
       </c>
@@ -8185,9 +8142,6 @@
       <c r="G10" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
       <c r="K10" s="10" t="s">
         <v>705</v>
       </c>
@@ -8213,10 +8167,6 @@
       <c r="F11" s="7" t="s">
         <v>717</v>
       </c>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
       <c r="K11" s="10" t="s">
         <v>705</v>
       </c>
@@ -8245,11 +8195,9 @@
       <c r="G12" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="H12" s="7"/>
       <c r="I12" s="7">
         <v>0</v>
       </c>
-      <c r="J12" s="7"/>
       <c r="K12" s="10" t="s">
         <v>701</v>
       </c>
@@ -8275,10 +8223,6 @@
       <c r="F13" s="7" t="s">
         <v>717</v>
       </c>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
       <c r="K13" s="10" t="s">
         <v>705</v>
       </c>
@@ -8310,9 +8254,6 @@
       <c r="H14" s="7" t="s">
         <v>727</v>
       </c>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="10"/>
     </row>
     <row r="15" spans="1:12" ht="70">
       <c r="A15" s="5">
@@ -8338,11 +8279,9 @@
       <c r="G15" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="H15" s="7"/>
       <c r="I15" s="7" t="s">
         <v>706</v>
       </c>
-      <c r="J15" s="7"/>
       <c r="K15" s="10" t="s">
         <v>704</v>
       </c>
@@ -8371,9 +8310,6 @@
       <c r="G16" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
       <c r="K16" s="10" t="s">
         <v>705</v>
       </c>
@@ -8396,7 +8332,7 @@
       <c r="E17" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="F17" s="15" t="s">
+      <c r="F17" s="14" t="s">
         <v>632</v>
       </c>
       <c r="G17" s="7" t="s">
@@ -8405,9 +8341,6 @@
       <c r="H17" s="7" t="s">
         <v>727</v>
       </c>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="10"/>
     </row>
     <row r="18" spans="1:12" ht="266">
       <c r="A18" s="5">
@@ -8427,7 +8360,7 @@
       <c r="E18" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="F18" s="15" t="s">
+      <c r="F18" s="14" t="s">
         <v>633</v>
       </c>
       <c r="G18" s="7" t="s">
@@ -8436,9 +8369,6 @@
       <c r="H18" s="7" t="s">
         <v>727</v>
       </c>
-      <c r="I18" s="7"/>
-      <c r="J18" s="7"/>
-      <c r="K18" s="10"/>
     </row>
     <row r="19" spans="1:12" ht="70">
       <c r="A19" s="5">
@@ -8464,11 +8394,9 @@
       <c r="G19" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="H19" s="7"/>
       <c r="I19" s="7" t="s">
         <v>706</v>
       </c>
-      <c r="J19" s="7"/>
       <c r="K19" s="10" t="s">
         <v>704</v>
       </c>
@@ -8491,7 +8419,7 @@
       <c r="E20" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="F20" s="15" t="s">
+      <c r="F20" s="14" t="s">
         <v>634</v>
       </c>
       <c r="G20" s="7" t="s">
@@ -8500,9 +8428,6 @@
       <c r="H20" s="7" t="s">
         <v>727</v>
       </c>
-      <c r="I20" s="7"/>
-      <c r="J20" s="7"/>
-      <c r="K20" s="10"/>
     </row>
     <row r="21" spans="1:12" ht="14">
       <c r="A21" s="5">
@@ -8522,7 +8447,7 @@
       <c r="E21" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="F21" s="15" t="s">
+      <c r="F21" s="14" t="s">
         <v>635</v>
       </c>
       <c r="G21" s="7" t="s">
@@ -8531,9 +8456,6 @@
       <c r="H21" s="7" t="s">
         <v>727</v>
       </c>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="10"/>
     </row>
     <row r="22" spans="1:12" ht="28">
       <c r="A22" s="5">
@@ -8553,7 +8475,7 @@
       <c r="E22" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="F22" s="15" t="s">
+      <c r="F22" s="14" t="s">
         <v>636</v>
       </c>
       <c r="G22" s="7" t="s">
@@ -8562,9 +8484,6 @@
       <c r="H22" s="7" t="s">
         <v>727</v>
       </c>
-      <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="10"/>
     </row>
     <row r="23" spans="1:12" ht="42">
       <c r="A23" s="5">
@@ -8584,7 +8503,7 @@
       <c r="E23" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="F23" s="15" t="s">
+      <c r="F23" s="14" t="s">
         <v>637</v>
       </c>
       <c r="G23" s="7" t="s">
@@ -8593,9 +8512,7 @@
       <c r="H23" s="7" t="s">
         <v>727</v>
       </c>
-      <c r="I23" s="7"/>
-      <c r="J23" s="7"/>
-      <c r="K23" s="16" t="s">
+      <c r="K23" s="15" t="s">
         <v>639</v>
       </c>
     </row>
@@ -8617,7 +8534,7 @@
       <c r="E24" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="F24" s="15" t="s">
+      <c r="F24" s="14" t="s">
         <v>640</v>
       </c>
       <c r="G24" s="12" t="s">
@@ -8657,9 +8574,6 @@
       <c r="H25" s="7" t="s">
         <v>727</v>
       </c>
-      <c r="I25" s="7"/>
-      <c r="J25" s="7"/>
-      <c r="K25" s="10"/>
     </row>
     <row r="26" spans="1:12" ht="42">
       <c r="A26" s="5">
@@ -8679,7 +8593,7 @@
       <c r="E26" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="F26" s="15" t="s">
+      <c r="F26" s="14" t="s">
         <v>641</v>
       </c>
       <c r="G26" s="7" t="s">
@@ -8688,9 +8602,6 @@
       <c r="H26" s="7" t="s">
         <v>727</v>
       </c>
-      <c r="I26" s="7"/>
-      <c r="J26" s="7"/>
-      <c r="K26" s="10"/>
     </row>
     <row r="27" spans="1:12" ht="90" customHeight="1">
       <c r="A27" s="5">
@@ -8710,7 +8621,7 @@
       <c r="E27" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="F27" s="15" t="s">
+      <c r="F27" s="14" t="s">
         <v>642</v>
       </c>
       <c r="G27" s="12" t="s">
@@ -8748,12 +8659,10 @@
       <c r="G28" s="7" t="s">
         <v>608</v>
       </c>
-      <c r="H28" s="7"/>
       <c r="I28" s="7" t="s">
         <v>702</v>
       </c>
-      <c r="J28" s="7"/>
-      <c r="K28" s="17" t="s">
+      <c r="K28" s="10" t="s">
         <v>703</v>
       </c>
     </row>
@@ -8775,7 +8684,7 @@
       <c r="E29" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="F29" s="15" t="s">
+      <c r="F29" s="14" t="s">
         <v>643</v>
       </c>
       <c r="G29" s="7" t="s">
@@ -8784,9 +8693,6 @@
       <c r="H29" s="7" t="s">
         <v>727</v>
       </c>
-      <c r="I29" s="7"/>
-      <c r="J29" s="7"/>
-      <c r="K29" s="10"/>
     </row>
     <row r="30" spans="1:12" ht="126">
       <c r="A30" s="5">
@@ -8806,7 +8712,7 @@
       <c r="E30" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="F30" s="15" t="s">
+      <c r="F30" s="14" t="s">
         <v>644</v>
       </c>
       <c r="G30" s="7" t="s">
@@ -8815,9 +8721,6 @@
       <c r="H30" s="7" t="s">
         <v>727</v>
       </c>
-      <c r="I30" s="7"/>
-      <c r="J30" s="7"/>
-      <c r="K30" s="10"/>
     </row>
     <row r="31" spans="1:12" ht="140">
       <c r="A31" s="5">
@@ -8843,11 +8746,9 @@
       <c r="G31" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="H31" s="7"/>
       <c r="I31" s="7" t="s">
         <v>706</v>
       </c>
-      <c r="J31" s="7"/>
       <c r="K31" s="10" t="s">
         <v>704</v>
       </c>
@@ -8870,7 +8771,7 @@
       <c r="E32" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="F32" s="15" t="s">
+      <c r="F32" s="14" t="s">
         <v>645</v>
       </c>
       <c r="G32" s="7" t="s">
@@ -8879,9 +8780,6 @@
       <c r="H32" s="7" t="s">
         <v>727</v>
       </c>
-      <c r="I32" s="7"/>
-      <c r="J32" s="7"/>
-      <c r="K32" s="10"/>
     </row>
     <row r="33" spans="1:11" ht="140">
       <c r="A33" s="5">
@@ -8901,7 +8799,7 @@
       <c r="E33" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="F33" s="15" t="s">
+      <c r="F33" s="14" t="s">
         <v>647</v>
       </c>
       <c r="G33" s="7" t="s">
@@ -8910,9 +8808,7 @@
       <c r="H33" s="7" t="s">
         <v>727</v>
       </c>
-      <c r="I33" s="7"/>
-      <c r="J33" s="7"/>
-      <c r="K33" s="16" t="s">
+      <c r="K33" s="15" t="s">
         <v>646</v>
       </c>
     </row>
@@ -8934,7 +8830,7 @@
       <c r="E34" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="F34" s="15" t="s">
+      <c r="F34" s="14" t="s">
         <v>648</v>
       </c>
       <c r="G34" s="7" t="s">
@@ -8943,9 +8839,6 @@
       <c r="H34" s="7" t="s">
         <v>727</v>
       </c>
-      <c r="I34" s="7"/>
-      <c r="J34" s="7"/>
-      <c r="K34" s="10"/>
     </row>
     <row r="35" spans="1:11" ht="14">
       <c r="A35" s="5">
@@ -8965,7 +8858,7 @@
       <c r="E35" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="F35" s="15" t="s">
+      <c r="F35" s="14" t="s">
         <v>649</v>
       </c>
       <c r="G35" s="7" t="s">
@@ -8974,9 +8867,6 @@
       <c r="H35" s="7" t="s">
         <v>727</v>
       </c>
-      <c r="I35" s="7"/>
-      <c r="J35" s="7"/>
-      <c r="K35" s="10"/>
     </row>
     <row r="36" spans="1:11" ht="28">
       <c r="A36" s="5">
@@ -8996,18 +8886,18 @@
       <c r="E36" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="F36" s="15" t="s">
+      <c r="F36" s="14" t="s">
         <v>650</v>
       </c>
-      <c r="G36" s="18" t="s">
+      <c r="G36" s="16" t="s">
         <v>61</v>
       </c>
       <c r="H36" s="7" t="s">
         <v>727</v>
       </c>
-      <c r="I36" s="18"/>
-      <c r="J36" s="18"/>
-      <c r="K36" s="19"/>
+      <c r="I36" s="16"/>
+      <c r="J36" s="16"/>
+      <c r="K36" s="17"/>
     </row>
     <row r="37" spans="1:11" ht="28">
       <c r="A37" s="5">
@@ -9027,7 +8917,7 @@
       <c r="E37" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="F37" s="15" t="s">
+      <c r="F37" s="14" t="s">
         <v>708</v>
       </c>
       <c r="G37" s="7" t="s">
@@ -9036,8 +8926,6 @@
       <c r="H37" s="7" t="s">
         <v>727</v>
       </c>
-      <c r="I37" s="7"/>
-      <c r="J37" s="7"/>
       <c r="K37" s="10" t="s">
         <v>651</v>
       </c>
@@ -9060,7 +8948,7 @@
       <c r="E38" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="F38" s="15" t="s">
+      <c r="F38" s="14" t="s">
         <v>581</v>
       </c>
       <c r="G38" s="7" t="s">
@@ -9069,9 +8957,6 @@
       <c r="H38" s="7" t="s">
         <v>727</v>
       </c>
-      <c r="I38" s="7"/>
-      <c r="J38" s="7"/>
-      <c r="K38" s="10"/>
     </row>
     <row r="39" spans="1:11" ht="182">
       <c r="A39" s="5">
@@ -9097,11 +8982,9 @@
       <c r="G39" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="H39" s="7"/>
       <c r="I39" s="7" t="s">
         <v>706</v>
       </c>
-      <c r="J39" s="7"/>
       <c r="K39" s="10" t="s">
         <v>704</v>
       </c>
@@ -9124,7 +9007,7 @@
       <c r="E40" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="F40" s="15" t="s">
+      <c r="F40" s="14" t="s">
         <v>652</v>
       </c>
       <c r="G40" s="7" t="s">
@@ -9133,11 +9016,9 @@
       <c r="H40" s="7" t="s">
         <v>727</v>
       </c>
-      <c r="I40" s="7"/>
       <c r="J40" s="7" t="s">
         <v>656</v>
       </c>
-      <c r="K40" s="10"/>
     </row>
     <row r="41" spans="1:11" ht="70">
       <c r="A41" s="5">
@@ -9157,7 +9038,7 @@
       <c r="E41" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="F41" s="15" t="s">
+      <c r="F41" s="14" t="s">
         <v>653</v>
       </c>
       <c r="G41" s="7" t="s">
@@ -9166,11 +9047,9 @@
       <c r="H41" s="7" t="s">
         <v>727</v>
       </c>
-      <c r="I41" s="7"/>
       <c r="J41" s="7" t="s">
         <v>656</v>
       </c>
-      <c r="K41" s="10"/>
     </row>
     <row r="42" spans="1:11" ht="70">
       <c r="A42" s="5">
@@ -9190,7 +9069,7 @@
       <c r="E42" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="F42" s="15" t="s">
+      <c r="F42" s="14" t="s">
         <v>654</v>
       </c>
       <c r="G42" s="7" t="s">
@@ -9199,11 +9078,9 @@
       <c r="H42" s="7" t="s">
         <v>727</v>
       </c>
-      <c r="I42" s="7"/>
       <c r="J42" s="7" t="s">
         <v>656</v>
       </c>
-      <c r="K42" s="10"/>
     </row>
     <row r="43" spans="1:11" ht="70">
       <c r="A43" s="5">
@@ -9223,7 +9100,7 @@
       <c r="E43" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="F43" s="15" t="s">
+      <c r="F43" s="14" t="s">
         <v>655</v>
       </c>
       <c r="G43" s="7" t="s">
@@ -9232,11 +9109,9 @@
       <c r="H43" s="7" t="s">
         <v>727</v>
       </c>
-      <c r="I43" s="7"/>
       <c r="J43" s="7" t="s">
         <v>656</v>
       </c>
-      <c r="K43" s="10"/>
     </row>
     <row r="44" spans="1:11" ht="28">
       <c r="A44" s="5">
@@ -9262,11 +9137,9 @@
       <c r="G44" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="H44" s="7"/>
       <c r="I44" s="7" t="s">
         <v>706</v>
       </c>
-      <c r="J44" s="7"/>
       <c r="K44" s="10" t="s">
         <v>704</v>
       </c>
@@ -9289,7 +9162,7 @@
       <c r="E45" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="F45" s="15" t="s">
+      <c r="F45" s="14" t="s">
         <v>658</v>
       </c>
       <c r="G45" s="7" t="s">
@@ -9298,9 +9171,6 @@
       <c r="H45" s="7" t="s">
         <v>727</v>
       </c>
-      <c r="I45" s="7"/>
-      <c r="J45" s="7"/>
-      <c r="K45" s="10"/>
     </row>
     <row r="46" spans="1:11" ht="28">
       <c r="A46" s="5">
@@ -9320,7 +9190,7 @@
       <c r="E46" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="F46" s="15" t="s">
+      <c r="F46" s="14" t="s">
         <v>659</v>
       </c>
       <c r="G46" s="7" t="s">
@@ -9329,9 +9199,6 @@
       <c r="H46" s="7" t="s">
         <v>727</v>
       </c>
-      <c r="I46" s="7"/>
-      <c r="J46" s="7"/>
-      <c r="K46" s="10"/>
     </row>
     <row r="47" spans="1:11" ht="28">
       <c r="A47" s="5">
@@ -9351,7 +9218,7 @@
       <c r="E47" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="F47" s="15" t="s">
+      <c r="F47" s="14" t="s">
         <v>660</v>
       </c>
       <c r="G47" s="7" t="s">
@@ -9360,9 +9227,6 @@
       <c r="H47" s="7" t="s">
         <v>727</v>
       </c>
-      <c r="I47" s="7"/>
-      <c r="J47" s="7"/>
-      <c r="K47" s="10"/>
     </row>
     <row r="48" spans="1:11" ht="14">
       <c r="A48" s="5">
@@ -9382,7 +9246,7 @@
       <c r="E48" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="F48" s="15" t="s">
+      <c r="F48" s="14" t="s">
         <v>661</v>
       </c>
       <c r="G48" s="7" t="s">
@@ -9391,11 +9255,8 @@
       <c r="H48" s="7" t="s">
         <v>727</v>
       </c>
-      <c r="I48" s="7"/>
-      <c r="J48" s="7"/>
-      <c r="K48" s="10"/>
-    </row>
-    <row r="49" spans="1:11" ht="14">
+    </row>
+    <row r="49" spans="1:8" ht="14">
       <c r="A49" s="5">
         <f t="shared" si="0"/>
         <v>48</v>
@@ -9413,7 +9274,7 @@
       <c r="E49" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="F49" s="15" t="s">
+      <c r="F49" s="14" t="s">
         <v>662</v>
       </c>
       <c r="G49" s="7" t="s">
@@ -9422,11 +9283,8 @@
       <c r="H49" s="7" t="s">
         <v>727</v>
       </c>
-      <c r="I49" s="7"/>
-      <c r="J49" s="7"/>
-      <c r="K49" s="10"/>
-    </row>
-    <row r="50" spans="1:11" ht="14">
+    </row>
+    <row r="50" spans="1:8" ht="14">
       <c r="A50" s="5">
         <f t="shared" si="0"/>
         <v>49</v>
@@ -9444,7 +9302,7 @@
       <c r="E50" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="F50" s="15" t="s">
+      <c r="F50" s="14" t="s">
         <v>663</v>
       </c>
       <c r="G50" s="7" t="s">
@@ -9453,11 +9311,8 @@
       <c r="H50" s="7" t="s">
         <v>727</v>
       </c>
-      <c r="I50" s="7"/>
-      <c r="J50" s="7"/>
-      <c r="K50" s="10"/>
-    </row>
-    <row r="51" spans="1:11" ht="14">
+    </row>
+    <row r="51" spans="1:8" ht="14">
       <c r="A51" s="5">
         <f t="shared" si="0"/>
         <v>50</v>
@@ -9475,7 +9330,7 @@
       <c r="E51" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="F51" s="15" t="s">
+      <c r="F51" s="14" t="s">
         <v>664</v>
       </c>
       <c r="G51" s="7" t="s">
@@ -9484,11 +9339,8 @@
       <c r="H51" s="7" t="s">
         <v>727</v>
       </c>
-      <c r="I51" s="7"/>
-      <c r="J51" s="7"/>
-      <c r="K51" s="10"/>
-    </row>
-    <row r="52" spans="1:11" ht="14">
+    </row>
+    <row r="52" spans="1:8" ht="14">
       <c r="A52" s="5">
         <f t="shared" si="0"/>
         <v>51</v>
@@ -9506,7 +9358,7 @@
       <c r="E52" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="F52" s="15" t="s">
+      <c r="F52" s="14" t="s">
         <v>665</v>
       </c>
       <c r="G52" s="7" t="s">
@@ -9515,11 +9367,8 @@
       <c r="H52" s="7" t="s">
         <v>727</v>
       </c>
-      <c r="I52" s="7"/>
-      <c r="J52" s="7"/>
-      <c r="K52" s="10"/>
-    </row>
-    <row r="53" spans="1:11" ht="14">
+    </row>
+    <row r="53" spans="1:8" ht="14">
       <c r="A53" s="5">
         <f t="shared" si="0"/>
         <v>52</v>
@@ -9537,7 +9386,7 @@
       <c r="E53" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="F53" s="15" t="s">
+      <c r="F53" s="14" t="s">
         <v>666</v>
       </c>
       <c r="G53" s="7" t="s">
@@ -9546,11 +9395,8 @@
       <c r="H53" s="7" t="s">
         <v>727</v>
       </c>
-      <c r="I53" s="7"/>
-      <c r="J53" s="7"/>
-      <c r="K53" s="10"/>
-    </row>
-    <row r="54" spans="1:11" ht="14">
+    </row>
+    <row r="54" spans="1:8" ht="14">
       <c r="A54" s="5">
         <f t="shared" si="0"/>
         <v>53</v>
@@ -9568,7 +9414,7 @@
       <c r="E54" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="F54" s="15" t="s">
+      <c r="F54" s="14" t="s">
         <v>667</v>
       </c>
       <c r="G54" s="7" t="s">
@@ -9577,11 +9423,8 @@
       <c r="H54" s="7" t="s">
         <v>727</v>
       </c>
-      <c r="I54" s="7"/>
-      <c r="J54" s="7"/>
-      <c r="K54" s="10"/>
-    </row>
-    <row r="55" spans="1:11" ht="14">
+    </row>
+    <row r="55" spans="1:8" ht="14">
       <c r="A55" s="5">
         <f t="shared" si="0"/>
         <v>54</v>
@@ -9599,7 +9442,7 @@
       <c r="E55" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="F55" s="15" t="s">
+      <c r="F55" s="14" t="s">
         <v>668</v>
       </c>
       <c r="G55" s="7" t="s">
@@ -9608,11 +9451,8 @@
       <c r="H55" s="7" t="s">
         <v>727</v>
       </c>
-      <c r="I55" s="7"/>
-      <c r="J55" s="7"/>
-      <c r="K55" s="10"/>
-    </row>
-    <row r="56" spans="1:11" ht="28">
+    </row>
+    <row r="56" spans="1:8" ht="28">
       <c r="A56" s="5">
         <f t="shared" si="0"/>
         <v>55</v>
@@ -9630,7 +9470,7 @@
       <c r="E56" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="F56" s="15" t="s">
+      <c r="F56" s="14" t="s">
         <v>669</v>
       </c>
       <c r="G56" s="7" t="s">
@@ -9639,11 +9479,8 @@
       <c r="H56" s="7" t="s">
         <v>727</v>
       </c>
-      <c r="I56" s="7"/>
-      <c r="J56" s="7"/>
-      <c r="K56" s="10"/>
-    </row>
-    <row r="57" spans="1:11" ht="14">
+    </row>
+    <row r="57" spans="1:8" ht="14">
       <c r="A57" s="5">
         <f t="shared" si="0"/>
         <v>56</v>
@@ -9661,7 +9498,7 @@
       <c r="E57" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="F57" s="15" t="s">
+      <c r="F57" s="14" t="s">
         <v>670</v>
       </c>
       <c r="G57" s="7" t="s">
@@ -9670,11 +9507,8 @@
       <c r="H57" s="7" t="s">
         <v>727</v>
       </c>
-      <c r="I57" s="7"/>
-      <c r="J57" s="7"/>
-      <c r="K57" s="10"/>
-    </row>
-    <row r="58" spans="1:11" ht="14">
+    </row>
+    <row r="58" spans="1:8" ht="14">
       <c r="A58" s="5">
         <f t="shared" si="0"/>
         <v>57</v>
@@ -9692,7 +9526,7 @@
       <c r="E58" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="F58" s="15" t="s">
+      <c r="F58" s="14" t="s">
         <v>671</v>
       </c>
       <c r="G58" s="7" t="s">
@@ -9701,11 +9535,8 @@
       <c r="H58" s="7" t="s">
         <v>727</v>
       </c>
-      <c r="I58" s="7"/>
-      <c r="J58" s="7"/>
-      <c r="K58" s="10"/>
-    </row>
-    <row r="59" spans="1:11" ht="14">
+    </row>
+    <row r="59" spans="1:8" ht="14">
       <c r="A59" s="5">
         <f t="shared" si="0"/>
         <v>58</v>
@@ -9723,7 +9554,7 @@
       <c r="E59" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="F59" s="15" t="s">
+      <c r="F59" s="14" t="s">
         <v>672</v>
       </c>
       <c r="G59" s="7" t="s">
@@ -9732,11 +9563,8 @@
       <c r="H59" s="7" t="s">
         <v>727</v>
       </c>
-      <c r="I59" s="7"/>
-      <c r="J59" s="7"/>
-      <c r="K59" s="10"/>
-    </row>
-    <row r="60" spans="1:11" ht="28">
+    </row>
+    <row r="60" spans="1:8" ht="28">
       <c r="A60" s="5">
         <f t="shared" si="0"/>
         <v>59</v>
@@ -9754,7 +9582,7 @@
       <c r="E60" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="F60" s="15" t="s">
+      <c r="F60" s="14" t="s">
         <v>673</v>
       </c>
       <c r="G60" s="7" t="s">
@@ -9763,11 +9591,8 @@
       <c r="H60" s="7" t="s">
         <v>727</v>
       </c>
-      <c r="I60" s="7"/>
-      <c r="J60" s="7"/>
-      <c r="K60" s="10"/>
-    </row>
-    <row r="61" spans="1:11" ht="28">
+    </row>
+    <row r="61" spans="1:8" ht="28">
       <c r="A61" s="5">
         <f t="shared" si="0"/>
         <v>60</v>
@@ -9785,7 +9610,7 @@
       <c r="E61" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="F61" s="15" t="s">
+      <c r="F61" s="14" t="s">
         <v>674</v>
       </c>
       <c r="G61" s="7" t="s">
@@ -9794,11 +9619,8 @@
       <c r="H61" s="7" t="s">
         <v>727</v>
       </c>
-      <c r="I61" s="7"/>
-      <c r="J61" s="7"/>
-      <c r="K61" s="10"/>
-    </row>
-    <row r="62" spans="1:11" ht="28">
+    </row>
+    <row r="62" spans="1:8" ht="28">
       <c r="A62" s="5">
         <f t="shared" si="0"/>
         <v>61</v>
@@ -9816,7 +9638,7 @@
       <c r="E62" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="F62" s="15" t="s">
+      <c r="F62" s="14" t="s">
         <v>675</v>
       </c>
       <c r="G62" s="7" t="s">
@@ -9825,11 +9647,8 @@
       <c r="H62" s="7" t="s">
         <v>727</v>
       </c>
-      <c r="I62" s="7"/>
-      <c r="J62" s="7"/>
-      <c r="K62" s="10"/>
-    </row>
-    <row r="63" spans="1:11" ht="28">
+    </row>
+    <row r="63" spans="1:8" ht="28">
       <c r="A63" s="5">
         <f t="shared" si="0"/>
         <v>62</v>
@@ -9847,7 +9666,7 @@
       <c r="E63" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="F63" s="15" t="s">
+      <c r="F63" s="14" t="s">
         <v>676</v>
       </c>
       <c r="G63" s="7" t="s">
@@ -9856,11 +9675,8 @@
       <c r="H63" s="7" t="s">
         <v>727</v>
       </c>
-      <c r="I63" s="7"/>
-      <c r="J63" s="7"/>
-      <c r="K63" s="10"/>
-    </row>
-    <row r="64" spans="1:11" ht="28">
+    </row>
+    <row r="64" spans="1:8" ht="28">
       <c r="A64" s="5">
         <f t="shared" si="0"/>
         <v>63</v>
@@ -9878,7 +9694,7 @@
       <c r="E64" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="F64" s="15" t="s">
+      <c r="F64" s="14" t="s">
         <v>677</v>
       </c>
       <c r="G64" s="7" t="s">
@@ -9887,9 +9703,6 @@
       <c r="H64" s="7" t="s">
         <v>727</v>
       </c>
-      <c r="I64" s="7"/>
-      <c r="J64" s="7"/>
-      <c r="K64" s="10"/>
     </row>
     <row r="65" spans="1:11" ht="28">
       <c r="A65" s="5">
@@ -9909,7 +9722,7 @@
       <c r="E65" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="F65" s="15" t="s">
+      <c r="F65" s="14" t="s">
         <v>678</v>
       </c>
       <c r="G65" s="7" t="s">
@@ -9918,9 +9731,6 @@
       <c r="H65" s="7" t="s">
         <v>727</v>
       </c>
-      <c r="I65" s="7"/>
-      <c r="J65" s="7"/>
-      <c r="K65" s="10"/>
     </row>
     <row r="66" spans="1:11" ht="14">
       <c r="A66" s="5">
@@ -9940,7 +9750,7 @@
       <c r="E66" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="F66" s="15" t="s">
+      <c r="F66" s="14" t="s">
         <v>679</v>
       </c>
       <c r="G66" s="7" t="s">
@@ -9949,9 +9759,6 @@
       <c r="H66" s="7" t="s">
         <v>727</v>
       </c>
-      <c r="I66" s="7"/>
-      <c r="J66" s="7"/>
-      <c r="K66" s="10"/>
     </row>
     <row r="67" spans="1:11" ht="14">
       <c r="A67" s="5">
@@ -9971,7 +9778,7 @@
       <c r="E67" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="F67" s="15" t="s">
+      <c r="F67" s="14" t="s">
         <v>680</v>
       </c>
       <c r="G67" s="7" t="s">
@@ -9980,9 +9787,6 @@
       <c r="H67" s="7" t="s">
         <v>727</v>
       </c>
-      <c r="I67" s="7"/>
-      <c r="J67" s="7"/>
-      <c r="K67" s="10"/>
     </row>
     <row r="68" spans="1:11" ht="70">
       <c r="A68" s="5">
@@ -9996,7 +9800,7 @@
       <c r="C68" s="6">
         <v>3</v>
       </c>
-      <c r="D68" s="76" t="s">
+      <c r="D68" s="68" t="s">
         <v>168</v>
       </c>
       <c r="E68" s="8" t="s">
@@ -10008,11 +9812,9 @@
       <c r="G68" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="H68" s="7"/>
       <c r="I68" s="7" t="s">
         <v>706</v>
       </c>
-      <c r="J68" s="7"/>
       <c r="K68" s="10" t="s">
         <v>704</v>
       </c>
@@ -10029,7 +9831,7 @@
       <c r="C69" s="6">
         <v>3</v>
       </c>
-      <c r="D69" s="76"/>
+      <c r="D69" s="68"/>
       <c r="E69" s="8" t="s">
         <v>171</v>
       </c>
@@ -10039,11 +9841,9 @@
       <c r="G69" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="H69" s="7"/>
       <c r="I69" s="7" t="s">
         <v>706</v>
       </c>
-      <c r="J69" s="7"/>
       <c r="K69" s="10" t="s">
         <v>704</v>
       </c>
@@ -10060,7 +9860,7 @@
       <c r="C70" s="6">
         <v>3</v>
       </c>
-      <c r="D70" s="76"/>
+      <c r="D70" s="68"/>
       <c r="E70" s="8" t="s">
         <v>173</v>
       </c>
@@ -10070,11 +9870,9 @@
       <c r="G70" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="H70" s="7"/>
       <c r="I70" s="7" t="s">
         <v>706</v>
       </c>
-      <c r="J70" s="7"/>
       <c r="K70" s="10" t="s">
         <v>704</v>
       </c>
@@ -10091,7 +9889,7 @@
       <c r="C71" s="6">
         <v>3</v>
       </c>
-      <c r="D71" s="76"/>
+      <c r="D71" s="68"/>
       <c r="E71" s="8" t="s">
         <v>174</v>
       </c>
@@ -10101,11 +9899,9 @@
       <c r="G71" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="H71" s="7"/>
       <c r="I71" s="7" t="s">
         <v>706</v>
       </c>
-      <c r="J71" s="7"/>
       <c r="K71" s="10" t="s">
         <v>704</v>
       </c>
@@ -10122,7 +9918,7 @@
       <c r="C72" s="6">
         <v>3</v>
       </c>
-      <c r="D72" s="76"/>
+      <c r="D72" s="68"/>
       <c r="E72" s="8" t="s">
         <v>175</v>
       </c>
@@ -10132,11 +9928,9 @@
       <c r="G72" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="H72" s="7"/>
       <c r="I72" s="7" t="s">
         <v>706</v>
       </c>
-      <c r="J72" s="7"/>
       <c r="K72" s="10" t="s">
         <v>704</v>
       </c>
@@ -10153,7 +9947,7 @@
       <c r="C73" s="6">
         <v>3</v>
       </c>
-      <c r="D73" s="76"/>
+      <c r="D73" s="68"/>
       <c r="E73" s="8" t="s">
         <v>176</v>
       </c>
@@ -10163,11 +9957,9 @@
       <c r="G73" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="H73" s="7"/>
       <c r="I73" s="7" t="s">
         <v>706</v>
       </c>
-      <c r="J73" s="7"/>
       <c r="K73" s="10" t="s">
         <v>704</v>
       </c>
@@ -10184,7 +9976,7 @@
       <c r="C74" s="6">
         <v>3</v>
       </c>
-      <c r="D74" s="76"/>
+      <c r="D74" s="68"/>
       <c r="E74" s="8" t="s">
         <v>177</v>
       </c>
@@ -10194,11 +9986,9 @@
       <c r="G74" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="H74" s="7"/>
       <c r="I74" s="7" t="s">
         <v>706</v>
       </c>
-      <c r="J74" s="7"/>
       <c r="K74" s="10" t="s">
         <v>704</v>
       </c>
@@ -10215,7 +10005,7 @@
       <c r="C75" s="6">
         <v>3</v>
       </c>
-      <c r="D75" s="76"/>
+      <c r="D75" s="68"/>
       <c r="E75" s="8" t="s">
         <v>178</v>
       </c>
@@ -10225,11 +10015,9 @@
       <c r="G75" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="H75" s="7"/>
       <c r="I75" s="7" t="s">
         <v>706</v>
       </c>
-      <c r="J75" s="7"/>
       <c r="K75" s="10" t="s">
         <v>704</v>
       </c>
@@ -10246,7 +10034,7 @@
       <c r="C76" s="6">
         <v>3</v>
       </c>
-      <c r="D76" s="76"/>
+      <c r="D76" s="68"/>
       <c r="E76" s="8" t="s">
         <v>179</v>
       </c>
@@ -10256,11 +10044,9 @@
       <c r="G76" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="H76" s="7"/>
       <c r="I76" s="7" t="s">
         <v>706</v>
       </c>
-      <c r="J76" s="7"/>
       <c r="K76" s="10" t="s">
         <v>704</v>
       </c>
@@ -10277,7 +10063,7 @@
       <c r="C77" s="6">
         <v>3</v>
       </c>
-      <c r="D77" s="76"/>
+      <c r="D77" s="68"/>
       <c r="E77" s="8" t="s">
         <v>180</v>
       </c>
@@ -10287,11 +10073,9 @@
       <c r="G77" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="H77" s="7"/>
       <c r="I77" s="7" t="s">
         <v>706</v>
       </c>
-      <c r="J77" s="7"/>
       <c r="K77" s="10" t="s">
         <v>704</v>
       </c>
@@ -10308,7 +10092,7 @@
       <c r="C78" s="6">
         <v>3</v>
       </c>
-      <c r="D78" s="76"/>
+      <c r="D78" s="68"/>
       <c r="E78" s="8" t="s">
         <v>181</v>
       </c>
@@ -10318,11 +10102,9 @@
       <c r="G78" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="H78" s="7"/>
       <c r="I78" s="7" t="s">
         <v>706</v>
       </c>
-      <c r="J78" s="7"/>
       <c r="K78" s="10" t="s">
         <v>704</v>
       </c>
@@ -10339,7 +10121,7 @@
       <c r="C79" s="6">
         <v>3</v>
       </c>
-      <c r="D79" s="76"/>
+      <c r="D79" s="68"/>
       <c r="E79" s="8" t="s">
         <v>182</v>
       </c>
@@ -10349,11 +10131,9 @@
       <c r="G79" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="H79" s="7"/>
       <c r="I79" s="7" t="s">
         <v>706</v>
       </c>
-      <c r="J79" s="7"/>
       <c r="K79" s="10" t="s">
         <v>704</v>
       </c>
@@ -10370,7 +10150,7 @@
       <c r="C80" s="6">
         <v>3</v>
       </c>
-      <c r="D80" s="76"/>
+      <c r="D80" s="68"/>
       <c r="E80" s="8" t="s">
         <v>183</v>
       </c>
@@ -10380,11 +10160,9 @@
       <c r="G80" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="H80" s="7"/>
       <c r="I80" s="7" t="s">
         <v>706</v>
       </c>
-      <c r="J80" s="7"/>
       <c r="K80" s="10" t="s">
         <v>704</v>
       </c>
@@ -10401,7 +10179,7 @@
       <c r="C81" s="6">
         <v>3</v>
       </c>
-      <c r="D81" s="76"/>
+      <c r="D81" s="68"/>
       <c r="E81" s="8" t="s">
         <v>184</v>
       </c>
@@ -10411,11 +10189,9 @@
       <c r="G81" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="H81" s="7"/>
       <c r="I81" s="7" t="s">
         <v>706</v>
       </c>
-      <c r="J81" s="7"/>
       <c r="K81" s="10" t="s">
         <v>704</v>
       </c>
@@ -10432,7 +10208,7 @@
       <c r="C82" s="6">
         <v>3</v>
       </c>
-      <c r="D82" s="76"/>
+      <c r="D82" s="68"/>
       <c r="E82" s="8" t="s">
         <v>185</v>
       </c>
@@ -10442,11 +10218,9 @@
       <c r="G82" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="H82" s="7"/>
       <c r="I82" s="7" t="s">
         <v>706</v>
       </c>
-      <c r="J82" s="7"/>
       <c r="K82" s="10" t="s">
         <v>704</v>
       </c>
@@ -10463,7 +10237,7 @@
       <c r="C83" s="6">
         <v>3</v>
       </c>
-      <c r="D83" s="76"/>
+      <c r="D83" s="68"/>
       <c r="E83" s="8" t="s">
         <v>186</v>
       </c>
@@ -10473,11 +10247,9 @@
       <c r="G83" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="H83" s="7"/>
       <c r="I83" s="7" t="s">
         <v>706</v>
       </c>
-      <c r="J83" s="7"/>
       <c r="K83" s="10" t="s">
         <v>704</v>
       </c>
@@ -10506,11 +10278,9 @@
       <c r="G84" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="H84" s="7"/>
       <c r="I84" s="7" t="s">
         <v>706</v>
       </c>
-      <c r="J84" s="7"/>
       <c r="K84" s="10" t="s">
         <v>704</v>
       </c>
@@ -10520,29 +10290,29 @@
         <f t="shared" si="2"/>
         <v>84</v>
       </c>
-      <c r="B85" s="20">
+      <c r="B85" s="18">
         <f t="shared" si="3"/>
         <v>575</v>
       </c>
-      <c r="C85" s="21">
+      <c r="C85" s="19">
         <v>40</v>
       </c>
-      <c r="D85" s="22" t="s">
+      <c r="D85" s="20" t="s">
         <v>582</v>
       </c>
-      <c r="E85" s="23" t="s">
+      <c r="E85" s="21" t="s">
         <v>190</v>
       </c>
-      <c r="F85" s="24" t="s">
+      <c r="F85" s="22" t="s">
         <v>681</v>
       </c>
-      <c r="G85" s="22"/>
-      <c r="H85" s="22" t="s">
-        <v>727</v>
-      </c>
-      <c r="I85" s="22"/>
-      <c r="J85" s="22"/>
-      <c r="K85" s="25"/>
+      <c r="G85" s="20"/>
+      <c r="H85" s="20" t="s">
+        <v>727</v>
+      </c>
+      <c r="I85" s="20"/>
+      <c r="J85" s="20"/>
+      <c r="K85" s="23"/>
     </row>
     <row r="86" spans="1:11" ht="182">
       <c r="A86" s="5">
@@ -10562,47 +10332,47 @@
       <c r="E86" s="8" t="s">
         <v>192</v>
       </c>
-      <c r="F86" s="24" t="s">
+      <c r="F86" s="22" t="s">
         <v>682</v>
       </c>
-      <c r="G86" s="26" t="s">
+      <c r="G86" s="24" t="s">
         <v>193</v>
       </c>
-      <c r="H86" s="22" t="s">
-        <v>727</v>
-      </c>
-      <c r="I86" s="26"/>
-      <c r="J86" s="26"/>
-      <c r="K86" s="27"/>
+      <c r="H86" s="20" t="s">
+        <v>727</v>
+      </c>
+      <c r="I86" s="24"/>
+      <c r="J86" s="24"/>
+      <c r="K86" s="25"/>
     </row>
     <row r="87" spans="1:11" ht="14">
       <c r="A87" s="5">
         <f t="shared" si="2"/>
         <v>86</v>
       </c>
-      <c r="B87" s="20">
+      <c r="B87" s="18">
         <f t="shared" si="3"/>
         <v>618</v>
       </c>
-      <c r="C87" s="21">
+      <c r="C87" s="19">
         <v>40</v>
       </c>
-      <c r="D87" s="22" t="s">
+      <c r="D87" s="20" t="s">
         <v>583</v>
       </c>
-      <c r="E87" s="23" t="s">
+      <c r="E87" s="21" t="s">
         <v>194</v>
       </c>
-      <c r="F87" s="24" t="s">
+      <c r="F87" s="22" t="s">
         <v>683</v>
       </c>
-      <c r="G87" s="22"/>
-      <c r="H87" s="22" t="s">
-        <v>727</v>
-      </c>
-      <c r="I87" s="22"/>
-      <c r="J87" s="22"/>
-      <c r="K87" s="25"/>
+      <c r="G87" s="20"/>
+      <c r="H87" s="20" t="s">
+        <v>727</v>
+      </c>
+      <c r="I87" s="20"/>
+      <c r="J87" s="20"/>
+      <c r="K87" s="23"/>
     </row>
     <row r="88" spans="1:11" ht="182">
       <c r="A88" s="5">
@@ -10625,14 +10395,14 @@
       <c r="F88" s="7" t="s">
         <v>630</v>
       </c>
-      <c r="G88" s="26" t="s">
+      <c r="G88" s="24" t="s">
         <v>193</v>
       </c>
-      <c r="H88" s="26"/>
+      <c r="H88" s="24"/>
       <c r="I88" s="7" t="s">
         <v>706</v>
       </c>
-      <c r="J88" s="26"/>
+      <c r="J88" s="24"/>
       <c r="K88" s="10" t="s">
         <v>704</v>
       </c>
@@ -10661,11 +10431,9 @@
       <c r="G89" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="H89" s="7"/>
       <c r="I89" s="7" t="s">
         <v>706</v>
       </c>
-      <c r="J89" s="7"/>
       <c r="K89" s="10" t="s">
         <v>704</v>
       </c>
@@ -10688,18 +10456,15 @@
       <c r="E90" s="8" t="s">
         <v>201</v>
       </c>
-      <c r="F90" s="24" t="s">
+      <c r="F90" s="22" t="s">
         <v>634</v>
       </c>
       <c r="G90" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="H90" s="22" t="s">
-        <v>727</v>
-      </c>
-      <c r="I90" s="7"/>
-      <c r="J90" s="7"/>
-      <c r="K90" s="10"/>
+      <c r="H90" s="20" t="s">
+        <v>727</v>
+      </c>
     </row>
     <row r="91" spans="1:11" ht="96" customHeight="1">
       <c r="A91" s="5">
@@ -10719,13 +10484,13 @@
       <c r="E91" s="8" t="s">
         <v>204</v>
       </c>
-      <c r="F91" s="24" t="s">
+      <c r="F91" s="22" t="s">
         <v>640</v>
       </c>
       <c r="G91" s="12" t="s">
         <v>621</v>
       </c>
-      <c r="H91" s="22" t="s">
+      <c r="H91" s="20" t="s">
         <v>727</v>
       </c>
       <c r="I91" s="12"/>
@@ -10756,11 +10521,9 @@
       <c r="G92" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="H92" s="7"/>
       <c r="I92" s="7">
         <v>2022</v>
       </c>
-      <c r="J92" s="7"/>
     </row>
     <row r="93" spans="1:11" ht="28">
       <c r="A93" s="5">
@@ -10783,15 +10546,15 @@
       <c r="F93" s="7" t="s">
         <v>630</v>
       </c>
-      <c r="G93" s="28" t="s">
+      <c r="G93" s="26" t="s">
         <v>210</v>
       </c>
-      <c r="H93" s="28"/>
+      <c r="H93" s="26"/>
       <c r="I93" s="7" t="s">
         <v>706</v>
       </c>
-      <c r="J93" s="28"/>
-      <c r="K93" s="17" t="s">
+      <c r="J93" s="26"/>
+      <c r="K93" s="10" t="s">
         <v>704</v>
       </c>
     </row>
@@ -10816,81 +10579,81 @@
       <c r="F94" s="7" t="s">
         <v>630</v>
       </c>
-      <c r="G94" s="18" t="s">
+      <c r="G94" s="16" t="s">
         <v>213</v>
       </c>
-      <c r="H94" s="18"/>
+      <c r="H94" s="16"/>
       <c r="I94" s="7" t="s">
         <v>706</v>
       </c>
-      <c r="J94" s="18"/>
-      <c r="K94" s="17" t="s">
+      <c r="J94" s="16"/>
+      <c r="K94" s="10" t="s">
         <v>704</v>
       </c>
     </row>
-    <row r="95" spans="1:11" s="33" customFormat="1" ht="28">
-      <c r="A95" s="29">
+    <row r="95" spans="1:11" ht="28">
+      <c r="A95" s="27">
         <f t="shared" si="2"/>
         <v>94</v>
       </c>
-      <c r="B95" s="29">
+      <c r="B95" s="27">
         <f t="shared" si="3"/>
         <v>681</v>
       </c>
-      <c r="C95" s="30">
+      <c r="C95" s="28">
         <v>4</v>
       </c>
-      <c r="D95" s="31" t="s">
+      <c r="D95" s="29" t="s">
         <v>616</v>
       </c>
-      <c r="E95" s="32" t="s">
+      <c r="E95" s="30" t="s">
         <v>618</v>
       </c>
-      <c r="F95" s="31" t="s">
-        <v>630</v>
-      </c>
-      <c r="G95" s="31" t="s">
+      <c r="F95" s="29" t="s">
+        <v>630</v>
+      </c>
+      <c r="G95" s="29" t="s">
         <v>617</v>
       </c>
-      <c r="H95" s="31"/>
+      <c r="H95" s="29"/>
       <c r="I95" s="7" t="s">
         <v>706</v>
       </c>
-      <c r="J95" s="31"/>
-      <c r="K95" s="17" t="s">
+      <c r="J95" s="29"/>
+      <c r="K95" s="10" t="s">
         <v>704</v>
       </c>
     </row>
-    <row r="96" spans="1:11" s="33" customFormat="1" ht="28">
-      <c r="A96" s="29">
+    <row r="96" spans="1:11" ht="28">
+      <c r="A96" s="27">
         <f t="shared" si="2"/>
         <v>95</v>
       </c>
-      <c r="B96" s="29">
+      <c r="B96" s="27">
         <f t="shared" si="3"/>
         <v>685</v>
       </c>
-      <c r="C96" s="30">
+      <c r="C96" s="28">
         <v>4</v>
       </c>
-      <c r="D96" s="31" t="s">
+      <c r="D96" s="29" t="s">
         <v>615</v>
       </c>
-      <c r="E96" s="32" t="s">
+      <c r="E96" s="30" t="s">
         <v>619</v>
       </c>
-      <c r="F96" s="31" t="s">
-        <v>630</v>
-      </c>
-      <c r="G96" s="31" t="s">
+      <c r="F96" s="29" t="s">
+        <v>630</v>
+      </c>
+      <c r="G96" s="29" t="s">
         <v>617</v>
       </c>
-      <c r="H96" s="31"/>
+      <c r="H96" s="29"/>
       <c r="I96" s="7" t="s">
         <v>706</v>
       </c>
-      <c r="J96" s="31"/>
-      <c r="K96" s="17" t="s">
+      <c r="J96" s="29"/>
+      <c r="K96" s="10" t="s">
         <v>704</v>
       </c>
     </row>
@@ -10918,11 +10681,9 @@
       <c r="G97" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="H97" s="7"/>
       <c r="I97" s="7">
         <v>2022</v>
       </c>
-      <c r="J97" s="7"/>
     </row>
     <row r="98" spans="1:12" ht="28">
       <c r="A98" s="5">
@@ -10948,12 +10709,10 @@
       <c r="G98" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="H98" s="7"/>
       <c r="I98" s="7" t="s">
         <v>706</v>
       </c>
-      <c r="J98" s="7"/>
-      <c r="K98" s="17" t="s">
+      <c r="K98" s="10" t="s">
         <v>704</v>
       </c>
     </row>
@@ -10981,16 +10740,14 @@
       <c r="G99" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="H99" s="7"/>
       <c r="I99" s="7" t="s">
         <v>706</v>
       </c>
-      <c r="J99" s="7"/>
-      <c r="K99" s="17" t="s">
+      <c r="K99" s="10" t="s">
         <v>704</v>
       </c>
     </row>
-    <row r="100" spans="1:12" s="33" customFormat="1" ht="28">
+    <row r="100" spans="1:12" ht="28">
       <c r="A100" s="5">
         <f t="shared" si="2"/>
         <v>99</v>
@@ -11014,12 +10771,10 @@
       <c r="G100" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="H100" s="7"/>
       <c r="I100" s="7" t="s">
         <v>706</v>
       </c>
-      <c r="J100" s="7"/>
-      <c r="K100" s="17" t="s">
+      <c r="K100" s="10" t="s">
         <v>704</v>
       </c>
     </row>
@@ -11028,37 +10783,37 @@
         <f>A100+1</f>
         <v>100</v>
       </c>
-      <c r="B101" s="34">
+      <c r="B101" s="31">
         <v>701</v>
       </c>
-      <c r="C101" s="21">
+      <c r="C101" s="19">
         <v>1</v>
       </c>
-      <c r="D101" s="22" t="s">
+      <c r="D101" s="20" t="s">
         <v>225</v>
       </c>
-      <c r="E101" s="35" t="s">
+      <c r="E101" s="32" t="s">
         <v>226</v>
       </c>
-      <c r="F101" s="24" t="s">
+      <c r="F101" s="22" t="s">
         <v>685</v>
       </c>
-      <c r="G101" s="77" t="s">
+      <c r="G101" s="69" t="s">
         <v>227</v>
       </c>
-      <c r="H101" s="22" t="s">
-        <v>727</v>
-      </c>
-      <c r="I101" s="36"/>
-      <c r="J101" s="36"/>
-      <c r="K101" s="37"/>
+      <c r="H101" s="20" t="s">
+        <v>727</v>
+      </c>
+      <c r="I101" s="33"/>
+      <c r="J101" s="33"/>
+      <c r="K101" s="34"/>
     </row>
     <row r="102" spans="1:12" ht="28">
       <c r="A102" s="5">
         <f>A101+1</f>
         <v>101</v>
       </c>
-      <c r="B102" s="38">
+      <c r="B102" s="35">
         <f>B101+C101</f>
         <v>702</v>
       </c>
@@ -11068,19 +10823,19 @@
       <c r="D102" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="E102" s="39" t="s">
+      <c r="E102" s="36" t="s">
         <v>229</v>
       </c>
-      <c r="F102" s="33" t="s">
-        <v>630</v>
-      </c>
-      <c r="G102" s="77"/>
-      <c r="H102" s="36"/>
+      <c r="F102" s="11" t="s">
+        <v>630</v>
+      </c>
+      <c r="G102" s="69"/>
+      <c r="H102" s="33"/>
       <c r="I102" s="7" t="s">
         <v>706</v>
       </c>
-      <c r="J102" s="36"/>
-      <c r="K102" s="17" t="s">
+      <c r="J102" s="33"/>
+      <c r="K102" s="10" t="s">
         <v>704</v>
       </c>
       <c r="L102" s="7"/>
@@ -11090,7 +10845,7 @@
         <f t="shared" ref="A103:A128" si="4">A102+1</f>
         <v>102</v>
       </c>
-      <c r="B103" s="38">
+      <c r="B103" s="35">
         <f t="shared" ref="B103:B126" si="5">B102+C102</f>
         <v>703</v>
       </c>
@@ -11100,19 +10855,19 @@
       <c r="D103" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="E103" s="39" t="s">
+      <c r="E103" s="36" t="s">
         <v>231</v>
       </c>
-      <c r="F103" s="33" t="s">
-        <v>630</v>
-      </c>
-      <c r="G103" s="77"/>
-      <c r="H103" s="36"/>
+      <c r="F103" s="11" t="s">
+        <v>630</v>
+      </c>
+      <c r="G103" s="69"/>
+      <c r="H103" s="33"/>
       <c r="I103" s="7" t="s">
         <v>706</v>
       </c>
-      <c r="J103" s="36"/>
-      <c r="K103" s="17" t="s">
+      <c r="J103" s="33"/>
+      <c r="K103" s="10" t="s">
         <v>704</v>
       </c>
     </row>
@@ -11121,29 +10876,29 @@
         <f t="shared" si="4"/>
         <v>103</v>
       </c>
-      <c r="B104" s="34">
+      <c r="B104" s="31">
         <f t="shared" si="5"/>
         <v>704</v>
       </c>
-      <c r="C104" s="21">
+      <c r="C104" s="19">
         <v>1</v>
       </c>
-      <c r="D104" s="22" t="s">
+      <c r="D104" s="20" t="s">
         <v>232</v>
       </c>
-      <c r="E104" s="35" t="s">
+      <c r="E104" s="32" t="s">
         <v>233</v>
       </c>
-      <c r="F104" s="24" t="s">
+      <c r="F104" s="22" t="s">
         <v>686</v>
       </c>
-      <c r="G104" s="77"/>
-      <c r="H104" s="22" t="s">
-        <v>727</v>
-      </c>
-      <c r="I104" s="36"/>
-      <c r="J104" s="36"/>
-      <c r="K104" s="37" t="s">
+      <c r="G104" s="69"/>
+      <c r="H104" s="20" t="s">
+        <v>727</v>
+      </c>
+      <c r="I104" s="33"/>
+      <c r="J104" s="33"/>
+      <c r="K104" s="34" t="s">
         <v>687</v>
       </c>
     </row>
@@ -11152,7 +10907,7 @@
         <f t="shared" si="4"/>
         <v>104</v>
       </c>
-      <c r="B105" s="38">
+      <c r="B105" s="35">
         <f t="shared" si="5"/>
         <v>705</v>
       </c>
@@ -11162,26 +10917,26 @@
       <c r="D105" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="E105" s="39" t="s">
+      <c r="E105" s="36" t="s">
         <v>235</v>
       </c>
       <c r="F105" s="1" t="s">
         <v>713</v>
       </c>
-      <c r="G105" s="77"/>
-      <c r="H105" s="22" t="s">
-        <v>727</v>
-      </c>
-      <c r="I105" s="36"/>
-      <c r="J105" s="36"/>
-      <c r="K105" s="37"/>
+      <c r="G105" s="69"/>
+      <c r="H105" s="20" t="s">
+        <v>727</v>
+      </c>
+      <c r="I105" s="33"/>
+      <c r="J105" s="33"/>
+      <c r="K105" s="34"/>
     </row>
     <row r="106" spans="1:12" ht="28">
       <c r="A106" s="5">
         <f t="shared" si="4"/>
         <v>105</v>
       </c>
-      <c r="B106" s="38">
+      <c r="B106" s="35">
         <f t="shared" si="5"/>
         <v>710</v>
       </c>
@@ -11191,19 +10946,19 @@
       <c r="D106" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="E106" s="39" t="s">
+      <c r="E106" s="36" t="s">
         <v>237</v>
       </c>
-      <c r="F106" s="33" t="s">
-        <v>630</v>
-      </c>
-      <c r="G106" s="77"/>
-      <c r="H106" s="36"/>
-      <c r="I106" s="36" t="s">
-        <v>706</v>
-      </c>
-      <c r="J106" s="36"/>
-      <c r="K106" s="17" t="s">
+      <c r="F106" s="11" t="s">
+        <v>630</v>
+      </c>
+      <c r="G106" s="69"/>
+      <c r="H106" s="33"/>
+      <c r="I106" s="33" t="s">
+        <v>706</v>
+      </c>
+      <c r="J106" s="33"/>
+      <c r="K106" s="10" t="s">
         <v>704</v>
       </c>
     </row>
@@ -11212,7 +10967,7 @@
         <f t="shared" si="4"/>
         <v>106</v>
       </c>
-      <c r="B107" s="38">
+      <c r="B107" s="35">
         <f t="shared" si="5"/>
         <v>715</v>
       </c>
@@ -11222,19 +10977,19 @@
       <c r="D107" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="E107" s="39" t="s">
+      <c r="E107" s="36" t="s">
         <v>239</v>
       </c>
-      <c r="F107" s="33" t="s">
-        <v>630</v>
-      </c>
-      <c r="G107" s="77"/>
-      <c r="H107" s="36"/>
-      <c r="I107" s="36" t="s">
-        <v>706</v>
-      </c>
-      <c r="J107" s="36"/>
-      <c r="K107" s="17" t="s">
+      <c r="F107" s="11" t="s">
+        <v>630</v>
+      </c>
+      <c r="G107" s="69"/>
+      <c r="H107" s="33"/>
+      <c r="I107" s="33" t="s">
+        <v>706</v>
+      </c>
+      <c r="J107" s="33"/>
+      <c r="K107" s="10" t="s">
         <v>704</v>
       </c>
     </row>
@@ -11243,7 +10998,7 @@
         <f t="shared" si="4"/>
         <v>107</v>
       </c>
-      <c r="B108" s="38">
+      <c r="B108" s="35">
         <f t="shared" si="5"/>
         <v>875</v>
       </c>
@@ -11253,19 +11008,19 @@
       <c r="D108" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="E108" s="39" t="s">
+      <c r="E108" s="36" t="s">
         <v>241</v>
       </c>
-      <c r="F108" s="33" t="s">
-        <v>630</v>
-      </c>
-      <c r="G108" s="77"/>
-      <c r="H108" s="36"/>
-      <c r="I108" s="36" t="s">
-        <v>706</v>
-      </c>
-      <c r="J108" s="36"/>
-      <c r="K108" s="17" t="s">
+      <c r="F108" s="11" t="s">
+        <v>630</v>
+      </c>
+      <c r="G108" s="69"/>
+      <c r="H108" s="33"/>
+      <c r="I108" s="33" t="s">
+        <v>706</v>
+      </c>
+      <c r="J108" s="33"/>
+      <c r="K108" s="10" t="s">
         <v>704</v>
       </c>
     </row>
@@ -11274,7 +11029,7 @@
         <f t="shared" si="4"/>
         <v>108</v>
       </c>
-      <c r="B109" s="38">
+      <c r="B109" s="35">
         <f t="shared" si="5"/>
         <v>876</v>
       </c>
@@ -11284,19 +11039,19 @@
       <c r="D109" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="E109" s="39" t="s">
+      <c r="E109" s="36" t="s">
         <v>243</v>
       </c>
-      <c r="F109" s="33" t="s">
+      <c r="F109" s="11" t="s">
         <v>707</v>
       </c>
-      <c r="G109" s="77"/>
-      <c r="H109" s="22" t="s">
-        <v>727</v>
-      </c>
-      <c r="I109" s="36"/>
-      <c r="J109" s="36"/>
-      <c r="K109" s="37" t="s">
+      <c r="G109" s="69"/>
+      <c r="H109" s="20" t="s">
+        <v>727</v>
+      </c>
+      <c r="I109" s="33"/>
+      <c r="J109" s="33"/>
+      <c r="K109" s="34" t="s">
         <v>688</v>
       </c>
     </row>
@@ -11305,232 +11060,232 @@
         <f t="shared" si="4"/>
         <v>109</v>
       </c>
-      <c r="B110" s="34">
+      <c r="B110" s="31">
         <f t="shared" si="5"/>
         <v>976</v>
       </c>
-      <c r="C110" s="21">
+      <c r="C110" s="19">
         <v>1</v>
       </c>
-      <c r="D110" s="22" t="s">
+      <c r="D110" s="20" t="s">
         <v>244</v>
       </c>
-      <c r="E110" s="35" t="s">
+      <c r="E110" s="32" t="s">
         <v>245</v>
       </c>
-      <c r="F110" s="24" t="s">
+      <c r="F110" s="22" t="s">
         <v>689</v>
       </c>
-      <c r="G110" s="77"/>
-      <c r="H110" s="22" t="s">
-        <v>727</v>
-      </c>
-      <c r="I110" s="36"/>
-      <c r="J110" s="36"/>
-      <c r="K110" s="37"/>
+      <c r="G110" s="69"/>
+      <c r="H110" s="20" t="s">
+        <v>727</v>
+      </c>
+      <c r="I110" s="33"/>
+      <c r="J110" s="33"/>
+      <c r="K110" s="34"/>
     </row>
     <row r="111" spans="1:12" ht="28">
       <c r="A111" s="5">
         <f t="shared" si="4"/>
         <v>110</v>
       </c>
-      <c r="B111" s="34">
+      <c r="B111" s="31">
         <f t="shared" si="5"/>
         <v>977</v>
       </c>
-      <c r="C111" s="21">
+      <c r="C111" s="19">
         <v>1</v>
       </c>
-      <c r="D111" s="22" t="s">
+      <c r="D111" s="20" t="s">
         <v>246</v>
       </c>
-      <c r="E111" s="35" t="s">
+      <c r="E111" s="32" t="s">
         <v>247</v>
       </c>
-      <c r="F111" s="24" t="s">
+      <c r="F111" s="22" t="s">
         <v>690</v>
       </c>
-      <c r="G111" s="77"/>
-      <c r="H111" s="22" t="s">
-        <v>727</v>
-      </c>
-      <c r="I111" s="36"/>
-      <c r="J111" s="36"/>
-      <c r="K111" s="37"/>
+      <c r="G111" s="69"/>
+      <c r="H111" s="20" t="s">
+        <v>727</v>
+      </c>
+      <c r="I111" s="33"/>
+      <c r="J111" s="33"/>
+      <c r="K111" s="34"/>
     </row>
     <row r="112" spans="1:12" ht="14">
       <c r="A112" s="5">
         <f t="shared" si="4"/>
         <v>111</v>
       </c>
-      <c r="B112" s="34">
+      <c r="B112" s="31">
         <f t="shared" si="5"/>
         <v>978</v>
       </c>
-      <c r="C112" s="21">
+      <c r="C112" s="19">
         <v>1</v>
       </c>
-      <c r="D112" s="22" t="s">
+      <c r="D112" s="20" t="s">
         <v>248</v>
       </c>
-      <c r="E112" s="35" t="s">
+      <c r="E112" s="32" t="s">
         <v>249</v>
       </c>
-      <c r="F112" s="24" t="s">
+      <c r="F112" s="22" t="s">
         <v>691</v>
       </c>
-      <c r="G112" s="77"/>
-      <c r="H112" s="22" t="s">
-        <v>727</v>
-      </c>
-      <c r="I112" s="36"/>
-      <c r="J112" s="36"/>
-      <c r="K112" s="37"/>
+      <c r="G112" s="69"/>
+      <c r="H112" s="20" t="s">
+        <v>727</v>
+      </c>
+      <c r="I112" s="33"/>
+      <c r="J112" s="33"/>
+      <c r="K112" s="34"/>
     </row>
     <row r="113" spans="1:12" ht="126">
       <c r="A113" s="5">
         <f t="shared" si="4"/>
         <v>112</v>
       </c>
-      <c r="B113" s="34">
+      <c r="B113" s="31">
         <f t="shared" si="5"/>
         <v>979</v>
       </c>
-      <c r="C113" s="21">
+      <c r="C113" s="19">
         <v>1</v>
       </c>
-      <c r="D113" s="22" t="s">
+      <c r="D113" s="20" t="s">
         <v>250</v>
       </c>
-      <c r="E113" s="35" t="s">
+      <c r="E113" s="32" t="s">
         <v>251</v>
       </c>
-      <c r="F113" s="24" t="s">
+      <c r="F113" s="22" t="s">
         <v>692</v>
       </c>
-      <c r="G113" s="77"/>
-      <c r="H113" s="22" t="s">
-        <v>727</v>
-      </c>
-      <c r="I113" s="36"/>
-      <c r="J113" s="36"/>
-      <c r="K113" s="37"/>
+      <c r="G113" s="69"/>
+      <c r="H113" s="20" t="s">
+        <v>727</v>
+      </c>
+      <c r="I113" s="33"/>
+      <c r="J113" s="33"/>
+      <c r="K113" s="34"/>
     </row>
     <row r="114" spans="1:12" ht="14">
       <c r="A114" s="5">
         <f t="shared" si="4"/>
         <v>113</v>
       </c>
-      <c r="B114" s="34">
+      <c r="B114" s="31">
         <f t="shared" si="5"/>
         <v>980</v>
       </c>
-      <c r="C114" s="21">
+      <c r="C114" s="19">
         <v>1</v>
       </c>
-      <c r="D114" s="22" t="s">
+      <c r="D114" s="20" t="s">
         <v>252</v>
       </c>
-      <c r="E114" s="35" t="s">
+      <c r="E114" s="32" t="s">
         <v>253</v>
       </c>
-      <c r="F114" s="70" t="s">
-        <v>630</v>
-      </c>
-      <c r="G114" s="77"/>
-      <c r="H114" s="36"/>
-      <c r="I114" s="36" t="s">
-        <v>706</v>
-      </c>
-      <c r="J114" s="36"/>
-      <c r="K114" s="37"/>
+      <c r="F114" s="64" t="s">
+        <v>630</v>
+      </c>
+      <c r="G114" s="69"/>
+      <c r="H114" s="33"/>
+      <c r="I114" s="33" t="s">
+        <v>706</v>
+      </c>
+      <c r="J114" s="33"/>
+      <c r="K114" s="34"/>
     </row>
     <row r="115" spans="1:12" ht="14">
       <c r="A115" s="5">
         <f t="shared" si="4"/>
         <v>114</v>
       </c>
-      <c r="B115" s="34">
+      <c r="B115" s="31">
         <f t="shared" si="5"/>
         <v>981</v>
       </c>
-      <c r="C115" s="21">
+      <c r="C115" s="19">
         <v>2</v>
       </c>
-      <c r="D115" s="22" t="s">
+      <c r="D115" s="20" t="s">
         <v>254</v>
       </c>
-      <c r="E115" s="35" t="s">
+      <c r="E115" s="32" t="s">
         <v>255</v>
       </c>
-      <c r="F115" s="24" t="s">
+      <c r="F115" s="22" t="s">
         <v>693</v>
       </c>
-      <c r="G115" s="77"/>
-      <c r="H115" s="22" t="s">
-        <v>727</v>
-      </c>
-      <c r="I115" s="36"/>
-      <c r="J115" s="36"/>
-      <c r="K115" s="37"/>
+      <c r="G115" s="69"/>
+      <c r="H115" s="20" t="s">
+        <v>727</v>
+      </c>
+      <c r="I115" s="33"/>
+      <c r="J115" s="33"/>
+      <c r="K115" s="34"/>
     </row>
     <row r="116" spans="1:12" ht="14">
       <c r="A116" s="5">
         <f t="shared" si="4"/>
         <v>115</v>
       </c>
-      <c r="B116" s="34">
+      <c r="B116" s="31">
         <f t="shared" si="5"/>
         <v>983</v>
       </c>
-      <c r="C116" s="21">
+      <c r="C116" s="19">
         <v>2</v>
       </c>
-      <c r="D116" s="22" t="s">
+      <c r="D116" s="20" t="s">
         <v>256</v>
       </c>
-      <c r="E116" s="35" t="s">
+      <c r="E116" s="32" t="s">
         <v>257</v>
       </c>
-      <c r="F116" s="24" t="s">
+      <c r="F116" s="22" t="s">
         <v>694</v>
       </c>
-      <c r="G116" s="77"/>
-      <c r="H116" s="22" t="s">
-        <v>727</v>
-      </c>
-      <c r="I116" s="36"/>
-      <c r="J116" s="36"/>
-      <c r="K116" s="37"/>
+      <c r="G116" s="69"/>
+      <c r="H116" s="20" t="s">
+        <v>727</v>
+      </c>
+      <c r="I116" s="33"/>
+      <c r="J116" s="33"/>
+      <c r="K116" s="34"/>
     </row>
     <row r="117" spans="1:12" ht="42">
       <c r="A117" s="5">
         <f t="shared" si="4"/>
         <v>116</v>
       </c>
-      <c r="B117" s="34">
+      <c r="B117" s="31">
         <f t="shared" si="5"/>
         <v>985</v>
       </c>
-      <c r="C117" s="21">
+      <c r="C117" s="19">
         <v>4</v>
       </c>
-      <c r="D117" s="22" t="s">
+      <c r="D117" s="20" t="s">
         <v>258</v>
       </c>
-      <c r="E117" s="35" t="s">
+      <c r="E117" s="32" t="s">
         <v>259</v>
       </c>
-      <c r="F117" s="24" t="s">
-        <v>630</v>
-      </c>
-      <c r="G117" s="77"/>
-      <c r="H117" s="22"/>
-      <c r="I117" s="36">
+      <c r="F117" s="22" t="s">
+        <v>630</v>
+      </c>
+      <c r="G117" s="69"/>
+      <c r="H117" s="20"/>
+      <c r="I117" s="33">
         <v>2022</v>
       </c>
-      <c r="J117" s="36"/>
-      <c r="K117" s="37" t="s">
+      <c r="J117" s="33"/>
+      <c r="K117" s="34" t="s">
         <v>747</v>
       </c>
     </row>
@@ -11539,116 +11294,116 @@
         <f t="shared" si="4"/>
         <v>117</v>
       </c>
-      <c r="B118" s="34">
+      <c r="B118" s="31">
         <f t="shared" si="5"/>
         <v>989</v>
       </c>
-      <c r="C118" s="21">
+      <c r="C118" s="19">
         <v>4</v>
       </c>
-      <c r="D118" s="22" t="s">
+      <c r="D118" s="20" t="s">
         <v>260</v>
       </c>
-      <c r="E118" s="35" t="s">
+      <c r="E118" s="32" t="s">
         <v>261</v>
       </c>
-      <c r="F118" s="24" t="s">
+      <c r="F118" s="22" t="s">
         <v>695</v>
       </c>
-      <c r="G118" s="77"/>
-      <c r="H118" s="22" t="s">
-        <v>727</v>
-      </c>
-      <c r="I118" s="36"/>
-      <c r="J118" s="36"/>
-      <c r="K118" s="37"/>
+      <c r="G118" s="69"/>
+      <c r="H118" s="20" t="s">
+        <v>727</v>
+      </c>
+      <c r="I118" s="33"/>
+      <c r="J118" s="33"/>
+      <c r="K118" s="34"/>
     </row>
     <row r="119" spans="1:12" ht="14">
       <c r="A119" s="5">
         <f t="shared" si="4"/>
         <v>118</v>
       </c>
-      <c r="B119" s="34">
+      <c r="B119" s="31">
         <f t="shared" si="5"/>
         <v>993</v>
       </c>
-      <c r="C119" s="21">
+      <c r="C119" s="19">
         <v>1</v>
       </c>
-      <c r="D119" s="22" t="s">
+      <c r="D119" s="20" t="s">
         <v>262</v>
       </c>
-      <c r="E119" s="35" t="s">
+      <c r="E119" s="32" t="s">
         <v>263</v>
       </c>
-      <c r="F119" s="24" t="s">
+      <c r="F119" s="22" t="s">
         <v>262</v>
       </c>
-      <c r="G119" s="77"/>
-      <c r="H119" s="22" t="s">
-        <v>727</v>
-      </c>
-      <c r="I119" s="36"/>
-      <c r="J119" s="36"/>
-      <c r="K119" s="37"/>
+      <c r="G119" s="69"/>
+      <c r="H119" s="20" t="s">
+        <v>727</v>
+      </c>
+      <c r="I119" s="33"/>
+      <c r="J119" s="33"/>
+      <c r="K119" s="34"/>
     </row>
     <row r="120" spans="1:12" ht="14">
       <c r="A120" s="5">
         <f t="shared" si="4"/>
         <v>119</v>
       </c>
-      <c r="B120" s="34">
+      <c r="B120" s="31">
         <f t="shared" si="5"/>
         <v>994</v>
       </c>
-      <c r="C120" s="21">
+      <c r="C120" s="19">
         <v>30</v>
       </c>
-      <c r="D120" s="22" t="s">
+      <c r="D120" s="20" t="s">
         <v>264</v>
       </c>
-      <c r="E120" s="23" t="s">
+      <c r="E120" s="21" t="s">
         <v>265</v>
       </c>
-      <c r="F120" s="24" t="s">
+      <c r="F120" s="22" t="s">
         <v>696</v>
       </c>
-      <c r="G120" s="77"/>
-      <c r="H120" s="22" t="s">
-        <v>727</v>
-      </c>
-      <c r="I120" s="36"/>
-      <c r="J120" s="36"/>
-      <c r="K120" s="37"/>
+      <c r="G120" s="69"/>
+      <c r="H120" s="20" t="s">
+        <v>727</v>
+      </c>
+      <c r="I120" s="33"/>
+      <c r="J120" s="33"/>
+      <c r="K120" s="34"/>
     </row>
     <row r="121" spans="1:12" ht="28">
       <c r="A121" s="5">
         <f t="shared" si="4"/>
         <v>120</v>
       </c>
-      <c r="B121" s="34">
+      <c r="B121" s="31">
         <f t="shared" si="5"/>
         <v>1024</v>
       </c>
-      <c r="C121" s="21">
+      <c r="C121" s="19">
         <v>1</v>
       </c>
-      <c r="D121" s="22" t="s">
+      <c r="D121" s="20" t="s">
         <v>266</v>
       </c>
-      <c r="E121" s="35" t="s">
+      <c r="E121" s="32" t="s">
         <v>267</v>
       </c>
-      <c r="F121" s="70" t="s">
-        <v>630</v>
-      </c>
-      <c r="G121" s="77"/>
-      <c r="H121" s="36"/>
-      <c r="I121" s="36" t="s">
-        <v>706</v>
-      </c>
-      <c r="J121" s="36"/>
-      <c r="K121" s="37"/>
+      <c r="F121" s="64" t="s">
+        <v>630</v>
+      </c>
+      <c r="G121" s="69"/>
+      <c r="H121" s="33"/>
+      <c r="I121" s="33" t="s">
+        <v>706</v>
+      </c>
+      <c r="J121" s="33"/>
+      <c r="K121" s="34"/>
       <c r="L121" s="7"/>
     </row>
     <row r="122" spans="1:12" ht="15.75" customHeight="1">
@@ -11656,61 +11411,60 @@
         <f t="shared" si="4"/>
         <v>121</v>
       </c>
-      <c r="B122" s="34">
+      <c r="B122" s="31">
         <f t="shared" si="5"/>
         <v>1025</v>
       </c>
-      <c r="C122" s="21">
+      <c r="C122" s="19">
         <v>12</v>
       </c>
-      <c r="D122" s="22" t="s">
+      <c r="D122" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="E122" s="35" t="s">
+      <c r="E122" s="32" t="s">
         <v>268</v>
       </c>
-      <c r="F122" s="70" t="s">
-        <v>630</v>
-      </c>
-      <c r="G122" s="77"/>
-      <c r="H122" s="36"/>
-      <c r="I122" s="36" t="s">
-        <v>706</v>
-      </c>
-      <c r="J122" s="36"/>
-      <c r="K122" s="37"/>
-      <c r="L122" s="33"/>
+      <c r="F122" s="64" t="s">
+        <v>630</v>
+      </c>
+      <c r="G122" s="69"/>
+      <c r="H122" s="33"/>
+      <c r="I122" s="33" t="s">
+        <v>706</v>
+      </c>
+      <c r="J122" s="33"/>
+      <c r="K122" s="34"/>
     </row>
     <row r="123" spans="1:12" ht="182">
       <c r="A123" s="5">
         <f t="shared" si="4"/>
         <v>122</v>
       </c>
-      <c r="B123" s="34">
+      <c r="B123" s="31">
         <f t="shared" si="5"/>
         <v>1037</v>
       </c>
-      <c r="C123" s="21">
+      <c r="C123" s="19">
         <v>30</v>
       </c>
-      <c r="D123" s="22" t="s">
+      <c r="D123" s="20" t="s">
         <v>269</v>
       </c>
-      <c r="E123" s="35" t="s">
+      <c r="E123" s="32" t="s">
         <v>270</v>
       </c>
-      <c r="F123" s="70" t="s">
-        <v>630</v>
-      </c>
-      <c r="G123" s="22" t="s">
+      <c r="F123" s="64" t="s">
+        <v>630</v>
+      </c>
+      <c r="G123" s="20" t="s">
         <v>271</v>
       </c>
-      <c r="H123" s="22"/>
-      <c r="I123" s="22" t="s">
-        <v>706</v>
-      </c>
-      <c r="J123" s="22"/>
-      <c r="K123" s="25"/>
+      <c r="H123" s="20"/>
+      <c r="I123" s="20" t="s">
+        <v>706</v>
+      </c>
+      <c r="J123" s="20"/>
+      <c r="K123" s="23"/>
       <c r="L123" s="7"/>
     </row>
     <row r="124" spans="1:12" ht="28">
@@ -11718,31 +11472,31 @@
         <f t="shared" si="4"/>
         <v>123</v>
       </c>
-      <c r="B124" s="34">
+      <c r="B124" s="31">
         <f t="shared" si="5"/>
         <v>1067</v>
       </c>
-      <c r="C124" s="21">
+      <c r="C124" s="19">
         <v>2</v>
       </c>
-      <c r="D124" s="22" t="s">
+      <c r="D124" s="20" t="s">
         <v>272</v>
       </c>
-      <c r="E124" s="23" t="s">
+      <c r="E124" s="21" t="s">
         <v>273</v>
       </c>
-      <c r="F124" s="22" t="s">
-        <v>630</v>
-      </c>
-      <c r="G124" s="22" t="s">
+      <c r="F124" s="20" t="s">
+        <v>630</v>
+      </c>
+      <c r="G124" s="20" t="s">
         <v>274</v>
       </c>
-      <c r="H124" s="22"/>
-      <c r="I124" s="22" t="s">
-        <v>706</v>
-      </c>
-      <c r="J124" s="22"/>
-      <c r="K124" s="25"/>
+      <c r="H124" s="20"/>
+      <c r="I124" s="20" t="s">
+        <v>706</v>
+      </c>
+      <c r="J124" s="20"/>
+      <c r="K124" s="23"/>
       <c r="L124" s="7"/>
     </row>
     <row r="125" spans="1:12" ht="42">
@@ -11750,31 +11504,31 @@
         <f t="shared" si="4"/>
         <v>124</v>
       </c>
-      <c r="B125" s="34">
+      <c r="B125" s="31">
         <f t="shared" si="5"/>
         <v>1069</v>
       </c>
-      <c r="C125" s="21">
+      <c r="C125" s="19">
         <v>2</v>
       </c>
-      <c r="D125" s="22" t="s">
+      <c r="D125" s="20" t="s">
         <v>275</v>
       </c>
-      <c r="E125" s="23" t="s">
+      <c r="E125" s="21" t="s">
         <v>276</v>
       </c>
-      <c r="F125" s="22" t="s">
-        <v>630</v>
-      </c>
-      <c r="G125" s="22" t="s">
+      <c r="F125" s="20" t="s">
+        <v>630</v>
+      </c>
+      <c r="G125" s="20" t="s">
         <v>277</v>
       </c>
-      <c r="H125" s="22"/>
-      <c r="I125" s="22" t="s">
-        <v>706</v>
-      </c>
-      <c r="J125" s="22"/>
-      <c r="K125" s="25"/>
+      <c r="H125" s="20"/>
+      <c r="I125" s="20" t="s">
+        <v>706</v>
+      </c>
+      <c r="J125" s="20"/>
+      <c r="K125" s="23"/>
       <c r="L125" s="7"/>
     </row>
     <row r="126" spans="1:12" ht="56">
@@ -11782,62 +11536,62 @@
         <f t="shared" si="4"/>
         <v>125</v>
       </c>
-      <c r="B126" s="34">
+      <c r="B126" s="31">
         <f t="shared" si="5"/>
         <v>1071</v>
       </c>
-      <c r="C126" s="21">
+      <c r="C126" s="19">
         <v>4</v>
       </c>
-      <c r="D126" s="22" t="s">
+      <c r="D126" s="20" t="s">
         <v>278</v>
       </c>
-      <c r="E126" s="23" t="s">
+      <c r="E126" s="21" t="s">
         <v>279</v>
       </c>
-      <c r="F126" s="22" t="s">
-        <v>630</v>
-      </c>
-      <c r="G126" s="22" t="s">
+      <c r="F126" s="20" t="s">
+        <v>630</v>
+      </c>
+      <c r="G126" s="20" t="s">
         <v>280</v>
       </c>
-      <c r="H126" s="22"/>
-      <c r="I126" s="22" t="s">
-        <v>706</v>
-      </c>
-      <c r="J126" s="22"/>
-      <c r="K126" s="25"/>
+      <c r="H126" s="20"/>
+      <c r="I126" s="20" t="s">
+        <v>706</v>
+      </c>
+      <c r="J126" s="20"/>
+      <c r="K126" s="23"/>
       <c r="L126" s="7"/>
     </row>
-    <row r="127" spans="1:12" s="33" customFormat="1" ht="42">
+    <row r="127" spans="1:12" ht="42">
       <c r="A127" s="5">
         <f t="shared" si="4"/>
         <v>126</v>
       </c>
-      <c r="B127" s="34">
+      <c r="B127" s="31">
         <v>1075</v>
       </c>
-      <c r="C127" s="21">
+      <c r="C127" s="19">
         <v>1</v>
       </c>
-      <c r="D127" s="22" t="s">
+      <c r="D127" s="20" t="s">
         <v>281</v>
       </c>
-      <c r="E127" s="23" t="s">
+      <c r="E127" s="21" t="s">
         <v>282</v>
       </c>
-      <c r="F127" s="22" t="s">
-        <v>630</v>
-      </c>
-      <c r="G127" s="22" t="s">
+      <c r="F127" s="20" t="s">
+        <v>630</v>
+      </c>
+      <c r="G127" s="20" t="s">
         <v>283</v>
       </c>
-      <c r="H127" s="22"/>
-      <c r="I127" s="22" t="s">
-        <v>706</v>
-      </c>
-      <c r="J127" s="22"/>
-      <c r="K127" s="25"/>
+      <c r="H127" s="20"/>
+      <c r="I127" s="20" t="s">
+        <v>706</v>
+      </c>
+      <c r="J127" s="20"/>
+      <c r="K127" s="23"/>
       <c r="L127" s="7"/>
     </row>
     <row r="128" spans="1:12" ht="14">
@@ -11845,7 +11599,7 @@
         <f t="shared" si="4"/>
         <v>127</v>
       </c>
-      <c r="B128" s="38">
+      <c r="B128" s="35">
         <v>1076</v>
       </c>
       <c r="C128" s="6">
@@ -11854,21 +11608,18 @@
       <c r="D128" s="7" t="s">
         <v>284</v>
       </c>
-      <c r="E128" s="39" t="s">
+      <c r="E128" s="36" t="s">
         <v>285</v>
       </c>
-      <c r="F128" s="33" t="s">
+      <c r="F128" s="11" t="s">
         <v>630</v>
       </c>
       <c r="G128" s="7" t="s">
         <v>286</v>
       </c>
-      <c r="H128" s="7"/>
       <c r="I128" s="7" t="s">
         <v>706</v>
       </c>
-      <c r="J128" s="7"/>
-      <c r="K128" s="10"/>
     </row>
     <row r="129" spans="1:11" ht="28">
       <c r="A129" s="5">
@@ -11888,7 +11639,7 @@
       <c r="E129" s="8" t="s">
         <v>288</v>
       </c>
-      <c r="F129" s="24" t="s">
+      <c r="F129" s="22" t="s">
         <v>697</v>
       </c>
       <c r="G129" s="7" t="s">
@@ -11897,16 +11648,13 @@
       <c r="H129" s="7" t="s">
         <v>727</v>
       </c>
-      <c r="I129" s="7"/>
-      <c r="J129" s="7"/>
-      <c r="K129" s="10"/>
     </row>
     <row r="130" spans="1:11" ht="98">
       <c r="A130" s="5">
         <f>A129+1</f>
         <v>129</v>
       </c>
-      <c r="B130" s="38">
+      <c r="B130" s="35">
         <f t="shared" ref="B130:B185" si="6">B129+C129</f>
         <v>1082</v>
       </c>
@@ -11925,19 +11673,16 @@
       <c r="G130" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="H130" s="7"/>
       <c r="I130" s="7" t="s">
         <v>706</v>
       </c>
-      <c r="J130" s="7"/>
-      <c r="K130" s="10"/>
     </row>
     <row r="131" spans="1:11" ht="71" customHeight="1">
       <c r="A131" s="5">
         <f t="shared" ref="A131:A194" si="7">A130+1</f>
         <v>130</v>
       </c>
-      <c r="B131" s="38">
+      <c r="B131" s="35">
         <f t="shared" si="6"/>
         <v>1112</v>
       </c>
@@ -11953,22 +11698,22 @@
       <c r="F131" s="7" t="s">
         <v>630</v>
       </c>
-      <c r="G131" s="40" t="s">
+      <c r="G131" s="37" t="s">
         <v>611</v>
       </c>
-      <c r="H131" s="40"/>
+      <c r="H131" s="37"/>
       <c r="I131" s="7" t="s">
         <v>706</v>
       </c>
-      <c r="J131" s="40"/>
-      <c r="K131" s="41"/>
+      <c r="J131" s="37"/>
+      <c r="K131" s="38"/>
     </row>
     <row r="132" spans="1:11" ht="14">
       <c r="A132" s="5">
         <f t="shared" si="7"/>
         <v>131</v>
       </c>
-      <c r="B132" s="38">
+      <c r="B132" s="35">
         <f t="shared" ref="B132:B141" si="8">B131+C131</f>
         <v>1162</v>
       </c>
@@ -11984,20 +11729,16 @@
       <c r="F132" s="7" t="s">
         <v>630</v>
       </c>
-      <c r="G132" s="7"/>
-      <c r="H132" s="7"/>
       <c r="I132" s="7" t="s">
         <v>706</v>
       </c>
-      <c r="J132" s="7"/>
-      <c r="K132" s="10"/>
-    </row>
-    <row r="133" spans="1:11" s="33" customFormat="1" ht="14">
+    </row>
+    <row r="133" spans="1:11" ht="14">
       <c r="A133" s="5">
         <f t="shared" si="7"/>
         <v>132</v>
       </c>
-      <c r="B133" s="38">
+      <c r="B133" s="35">
         <f t="shared" si="8"/>
         <v>1172</v>
       </c>
@@ -12013,20 +11754,16 @@
       <c r="F133" s="7" t="s">
         <v>630</v>
       </c>
-      <c r="G133" s="7"/>
-      <c r="H133" s="7"/>
       <c r="I133" s="7" t="s">
         <v>706</v>
       </c>
-      <c r="J133" s="7"/>
-      <c r="K133" s="10"/>
     </row>
     <row r="134" spans="1:11" ht="14">
       <c r="A134" s="5">
         <f t="shared" si="7"/>
         <v>133</v>
       </c>
-      <c r="B134" s="38">
+      <c r="B134" s="35">
         <f t="shared" si="8"/>
         <v>1182</v>
       </c>
@@ -12042,20 +11779,16 @@
       <c r="F134" s="7" t="s">
         <v>630</v>
       </c>
-      <c r="G134" s="7"/>
-      <c r="H134" s="7"/>
       <c r="I134" s="7" t="s">
         <v>706</v>
       </c>
-      <c r="J134" s="7"/>
-      <c r="K134" s="10"/>
     </row>
     <row r="135" spans="1:11" ht="14">
       <c r="A135" s="5">
         <f t="shared" si="7"/>
         <v>134</v>
       </c>
-      <c r="B135" s="38">
+      <c r="B135" s="35">
         <f t="shared" si="8"/>
         <v>1232</v>
       </c>
@@ -12071,20 +11804,16 @@
       <c r="F135" s="7" t="s">
         <v>630</v>
       </c>
-      <c r="G135" s="7"/>
-      <c r="H135" s="7"/>
       <c r="I135" s="7" t="s">
         <v>706</v>
       </c>
-      <c r="J135" s="7"/>
-      <c r="K135" s="10"/>
     </row>
     <row r="136" spans="1:11" ht="14">
       <c r="A136" s="5">
         <f t="shared" si="7"/>
         <v>135</v>
       </c>
-      <c r="B136" s="38">
+      <c r="B136" s="35">
         <f t="shared" si="8"/>
         <v>1242</v>
       </c>
@@ -12100,20 +11829,16 @@
       <c r="F136" s="7" t="s">
         <v>630</v>
       </c>
-      <c r="G136" s="7"/>
-      <c r="H136" s="7"/>
       <c r="I136" s="7" t="s">
         <v>706</v>
       </c>
-      <c r="J136" s="7"/>
-      <c r="K136" s="10"/>
     </row>
     <row r="137" spans="1:11" ht="42">
       <c r="A137" s="5">
         <f t="shared" si="7"/>
         <v>136</v>
       </c>
-      <c r="B137" s="38">
+      <c r="B137" s="35">
         <f t="shared" si="8"/>
         <v>1252</v>
       </c>
@@ -12126,7 +11851,7 @@
       <c r="E137" s="8" t="s">
         <v>306</v>
       </c>
-      <c r="F137" s="24" t="s">
+      <c r="F137" s="22" t="s">
         <v>698</v>
       </c>
       <c r="G137" s="7" t="s">
@@ -12135,16 +11860,13 @@
       <c r="H137" s="7" t="s">
         <v>727</v>
       </c>
-      <c r="I137" s="7"/>
-      <c r="J137" s="7"/>
-      <c r="K137" s="10"/>
     </row>
     <row r="138" spans="1:11" ht="70">
       <c r="A138" s="5">
         <f t="shared" si="7"/>
         <v>137</v>
       </c>
-      <c r="B138" s="38">
+      <c r="B138" s="35">
         <f t="shared" si="8"/>
         <v>1280</v>
       </c>
@@ -12157,7 +11879,7 @@
       <c r="E138" s="8" t="s">
         <v>309</v>
       </c>
-      <c r="F138" s="24" t="s">
+      <c r="F138" s="22" t="s">
         <v>628</v>
       </c>
       <c r="G138" s="7" t="s">
@@ -12166,16 +11888,13 @@
       <c r="H138" s="7" t="s">
         <v>727</v>
       </c>
-      <c r="I138" s="7"/>
-      <c r="J138" s="7"/>
-      <c r="K138" s="10"/>
     </row>
     <row r="139" spans="1:11" ht="112">
       <c r="A139" s="5">
         <f t="shared" si="7"/>
         <v>138</v>
       </c>
-      <c r="B139" s="38">
+      <c r="B139" s="35">
         <f t="shared" si="8"/>
         <v>1308</v>
       </c>
@@ -12197,16 +11916,13 @@
       <c r="H139" s="7" t="s">
         <v>727</v>
       </c>
-      <c r="I139" s="7"/>
-      <c r="J139" s="7"/>
-      <c r="K139" s="10"/>
     </row>
     <row r="140" spans="1:11" ht="28">
       <c r="A140" s="5">
         <f t="shared" si="7"/>
         <v>139</v>
       </c>
-      <c r="B140" s="38">
+      <c r="B140" s="35">
         <f t="shared" si="8"/>
         <v>1317</v>
       </c>
@@ -12228,16 +11944,13 @@
       <c r="H140" s="7" t="s">
         <v>727</v>
       </c>
-      <c r="I140" s="7"/>
-      <c r="J140" s="7"/>
-      <c r="K140" s="10"/>
     </row>
     <row r="141" spans="1:11" ht="60" customHeight="1">
       <c r="A141" s="5">
         <f t="shared" si="7"/>
         <v>140</v>
       </c>
-      <c r="B141" s="38">
+      <c r="B141" s="35">
         <f t="shared" si="8"/>
         <v>1345</v>
       </c>
@@ -12259,16 +11972,13 @@
       <c r="H141" s="7" t="s">
         <v>727</v>
       </c>
-      <c r="I141" s="7"/>
-      <c r="J141" s="7"/>
-      <c r="K141" s="10"/>
     </row>
     <row r="142" spans="1:11" ht="51" customHeight="1">
       <c r="A142" s="5">
         <f t="shared" si="7"/>
         <v>141</v>
       </c>
-      <c r="B142" s="38">
+      <c r="B142" s="35">
         <f t="shared" si="6"/>
         <v>1350</v>
       </c>
@@ -12287,19 +11997,16 @@
       <c r="G142" s="7" t="s">
         <v>321</v>
       </c>
-      <c r="H142" s="7"/>
       <c r="I142" s="7" t="s">
         <v>706</v>
       </c>
-      <c r="J142" s="7"/>
-      <c r="K142" s="10"/>
     </row>
     <row r="143" spans="1:11" ht="55" customHeight="1">
       <c r="A143" s="5">
         <f t="shared" si="7"/>
         <v>142</v>
       </c>
-      <c r="B143" s="38">
+      <c r="B143" s="35">
         <f t="shared" si="6"/>
         <v>1367</v>
       </c>
@@ -12318,19 +12025,16 @@
       <c r="G143" s="7" t="s">
         <v>324</v>
       </c>
-      <c r="H143" s="7"/>
       <c r="I143" s="7" t="s">
         <v>706</v>
       </c>
-      <c r="J143" s="7"/>
-      <c r="K143" s="10"/>
     </row>
     <row r="144" spans="1:11" ht="70">
       <c r="A144" s="5">
         <f t="shared" si="7"/>
         <v>143</v>
       </c>
-      <c r="B144" s="38">
+      <c r="B144" s="35">
         <f t="shared" si="6"/>
         <v>1384</v>
       </c>
@@ -12349,19 +12053,16 @@
       <c r="G144" s="7" t="s">
         <v>327</v>
       </c>
-      <c r="H144" s="7"/>
       <c r="I144" s="7" t="s">
         <v>706</v>
       </c>
-      <c r="J144" s="7"/>
-      <c r="K144" s="10"/>
     </row>
     <row r="145" spans="1:11" ht="56">
       <c r="A145" s="5">
         <f t="shared" si="7"/>
         <v>144</v>
       </c>
-      <c r="B145" s="38">
+      <c r="B145" s="35">
         <f t="shared" si="6"/>
         <v>1385</v>
       </c>
@@ -12375,24 +12076,21 @@
         <v>329</v>
       </c>
       <c r="F145" s="7" t="s">
-        <v>630</v>
+        <v>717</v>
       </c>
       <c r="G145" s="7" t="s">
         <v>330</v>
       </c>
-      <c r="H145" s="7"/>
-      <c r="I145" s="7" t="s">
-        <v>706</v>
-      </c>
-      <c r="J145" s="7"/>
-      <c r="K145" s="10"/>
+      <c r="K145" s="10" t="s">
+        <v>716</v>
+      </c>
     </row>
     <row r="146" spans="1:11" ht="56">
       <c r="A146" s="5">
         <f t="shared" si="7"/>
         <v>145</v>
       </c>
-      <c r="B146" s="38">
+      <c r="B146" s="35">
         <f t="shared" si="6"/>
         <v>1435</v>
       </c>
@@ -12406,44 +12104,41 @@
         <v>332</v>
       </c>
       <c r="F146" s="7" t="s">
-        <v>630</v>
+        <v>717</v>
       </c>
       <c r="G146" s="7" t="s">
         <v>330</v>
       </c>
-      <c r="H146" s="7"/>
-      <c r="I146" s="7" t="s">
-        <v>706</v>
-      </c>
-      <c r="J146" s="7"/>
-      <c r="K146" s="10"/>
+      <c r="K146" s="10" t="s">
+        <v>716</v>
+      </c>
     </row>
     <row r="147" spans="1:11" ht="14">
       <c r="A147" s="5">
         <f t="shared" si="7"/>
         <v>146</v>
       </c>
-      <c r="B147" s="34">
+      <c r="B147" s="31">
         <f t="shared" si="6"/>
         <v>1485</v>
       </c>
-      <c r="C147" s="21">
+      <c r="C147" s="19">
         <v>10</v>
       </c>
-      <c r="D147" s="22" t="s">
+      <c r="D147" s="20" t="s">
         <v>333</v>
       </c>
-      <c r="E147" s="23" t="s">
+      <c r="E147" s="21" t="s">
         <v>334</v>
       </c>
-      <c r="F147" s="22" t="s">
+      <c r="F147" s="20" t="s">
         <v>717</v>
       </c>
-      <c r="G147" s="22"/>
-      <c r="H147" s="22"/>
-      <c r="I147" s="22"/>
-      <c r="J147" s="22"/>
-      <c r="K147" s="25" t="s">
+      <c r="G147" s="20"/>
+      <c r="H147" s="20"/>
+      <c r="I147" s="20"/>
+      <c r="J147" s="20"/>
+      <c r="K147" s="23" t="s">
         <v>716</v>
       </c>
     </row>
@@ -12452,56 +12147,56 @@
         <f t="shared" si="7"/>
         <v>147</v>
       </c>
-      <c r="B148" s="34">
+      <c r="B148" s="31">
         <f t="shared" si="6"/>
         <v>1495</v>
       </c>
-      <c r="C148" s="21">
+      <c r="C148" s="19">
         <v>10</v>
       </c>
-      <c r="D148" s="22" t="s">
+      <c r="D148" s="20" t="s">
         <v>335</v>
       </c>
-      <c r="E148" s="23" t="s">
+      <c r="E148" s="21" t="s">
         <v>336</v>
       </c>
-      <c r="F148" s="22" t="s">
-        <v>630</v>
-      </c>
-      <c r="G148" s="22"/>
-      <c r="H148" s="22"/>
-      <c r="I148" s="22" t="s">
-        <v>706</v>
-      </c>
-      <c r="J148" s="22"/>
-      <c r="K148" s="25"/>
+      <c r="F148" s="20" t="s">
+        <v>630</v>
+      </c>
+      <c r="G148" s="20"/>
+      <c r="H148" s="20"/>
+      <c r="I148" s="20" t="s">
+        <v>706</v>
+      </c>
+      <c r="J148" s="20"/>
+      <c r="K148" s="23"/>
     </row>
     <row r="149" spans="1:11" ht="14">
       <c r="A149" s="5">
         <f t="shared" si="7"/>
         <v>148</v>
       </c>
-      <c r="B149" s="34">
+      <c r="B149" s="31">
         <f t="shared" si="6"/>
         <v>1505</v>
       </c>
-      <c r="C149" s="21">
+      <c r="C149" s="19">
         <v>28</v>
       </c>
-      <c r="D149" s="22" t="s">
+      <c r="D149" s="20" t="s">
         <v>337</v>
       </c>
-      <c r="E149" s="23" t="s">
+      <c r="E149" s="21" t="s">
         <v>338</v>
       </c>
-      <c r="F149" s="22" t="s">
+      <c r="F149" s="20" t="s">
         <v>717</v>
       </c>
-      <c r="G149" s="22"/>
-      <c r="H149" s="22"/>
-      <c r="I149" s="22"/>
-      <c r="J149" s="22"/>
-      <c r="K149" s="25" t="s">
+      <c r="G149" s="20"/>
+      <c r="H149" s="20"/>
+      <c r="I149" s="20"/>
+      <c r="J149" s="20"/>
+      <c r="K149" s="23" t="s">
         <v>716</v>
       </c>
     </row>
@@ -12510,27 +12205,27 @@
         <f t="shared" si="7"/>
         <v>149</v>
       </c>
-      <c r="B150" s="34">
+      <c r="B150" s="31">
         <f t="shared" si="6"/>
         <v>1533</v>
       </c>
-      <c r="C150" s="21">
+      <c r="C150" s="19">
         <v>10</v>
       </c>
-      <c r="D150" s="22" t="s">
+      <c r="D150" s="20" t="s">
         <v>339</v>
       </c>
-      <c r="E150" s="23" t="s">
+      <c r="E150" s="21" t="s">
         <v>340</v>
       </c>
-      <c r="F150" s="22" t="s">
+      <c r="F150" s="20" t="s">
         <v>717</v>
       </c>
-      <c r="G150" s="22"/>
-      <c r="H150" s="22"/>
-      <c r="I150" s="22"/>
-      <c r="J150" s="22"/>
-      <c r="K150" s="25" t="s">
+      <c r="G150" s="20"/>
+      <c r="H150" s="20"/>
+      <c r="I150" s="20"/>
+      <c r="J150" s="20"/>
+      <c r="K150" s="23" t="s">
         <v>716</v>
       </c>
     </row>
@@ -12539,56 +12234,56 @@
         <f t="shared" si="7"/>
         <v>150</v>
       </c>
-      <c r="B151" s="34">
+      <c r="B151" s="31">
         <f t="shared" si="6"/>
         <v>1543</v>
       </c>
-      <c r="C151" s="21">
+      <c r="C151" s="19">
         <v>10</v>
       </c>
-      <c r="D151" s="22" t="s">
+      <c r="D151" s="20" t="s">
         <v>341</v>
       </c>
-      <c r="E151" s="23" t="s">
+      <c r="E151" s="21" t="s">
         <v>342</v>
       </c>
-      <c r="F151" s="22" t="s">
-        <v>630</v>
-      </c>
-      <c r="G151" s="22"/>
-      <c r="H151" s="22"/>
-      <c r="I151" s="22" t="s">
-        <v>706</v>
-      </c>
-      <c r="J151" s="22"/>
-      <c r="K151" s="25"/>
+      <c r="F151" s="20" t="s">
+        <v>630</v>
+      </c>
+      <c r="G151" s="20"/>
+      <c r="H151" s="20"/>
+      <c r="I151" s="20" t="s">
+        <v>706</v>
+      </c>
+      <c r="J151" s="20"/>
+      <c r="K151" s="23"/>
     </row>
     <row r="152" spans="1:11" ht="28">
       <c r="A152" s="5">
         <f t="shared" si="7"/>
         <v>151</v>
       </c>
-      <c r="B152" s="34">
+      <c r="B152" s="31">
         <f t="shared" si="6"/>
         <v>1553</v>
       </c>
-      <c r="C152" s="21">
+      <c r="C152" s="19">
         <v>7</v>
       </c>
-      <c r="D152" s="22" t="s">
+      <c r="D152" s="20" t="s">
         <v>343</v>
       </c>
-      <c r="E152" s="23" t="s">
+      <c r="E152" s="21" t="s">
         <v>344</v>
       </c>
-      <c r="F152" s="22" t="s">
+      <c r="F152" s="20" t="s">
         <v>717</v>
       </c>
-      <c r="G152" s="22"/>
-      <c r="H152" s="22"/>
-      <c r="I152" s="22"/>
-      <c r="J152" s="22"/>
-      <c r="K152" s="25" t="s">
+      <c r="G152" s="20"/>
+      <c r="H152" s="20"/>
+      <c r="I152" s="20"/>
+      <c r="J152" s="20"/>
+      <c r="K152" s="23" t="s">
         <v>716</v>
       </c>
     </row>
@@ -12597,29 +12292,29 @@
         <f t="shared" si="7"/>
         <v>152</v>
       </c>
-      <c r="B153" s="34">
+      <c r="B153" s="31">
         <f t="shared" si="6"/>
         <v>1560</v>
       </c>
-      <c r="C153" s="21">
+      <c r="C153" s="19">
         <v>28</v>
       </c>
-      <c r="D153" s="22" t="s">
+      <c r="D153" s="20" t="s">
         <v>345</v>
       </c>
-      <c r="E153" s="23" t="s">
+      <c r="E153" s="21" t="s">
         <v>346</v>
       </c>
-      <c r="F153" s="22" t="s">
+      <c r="F153" s="20" t="s">
         <v>717</v>
       </c>
-      <c r="G153" s="22" t="s">
+      <c r="G153" s="20" t="s">
         <v>307</v>
       </c>
-      <c r="H153" s="22"/>
-      <c r="I153" s="22"/>
-      <c r="J153" s="22"/>
-      <c r="K153" s="25" t="s">
+      <c r="H153" s="20"/>
+      <c r="I153" s="20"/>
+      <c r="J153" s="20"/>
+      <c r="K153" s="23" t="s">
         <v>716</v>
       </c>
     </row>
@@ -12628,62 +12323,62 @@
         <f t="shared" si="7"/>
         <v>153</v>
       </c>
-      <c r="B154" s="34">
+      <c r="B154" s="31">
         <f t="shared" si="6"/>
         <v>1588</v>
       </c>
-      <c r="C154" s="21">
+      <c r="C154" s="19">
         <v>9</v>
       </c>
-      <c r="D154" s="22" t="s">
+      <c r="D154" s="20" t="s">
         <v>347</v>
       </c>
-      <c r="E154" s="23" t="s">
+      <c r="E154" s="21" t="s">
         <v>348</v>
       </c>
-      <c r="F154" s="74" t="s">
+      <c r="F154" s="66" t="s">
         <v>718</v>
       </c>
-      <c r="G154" s="22" t="s">
+      <c r="G154" s="20" t="s">
         <v>313</v>
       </c>
       <c r="H154" s="7" t="s">
         <v>727</v>
       </c>
-      <c r="I154" s="22"/>
-      <c r="J154" s="22"/>
-      <c r="K154" s="25"/>
+      <c r="I154" s="20"/>
+      <c r="J154" s="20"/>
+      <c r="K154" s="23"/>
     </row>
     <row r="155" spans="1:11" ht="28">
       <c r="A155" s="5">
         <f t="shared" si="7"/>
         <v>154</v>
       </c>
-      <c r="B155" s="34">
+      <c r="B155" s="31">
         <f t="shared" si="6"/>
         <v>1597</v>
       </c>
-      <c r="C155" s="21">
+      <c r="C155" s="19">
         <v>28</v>
       </c>
-      <c r="D155" s="22" t="s">
+      <c r="D155" s="20" t="s">
         <v>349</v>
       </c>
-      <c r="E155" s="23" t="s">
+      <c r="E155" s="21" t="s">
         <v>350</v>
       </c>
       <c r="F155" s="1" t="s">
         <v>719</v>
       </c>
-      <c r="G155" s="22" t="s">
+      <c r="G155" s="20" t="s">
         <v>316</v>
       </c>
       <c r="H155" s="7" t="s">
         <v>727</v>
       </c>
-      <c r="I155" s="22"/>
-      <c r="J155" s="22"/>
-      <c r="K155" s="25" t="s">
+      <c r="I155" s="20"/>
+      <c r="J155" s="20"/>
+      <c r="K155" s="23" t="s">
         <v>720</v>
       </c>
     </row>
@@ -12692,62 +12387,62 @@
         <f t="shared" si="7"/>
         <v>155</v>
       </c>
-      <c r="B156" s="34">
+      <c r="B156" s="31">
         <f t="shared" si="6"/>
         <v>1625</v>
       </c>
-      <c r="C156" s="21">
+      <c r="C156" s="19">
         <v>28</v>
       </c>
-      <c r="D156" s="22" t="s">
+      <c r="D156" s="20" t="s">
         <v>351</v>
       </c>
-      <c r="E156" s="23" t="s">
+      <c r="E156" s="21" t="s">
         <v>352</v>
       </c>
       <c r="F156" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="G156" s="22" t="s">
+      <c r="G156" s="20" t="s">
         <v>310</v>
       </c>
       <c r="H156" s="7" t="s">
         <v>727</v>
       </c>
-      <c r="I156" s="22"/>
-      <c r="J156" s="22"/>
-      <c r="K156" s="25"/>
+      <c r="I156" s="20"/>
+      <c r="J156" s="20"/>
+      <c r="K156" s="23"/>
     </row>
     <row r="157" spans="1:11" ht="42">
       <c r="A157" s="5">
         <f t="shared" si="7"/>
         <v>156</v>
       </c>
-      <c r="B157" s="34">
+      <c r="B157" s="31">
         <f t="shared" si="6"/>
         <v>1653</v>
       </c>
-      <c r="C157" s="21">
+      <c r="C157" s="19">
         <v>28</v>
       </c>
-      <c r="D157" s="22" t="s">
+      <c r="D157" s="20" t="s">
         <v>353</v>
       </c>
-      <c r="E157" s="23" t="s">
+      <c r="E157" s="21" t="s">
         <v>354</v>
       </c>
-      <c r="F157" s="22" t="s">
-        <v>630</v>
-      </c>
-      <c r="G157" s="22" t="s">
+      <c r="F157" s="20" t="s">
+        <v>630</v>
+      </c>
+      <c r="G157" s="20" t="s">
         <v>355</v>
       </c>
-      <c r="H157" s="22"/>
-      <c r="I157" s="22" t="s">
+      <c r="H157" s="20"/>
+      <c r="I157" s="20" t="s">
         <v>721</v>
       </c>
-      <c r="J157" s="22"/>
-      <c r="K157" s="25" t="s">
+      <c r="J157" s="20"/>
+      <c r="K157" s="23" t="s">
         <v>722</v>
       </c>
     </row>
@@ -12756,67 +12451,64 @@
         <f t="shared" si="7"/>
         <v>157</v>
       </c>
-      <c r="B158" s="42">
+      <c r="B158" s="39">
         <f t="shared" si="6"/>
         <v>1681</v>
       </c>
-      <c r="C158" s="43">
+      <c r="C158" s="40">
         <v>50</v>
       </c>
-      <c r="D158" s="44" t="s">
+      <c r="D158" s="41" t="s">
         <v>356</v>
       </c>
-      <c r="E158" s="45" t="s">
+      <c r="E158" s="42" t="s">
         <v>357</v>
       </c>
-      <c r="F158" s="44" t="s">
+      <c r="F158" s="41" t="s">
         <v>717</v>
       </c>
-      <c r="G158" s="46" t="s">
+      <c r="G158" s="43" t="s">
         <v>605</v>
       </c>
-      <c r="H158" s="46"/>
-      <c r="I158" s="46"/>
-      <c r="J158" s="46"/>
-      <c r="K158" s="47"/>
+      <c r="H158" s="43"/>
+      <c r="I158" s="43"/>
+      <c r="J158" s="43"/>
+      <c r="K158" s="44"/>
     </row>
     <row r="159" spans="1:11" ht="34" customHeight="1">
       <c r="A159" s="5">
         <f t="shared" si="7"/>
         <v>158</v>
       </c>
-      <c r="B159" s="38">
+      <c r="B159" s="35">
         <f t="shared" si="6"/>
         <v>1731</v>
       </c>
-      <c r="C159" s="48">
+      <c r="C159" s="45">
         <v>2</v>
       </c>
       <c r="D159" s="11" t="s">
         <v>358</v>
       </c>
-      <c r="E159" s="39" t="s">
+      <c r="E159" s="36" t="s">
         <v>359</v>
       </c>
-      <c r="F159" s="33" t="s">
+      <c r="F159" s="11" t="s">
         <v>630</v>
       </c>
       <c r="G159" s="7" t="s">
         <v>360</v>
       </c>
-      <c r="H159" s="7"/>
       <c r="I159" s="7" t="s">
         <v>706</v>
       </c>
-      <c r="J159" s="7"/>
-      <c r="K159" s="10"/>
     </row>
     <row r="160" spans="1:11" ht="42" customHeight="1">
       <c r="A160" s="5">
         <f t="shared" si="7"/>
         <v>159</v>
       </c>
-      <c r="B160" s="38">
+      <c r="B160" s="35">
         <f t="shared" si="6"/>
         <v>1733</v>
       </c>
@@ -12835,19 +12527,16 @@
       <c r="G160" s="7" t="s">
         <v>360</v>
       </c>
-      <c r="H160" s="7"/>
       <c r="I160" s="7" t="s">
         <v>706</v>
       </c>
-      <c r="J160" s="7"/>
-      <c r="K160" s="10"/>
     </row>
     <row r="161" spans="1:11" ht="36" customHeight="1">
       <c r="A161" s="5">
         <f t="shared" si="7"/>
         <v>160</v>
       </c>
-      <c r="B161" s="38">
+      <c r="B161" s="35">
         <f t="shared" si="6"/>
         <v>1736</v>
       </c>
@@ -12857,28 +12546,25 @@
       <c r="D161" s="7" t="s">
         <v>363</v>
       </c>
-      <c r="E161" s="49" t="s">
+      <c r="E161" s="46" t="s">
         <v>364</v>
       </c>
-      <c r="F161" s="71" t="s">
+      <c r="F161" s="56" t="s">
         <v>630</v>
       </c>
       <c r="G161" s="7" t="s">
         <v>365</v>
       </c>
-      <c r="H161" s="7"/>
       <c r="I161" s="7" t="s">
         <v>706</v>
       </c>
-      <c r="J161" s="7"/>
-      <c r="K161" s="10"/>
     </row>
     <row r="162" spans="1:11" ht="49" customHeight="1">
       <c r="A162" s="5">
         <f t="shared" si="7"/>
         <v>161</v>
       </c>
-      <c r="B162" s="38">
+      <c r="B162" s="35">
         <f t="shared" si="6"/>
         <v>1739</v>
       </c>
@@ -12897,19 +12583,16 @@
       <c r="G162" s="7" t="s">
         <v>367</v>
       </c>
-      <c r="H162" s="7"/>
       <c r="I162" s="7" t="s">
         <v>706</v>
       </c>
-      <c r="J162" s="7"/>
-      <c r="K162" s="10"/>
     </row>
     <row r="163" spans="1:11" ht="59" customHeight="1">
       <c r="A163" s="5">
         <f t="shared" si="7"/>
         <v>162</v>
       </c>
-      <c r="B163" s="38">
+      <c r="B163" s="35">
         <f t="shared" si="6"/>
         <v>1741</v>
       </c>
@@ -12928,19 +12611,16 @@
       <c r="G163" s="7" t="s">
         <v>370</v>
       </c>
-      <c r="H163" s="7"/>
       <c r="I163" s="7" t="s">
         <v>706</v>
       </c>
-      <c r="J163" s="7"/>
-      <c r="K163" s="10"/>
     </row>
     <row r="164" spans="1:11" ht="54" customHeight="1">
       <c r="A164" s="5">
         <f t="shared" si="7"/>
         <v>163</v>
       </c>
-      <c r="B164" s="38">
+      <c r="B164" s="35">
         <f t="shared" si="6"/>
         <v>1742</v>
       </c>
@@ -12959,19 +12639,16 @@
       <c r="G164" s="7" t="s">
         <v>373</v>
       </c>
-      <c r="H164" s="7"/>
       <c r="I164" s="7" t="s">
         <v>706</v>
       </c>
-      <c r="J164" s="7"/>
-      <c r="K164" s="10"/>
     </row>
     <row r="165" spans="1:11" ht="49" customHeight="1">
       <c r="A165" s="5">
         <f t="shared" si="7"/>
         <v>164</v>
       </c>
-      <c r="B165" s="38">
+      <c r="B165" s="35">
         <f t="shared" si="6"/>
         <v>1743</v>
       </c>
@@ -12990,19 +12667,16 @@
       <c r="G165" s="7" t="s">
         <v>710</v>
       </c>
-      <c r="H165" s="7"/>
       <c r="I165" s="7" t="s">
         <v>706</v>
       </c>
-      <c r="J165" s="7"/>
-      <c r="K165" s="10"/>
     </row>
     <row r="166" spans="1:11" ht="70">
       <c r="A166" s="5">
         <f t="shared" si="7"/>
         <v>165</v>
       </c>
-      <c r="B166" s="38">
+      <c r="B166" s="35">
         <f t="shared" si="6"/>
         <v>1758</v>
       </c>
@@ -13021,19 +12695,16 @@
       <c r="G166" s="7" t="s">
         <v>711</v>
       </c>
-      <c r="H166" s="7"/>
       <c r="I166" s="7" t="s">
         <v>706</v>
       </c>
-      <c r="J166" s="7"/>
-      <c r="K166" s="10"/>
     </row>
     <row r="167" spans="1:11" ht="41" customHeight="1">
       <c r="A167" s="5">
         <f t="shared" si="7"/>
         <v>166</v>
       </c>
-      <c r="B167" s="38">
+      <c r="B167" s="35">
         <f t="shared" si="6"/>
         <v>1808</v>
       </c>
@@ -13052,24 +12723,20 @@
       <c r="G167" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="H167" s="7"/>
-      <c r="I167" s="7"/>
-      <c r="J167" s="7"/>
-      <c r="K167" s="10"/>
     </row>
     <row r="168" spans="1:11" ht="34" customHeight="1">
       <c r="A168" s="5">
         <f t="shared" si="7"/>
         <v>167</v>
       </c>
-      <c r="B168" s="38">
+      <c r="B168" s="35">
         <f t="shared" si="6"/>
         <v>1858</v>
       </c>
       <c r="C168" s="6">
         <v>50</v>
       </c>
-      <c r="D168" s="18" t="s">
+      <c r="D168" s="16" t="s">
         <v>381</v>
       </c>
       <c r="E168" s="8" t="s">
@@ -13081,17 +12748,13 @@
       <c r="G168" s="7" t="s">
         <v>330</v>
       </c>
-      <c r="H168" s="7"/>
-      <c r="I168" s="7"/>
-      <c r="J168" s="7"/>
-      <c r="K168" s="10"/>
     </row>
     <row r="169" spans="1:11" ht="33" customHeight="1">
       <c r="A169" s="5">
         <f t="shared" si="7"/>
         <v>168</v>
       </c>
-      <c r="B169" s="38">
+      <c r="B169" s="35">
         <f t="shared" si="6"/>
         <v>1908</v>
       </c>
@@ -13110,17 +12773,13 @@
       <c r="G169" s="7" t="s">
         <v>330</v>
       </c>
-      <c r="H169" s="7"/>
-      <c r="I169" s="7"/>
-      <c r="J169" s="7"/>
-      <c r="K169" s="10"/>
     </row>
     <row r="170" spans="1:11" ht="35" customHeight="1">
       <c r="A170" s="5">
         <f t="shared" si="7"/>
         <v>169</v>
       </c>
-      <c r="B170" s="38">
+      <c r="B170" s="35">
         <f t="shared" si="6"/>
         <v>1958</v>
       </c>
@@ -13139,17 +12798,13 @@
       <c r="G170" s="7" t="s">
         <v>330</v>
       </c>
-      <c r="H170" s="7"/>
-      <c r="I170" s="7"/>
-      <c r="J170" s="7"/>
-      <c r="K170" s="10"/>
     </row>
     <row r="171" spans="1:11" ht="27" customHeight="1">
       <c r="A171" s="5">
         <f t="shared" si="7"/>
         <v>170</v>
       </c>
-      <c r="B171" s="38">
+      <c r="B171" s="35">
         <f t="shared" si="6"/>
         <v>2008</v>
       </c>
@@ -13168,17 +12823,13 @@
       <c r="G171" s="7" t="s">
         <v>330</v>
       </c>
-      <c r="H171" s="7"/>
-      <c r="I171" s="7"/>
-      <c r="J171" s="7"/>
-      <c r="K171" s="10"/>
     </row>
     <row r="172" spans="1:11" ht="24" customHeight="1">
       <c r="A172" s="5">
         <f t="shared" si="7"/>
         <v>171</v>
       </c>
-      <c r="B172" s="38">
+      <c r="B172" s="35">
         <f t="shared" si="6"/>
         <v>2058</v>
       </c>
@@ -13197,17 +12848,13 @@
       <c r="G172" s="7" t="s">
         <v>330</v>
       </c>
-      <c r="H172" s="7"/>
-      <c r="I172" s="7"/>
-      <c r="J172" s="7"/>
-      <c r="K172" s="10"/>
     </row>
     <row r="173" spans="1:11" ht="28">
       <c r="A173" s="5">
         <f t="shared" si="7"/>
         <v>172</v>
       </c>
-      <c r="B173" s="38">
+      <c r="B173" s="35">
         <f t="shared" si="6"/>
         <v>2108</v>
       </c>
@@ -13229,109 +12876,106 @@
       <c r="H173" s="7" t="s">
         <v>727</v>
       </c>
-      <c r="I173" s="7"/>
-      <c r="J173" s="7"/>
-      <c r="K173" s="10"/>
     </row>
     <row r="174" spans="1:11" ht="25" customHeight="1">
       <c r="A174" s="5">
         <f t="shared" si="7"/>
         <v>173</v>
       </c>
-      <c r="B174" s="34">
+      <c r="B174" s="31">
         <f t="shared" si="6"/>
         <v>2109</v>
       </c>
-      <c r="C174" s="21">
+      <c r="C174" s="19">
         <v>50</v>
       </c>
-      <c r="D174" s="22" t="s">
+      <c r="D174" s="20" t="s">
         <v>394</v>
       </c>
-      <c r="E174" s="35" t="s">
+      <c r="E174" s="32" t="s">
         <v>395</v>
       </c>
       <c r="F174" s="1" t="s">
         <v>686</v>
       </c>
-      <c r="G174" s="22" t="s">
+      <c r="G174" s="20" t="s">
         <v>396</v>
       </c>
       <c r="H174" s="7" t="s">
         <v>727</v>
       </c>
-      <c r="I174" s="22"/>
-      <c r="J174" s="22"/>
-      <c r="K174" s="25"/>
+      <c r="I174" s="20"/>
+      <c r="J174" s="20"/>
+      <c r="K174" s="23"/>
     </row>
     <row r="175" spans="1:11" ht="56">
       <c r="A175" s="5">
         <f t="shared" si="7"/>
         <v>174</v>
       </c>
-      <c r="B175" s="34">
+      <c r="B175" s="31">
         <f t="shared" si="6"/>
         <v>2159</v>
       </c>
-      <c r="C175" s="21">
+      <c r="C175" s="19">
         <v>250</v>
       </c>
-      <c r="D175" s="22" t="s">
+      <c r="D175" s="20" t="s">
         <v>397</v>
       </c>
-      <c r="E175" s="23" t="s">
+      <c r="E175" s="21" t="s">
         <v>398</v>
       </c>
       <c r="F175" t="s">
         <v>725</v>
       </c>
-      <c r="G175" s="22" t="s">
+      <c r="G175" s="20" t="s">
         <v>396</v>
       </c>
       <c r="H175" s="7" t="s">
         <v>728</v>
       </c>
-      <c r="I175" s="22"/>
-      <c r="J175" s="22"/>
-      <c r="K175" s="25"/>
+      <c r="I175" s="20"/>
+      <c r="J175" s="20"/>
+      <c r="K175" s="23"/>
     </row>
     <row r="176" spans="1:11" ht="42" customHeight="1">
       <c r="A176" s="5">
         <f t="shared" si="7"/>
         <v>175</v>
       </c>
-      <c r="B176" s="34">
+      <c r="B176" s="31">
         <f t="shared" si="6"/>
         <v>2409</v>
       </c>
-      <c r="C176" s="21">
+      <c r="C176" s="19">
         <v>30</v>
       </c>
-      <c r="D176" s="50" t="s">
+      <c r="D176" s="47" t="s">
         <v>399</v>
       </c>
-      <c r="E176" s="23" t="s">
+      <c r="E176" s="21" t="s">
         <v>400</v>
       </c>
       <c r="F176" s="1" t="s">
         <v>724</v>
       </c>
-      <c r="G176" s="22" t="s">
+      <c r="G176" s="20" t="s">
         <v>401</v>
       </c>
       <c r="H176" s="7" t="s">
         <v>727</v>
       </c>
-      <c r="I176" s="22"/>
-      <c r="J176" s="22"/>
-      <c r="K176" s="25"/>
+      <c r="I176" s="20"/>
+      <c r="J176" s="20"/>
+      <c r="K176" s="23"/>
     </row>
     <row r="177" spans="1:12" ht="42">
       <c r="A177" s="5">
         <f t="shared" si="7"/>
         <v>176</v>
       </c>
-      <c r="B177" s="38">
+      <c r="B177" s="35">
         <f t="shared" si="6"/>
         <v>2439</v>
       </c>
@@ -13353,16 +12997,13 @@
       <c r="H177" s="7" t="s">
         <v>727</v>
       </c>
-      <c r="I177" s="7"/>
-      <c r="J177" s="7"/>
-      <c r="K177" s="10"/>
     </row>
     <row r="178" spans="1:12" ht="84">
       <c r="A178" s="5">
         <f t="shared" si="7"/>
         <v>177</v>
       </c>
-      <c r="B178" s="38">
+      <c r="B178" s="35">
         <f t="shared" si="6"/>
         <v>2467</v>
       </c>
@@ -13384,16 +13025,13 @@
       <c r="H178" s="7" t="s">
         <v>727</v>
       </c>
-      <c r="I178" s="7"/>
-      <c r="J178" s="7"/>
-      <c r="K178" s="10"/>
     </row>
     <row r="179" spans="1:12" ht="42">
       <c r="A179" s="5">
         <f t="shared" si="7"/>
         <v>178</v>
       </c>
-      <c r="B179" s="38">
+      <c r="B179" s="35">
         <f t="shared" si="6"/>
         <v>2470</v>
       </c>
@@ -13415,16 +13053,13 @@
       <c r="H179" s="7" t="s">
         <v>727</v>
       </c>
-      <c r="I179" s="7"/>
-      <c r="J179" s="7"/>
-      <c r="K179" s="10"/>
     </row>
     <row r="180" spans="1:12" ht="70">
       <c r="A180" s="5">
         <f t="shared" si="7"/>
         <v>179</v>
       </c>
-      <c r="B180" s="38">
+      <c r="B180" s="35">
         <f t="shared" si="6"/>
         <v>2498</v>
       </c>
@@ -13446,16 +13081,13 @@
       <c r="H180" s="7" t="s">
         <v>727</v>
       </c>
-      <c r="I180" s="7"/>
-      <c r="J180" s="7"/>
-      <c r="K180" s="10"/>
     </row>
     <row r="181" spans="1:12" ht="92" customHeight="1">
       <c r="A181" s="5">
         <f t="shared" si="7"/>
         <v>180</v>
       </c>
-      <c r="B181" s="38">
+      <c r="B181" s="35">
         <f t="shared" si="6"/>
         <v>2503</v>
       </c>
@@ -13486,7 +13118,7 @@
         <f t="shared" si="7"/>
         <v>181</v>
       </c>
-      <c r="B182" s="38">
+      <c r="B182" s="35">
         <f t="shared" si="6"/>
         <v>2505</v>
       </c>
@@ -13505,19 +13137,16 @@
       <c r="G182" s="7" t="s">
         <v>416</v>
       </c>
-      <c r="H182" s="7"/>
       <c r="I182" s="7" t="s">
         <v>706</v>
       </c>
-      <c r="J182" s="7"/>
-      <c r="K182" s="10"/>
     </row>
     <row r="183" spans="1:12" ht="62" customHeight="1">
       <c r="A183" s="5">
         <f t="shared" si="7"/>
         <v>182</v>
       </c>
-      <c r="B183" s="38">
+      <c r="B183" s="35">
         <f>B182+C182</f>
         <v>2522</v>
       </c>
@@ -13536,19 +13165,16 @@
       <c r="G183" s="7" t="s">
         <v>419</v>
       </c>
-      <c r="H183" s="7"/>
       <c r="I183" s="7" t="s">
         <v>706</v>
       </c>
-      <c r="J183" s="7"/>
-      <c r="K183" s="10"/>
     </row>
     <row r="184" spans="1:12" ht="224">
       <c r="A184" s="5">
         <f t="shared" si="7"/>
         <v>183</v>
       </c>
-      <c r="B184" s="38">
+      <c r="B184" s="35">
         <f>B183+C183</f>
         <v>2539</v>
       </c>
@@ -13564,47 +13190,47 @@
       <c r="F184" s="7" t="s">
         <v>630</v>
       </c>
-      <c r="G184" s="51" t="s">
+      <c r="G184" s="48" t="s">
         <v>422</v>
       </c>
-      <c r="H184" s="51"/>
+      <c r="H184" s="48"/>
       <c r="I184" s="7" t="s">
         <v>706</v>
       </c>
-      <c r="J184" s="51"/>
-      <c r="K184" s="52"/>
+      <c r="J184" s="48"/>
+      <c r="K184" s="49"/>
       <c r="L184" s="7"/>
     </row>
-    <row r="185" spans="1:12" s="33" customFormat="1" ht="98">
+    <row r="185" spans="1:12" ht="98">
       <c r="A185" s="5">
         <f t="shared" si="7"/>
         <v>184</v>
       </c>
-      <c r="B185" s="34">
+      <c r="B185" s="31">
         <f t="shared" si="6"/>
         <v>2541</v>
       </c>
-      <c r="C185" s="21">
+      <c r="C185" s="19">
         <v>1</v>
       </c>
-      <c r="D185" s="22" t="s">
+      <c r="D185" s="20" t="s">
         <v>423</v>
       </c>
-      <c r="E185" s="23" t="s">
+      <c r="E185" s="21" t="s">
         <v>424</v>
       </c>
-      <c r="F185" s="22" t="s">
-        <v>630</v>
-      </c>
-      <c r="G185" s="22" t="s">
+      <c r="F185" s="20" t="s">
+        <v>630</v>
+      </c>
+      <c r="G185" s="20" t="s">
         <v>425</v>
       </c>
-      <c r="H185" s="22"/>
-      <c r="I185" s="22">
+      <c r="H185" s="20"/>
+      <c r="I185" s="20">
         <v>0</v>
       </c>
-      <c r="J185" s="22"/>
-      <c r="K185" s="25" t="s">
+      <c r="J185" s="20"/>
+      <c r="K185" s="23" t="s">
         <v>734</v>
       </c>
     </row>
@@ -13613,279 +13239,279 @@
         <f t="shared" si="7"/>
         <v>185</v>
       </c>
-      <c r="B186" s="21">
+      <c r="B186" s="19">
         <f>B185+C185</f>
         <v>2542</v>
       </c>
-      <c r="C186" s="53">
+      <c r="C186" s="50">
         <v>120</v>
       </c>
-      <c r="D186" s="54" t="s">
+      <c r="D186" s="51" t="s">
         <v>426</v>
       </c>
-      <c r="E186" s="35" t="s">
+      <c r="E186" s="32" t="s">
         <v>427</v>
       </c>
       <c r="F186" t="s">
         <v>735</v>
       </c>
-      <c r="G186" s="54" t="s">
+      <c r="G186" s="51" t="s">
         <v>428</v>
       </c>
-      <c r="H186" s="54" t="s">
+      <c r="H186" s="51" t="s">
         <v>728</v>
       </c>
-      <c r="I186" s="54"/>
-      <c r="J186" s="54"/>
-      <c r="K186" s="55"/>
+      <c r="I186" s="51"/>
+      <c r="J186" s="51"/>
+      <c r="K186" s="52"/>
     </row>
     <row r="187" spans="1:12">
       <c r="A187" s="5">
         <f t="shared" si="7"/>
         <v>186</v>
       </c>
-      <c r="B187" s="21">
+      <c r="B187" s="19">
         <f>B186+C186</f>
         <v>2662</v>
       </c>
-      <c r="C187" s="53">
+      <c r="C187" s="50">
         <v>20</v>
       </c>
-      <c r="D187" s="54" t="s">
+      <c r="D187" s="51" t="s">
         <v>429</v>
       </c>
-      <c r="E187" s="35" t="s">
+      <c r="E187" s="32" t="s">
         <v>430</v>
       </c>
       <c r="F187" t="s">
         <v>736</v>
       </c>
-      <c r="G187" s="54" t="s">
+      <c r="G187" s="51" t="s">
         <v>431</v>
       </c>
-      <c r="H187" s="54" t="s">
+      <c r="H187" s="51" t="s">
         <v>728</v>
       </c>
-      <c r="I187" s="54"/>
-      <c r="J187" s="54"/>
-      <c r="K187" s="55"/>
+      <c r="I187" s="51"/>
+      <c r="J187" s="51"/>
+      <c r="K187" s="52"/>
     </row>
     <row r="188" spans="1:12">
       <c r="A188" s="5">
         <f t="shared" si="7"/>
         <v>187</v>
       </c>
-      <c r="B188" s="21">
+      <c r="B188" s="19">
         <f t="shared" ref="B188:B194" si="9">B187+C187</f>
         <v>2682</v>
       </c>
-      <c r="C188" s="53">
+      <c r="C188" s="50">
         <v>120</v>
       </c>
-      <c r="D188" s="54" t="s">
+      <c r="D188" s="51" t="s">
         <v>432</v>
       </c>
-      <c r="E188" s="35" t="s">
+      <c r="E188" s="32" t="s">
         <v>433</v>
       </c>
       <c r="F188" t="s">
         <v>737</v>
       </c>
-      <c r="G188" s="54" t="s">
+      <c r="G188" s="51" t="s">
         <v>434</v>
       </c>
-      <c r="H188" s="54" t="s">
+      <c r="H188" s="51" t="s">
         <v>728</v>
       </c>
-      <c r="I188" s="54"/>
-      <c r="J188" s="54"/>
-      <c r="K188" s="55"/>
+      <c r="I188" s="51"/>
+      <c r="J188" s="51"/>
+      <c r="K188" s="52"/>
     </row>
     <row r="189" spans="1:12">
       <c r="A189" s="5">
         <f t="shared" si="7"/>
         <v>188</v>
       </c>
-      <c r="B189" s="21">
+      <c r="B189" s="19">
         <f t="shared" si="9"/>
         <v>2802</v>
       </c>
-      <c r="C189" s="53">
+      <c r="C189" s="50">
         <v>20</v>
       </c>
-      <c r="D189" s="54" t="s">
+      <c r="D189" s="51" t="s">
         <v>435</v>
       </c>
-      <c r="E189" s="35" t="s">
+      <c r="E189" s="32" t="s">
         <v>436</v>
       </c>
       <c r="F189" t="s">
         <v>740</v>
       </c>
-      <c r="G189" s="54" t="s">
+      <c r="G189" s="51" t="s">
         <v>437</v>
       </c>
-      <c r="H189" s="54" t="s">
+      <c r="H189" s="51" t="s">
         <v>728</v>
       </c>
-      <c r="I189" s="54"/>
-      <c r="J189" s="54"/>
-      <c r="K189" s="55"/>
+      <c r="I189" s="51"/>
+      <c r="J189" s="51"/>
+      <c r="K189" s="52"/>
     </row>
     <row r="190" spans="1:12">
       <c r="A190" s="5">
         <f t="shared" si="7"/>
         <v>189</v>
       </c>
-      <c r="B190" s="21">
+      <c r="B190" s="19">
         <f t="shared" si="9"/>
         <v>2822</v>
       </c>
-      <c r="C190" s="53">
+      <c r="C190" s="50">
         <v>120</v>
       </c>
-      <c r="D190" s="54" t="s">
+      <c r="D190" s="51" t="s">
         <v>438</v>
       </c>
-      <c r="E190" s="35" t="s">
+      <c r="E190" s="32" t="s">
         <v>439</v>
       </c>
       <c r="F190" t="s">
         <v>738</v>
       </c>
-      <c r="G190" s="54" t="s">
+      <c r="G190" s="51" t="s">
         <v>440</v>
       </c>
-      <c r="H190" s="54" t="s">
+      <c r="H190" s="51" t="s">
         <v>728</v>
       </c>
-      <c r="I190" s="54"/>
-      <c r="J190" s="54"/>
-      <c r="K190" s="55"/>
+      <c r="I190" s="51"/>
+      <c r="J190" s="51"/>
+      <c r="K190" s="52"/>
     </row>
     <row r="191" spans="1:12">
       <c r="A191" s="5">
         <f t="shared" si="7"/>
         <v>190</v>
       </c>
-      <c r="B191" s="21">
+      <c r="B191" s="19">
         <f t="shared" si="9"/>
         <v>2942</v>
       </c>
-      <c r="C191" s="53">
+      <c r="C191" s="50">
         <v>20</v>
       </c>
-      <c r="D191" s="54" t="s">
+      <c r="D191" s="51" t="s">
         <v>441</v>
       </c>
-      <c r="E191" s="35" t="s">
+      <c r="E191" s="32" t="s">
         <v>442</v>
       </c>
       <c r="F191" t="s">
         <v>741</v>
       </c>
-      <c r="G191" s="54" t="s">
+      <c r="G191" s="51" t="s">
         <v>443</v>
       </c>
-      <c r="H191" s="54" t="s">
+      <c r="H191" s="51" t="s">
         <v>728</v>
       </c>
-      <c r="I191" s="54"/>
-      <c r="J191" s="54"/>
-      <c r="K191" s="55"/>
+      <c r="I191" s="51"/>
+      <c r="J191" s="51"/>
+      <c r="K191" s="52"/>
     </row>
     <row r="192" spans="1:12">
       <c r="A192" s="5">
         <f t="shared" si="7"/>
         <v>191</v>
       </c>
-      <c r="B192" s="21">
+      <c r="B192" s="19">
         <f t="shared" si="9"/>
         <v>2962</v>
       </c>
-      <c r="C192" s="53">
+      <c r="C192" s="50">
         <v>120</v>
       </c>
-      <c r="D192" s="54" t="s">
+      <c r="D192" s="51" t="s">
         <v>444</v>
       </c>
-      <c r="E192" s="35" t="s">
+      <c r="E192" s="32" t="s">
         <v>445</v>
       </c>
       <c r="F192" t="s">
         <v>739</v>
       </c>
-      <c r="G192" s="54" t="s">
+      <c r="G192" s="51" t="s">
         <v>446</v>
       </c>
-      <c r="H192" s="54" t="s">
+      <c r="H192" s="51" t="s">
         <v>728</v>
       </c>
-      <c r="I192" s="54"/>
-      <c r="J192" s="54"/>
-      <c r="K192" s="55"/>
+      <c r="I192" s="51"/>
+      <c r="J192" s="51"/>
+      <c r="K192" s="52"/>
     </row>
     <row r="193" spans="1:11">
       <c r="A193" s="5">
         <f t="shared" si="7"/>
         <v>192</v>
       </c>
-      <c r="B193" s="21">
+      <c r="B193" s="19">
         <f t="shared" si="9"/>
         <v>3082</v>
       </c>
-      <c r="C193" s="53">
+      <c r="C193" s="50">
         <v>20</v>
       </c>
-      <c r="D193" s="54" t="s">
+      <c r="D193" s="51" t="s">
         <v>447</v>
       </c>
-      <c r="E193" s="35" t="s">
+      <c r="E193" s="32" t="s">
         <v>448</v>
       </c>
       <c r="F193" t="s">
         <v>742</v>
       </c>
-      <c r="G193" s="54" t="s">
+      <c r="G193" s="51" t="s">
         <v>449</v>
       </c>
-      <c r="H193" s="54" t="s">
+      <c r="H193" s="51" t="s">
         <v>728</v>
       </c>
-      <c r="I193" s="54"/>
-      <c r="J193" s="54"/>
-      <c r="K193" s="55"/>
+      <c r="I193" s="51"/>
+      <c r="J193" s="51"/>
+      <c r="K193" s="52"/>
     </row>
     <row r="194" spans="1:11">
       <c r="A194" s="5">
         <f t="shared" si="7"/>
         <v>193</v>
       </c>
-      <c r="B194" s="21">
+      <c r="B194" s="19">
         <f t="shared" si="9"/>
         <v>3102</v>
       </c>
-      <c r="C194" s="53">
+      <c r="C194" s="50">
         <v>240</v>
       </c>
-      <c r="D194" s="54" t="s">
+      <c r="D194" s="51" t="s">
         <v>450</v>
       </c>
-      <c r="E194" s="35" t="s">
+      <c r="E194" s="32" t="s">
         <v>451</v>
       </c>
       <c r="F194" t="s">
         <v>743</v>
       </c>
-      <c r="G194" s="54" t="s">
+      <c r="G194" s="51" t="s">
         <v>452</v>
       </c>
-      <c r="H194" s="54" t="s">
+      <c r="H194" s="51" t="s">
         <v>728</v>
       </c>
-      <c r="I194" s="54"/>
-      <c r="J194" s="54"/>
-      <c r="K194" s="55"/>
+      <c r="I194" s="51"/>
+      <c r="J194" s="51"/>
+      <c r="K194" s="52"/>
     </row>
     <row r="195" spans="1:11">
       <c r="A195" s="5">
@@ -13895,16 +13521,16 @@
       <c r="B195" s="6">
         <v>3342</v>
       </c>
-      <c r="C195" s="56">
+      <c r="C195" s="53">
         <v>50</v>
       </c>
       <c r="D195" s="9" t="s">
         <v>453</v>
       </c>
-      <c r="E195" s="39" t="s">
+      <c r="E195" s="36" t="s">
         <v>454</v>
       </c>
-      <c r="F195" s="33" t="s">
+      <c r="F195" s="11" t="s">
         <v>630</v>
       </c>
       <c r="G195" s="9"/>
@@ -13913,7 +13539,7 @@
         <v>706</v>
       </c>
       <c r="J195" s="9"/>
-      <c r="K195" s="57"/>
+      <c r="K195" s="54"/>
     </row>
     <row r="196" spans="1:11" ht="42">
       <c r="A196" s="5">
@@ -13923,27 +13549,24 @@
       <c r="B196" s="6">
         <v>3392</v>
       </c>
-      <c r="C196" s="56">
+      <c r="C196" s="53">
         <v>5</v>
       </c>
       <c r="D196" s="9" t="s">
         <v>455</v>
       </c>
-      <c r="E196" s="39" t="s">
+      <c r="E196" s="36" t="s">
         <v>456</v>
       </c>
-      <c r="F196" s="33" t="s">
+      <c r="F196" s="11" t="s">
         <v>630</v>
       </c>
       <c r="G196" s="7" t="s">
         <v>608</v>
       </c>
-      <c r="H196" s="7"/>
       <c r="I196" s="9" t="s">
         <v>706</v>
       </c>
-      <c r="J196" s="7"/>
-      <c r="K196" s="10"/>
     </row>
     <row r="197" spans="1:11">
       <c r="A197" s="5">
@@ -13953,23 +13576,23 @@
       <c r="B197" s="6">
         <v>3397</v>
       </c>
-      <c r="C197" s="56">
+      <c r="C197" s="53">
         <v>28</v>
       </c>
       <c r="D197" s="9" t="s">
         <v>457</v>
       </c>
-      <c r="E197" s="39" t="s">
+      <c r="E197" s="36" t="s">
         <v>458</v>
       </c>
-      <c r="F197" s="33" t="s">
+      <c r="F197" s="11" t="s">
         <v>717</v>
       </c>
       <c r="G197" s="9"/>
       <c r="H197" s="9"/>
       <c r="I197" s="9"/>
       <c r="J197" s="9"/>
-      <c r="K197" s="57"/>
+      <c r="K197" s="54"/>
     </row>
     <row r="198" spans="1:11">
       <c r="A198" s="5">
@@ -13979,23 +13602,23 @@
       <c r="B198" s="6">
         <v>3425</v>
       </c>
-      <c r="C198" s="56">
+      <c r="C198" s="53">
         <v>50</v>
       </c>
       <c r="D198" s="9" t="s">
         <v>459</v>
       </c>
-      <c r="E198" s="39" t="s">
+      <c r="E198" s="36" t="s">
         <v>460</v>
       </c>
-      <c r="F198" s="33" t="s">
+      <c r="F198" s="11" t="s">
         <v>717</v>
       </c>
       <c r="G198" s="9"/>
       <c r="H198" s="9"/>
       <c r="I198" s="9"/>
       <c r="J198" s="9"/>
-      <c r="K198" s="57"/>
+      <c r="K198" s="54"/>
     </row>
     <row r="199" spans="1:11">
       <c r="A199" s="5">
@@ -14005,23 +13628,23 @@
       <c r="B199" s="6">
         <v>3475</v>
       </c>
-      <c r="C199" s="56">
+      <c r="C199" s="53">
         <v>10</v>
       </c>
       <c r="D199" s="9" t="s">
         <v>461</v>
       </c>
-      <c r="E199" s="39" t="s">
+      <c r="E199" s="36" t="s">
         <v>462</v>
       </c>
-      <c r="F199" s="33" t="s">
+      <c r="F199" s="11" t="s">
         <v>717</v>
       </c>
       <c r="G199" s="9"/>
       <c r="H199" s="9"/>
       <c r="I199" s="9"/>
       <c r="J199" s="9"/>
-      <c r="K199" s="57"/>
+      <c r="K199" s="54"/>
     </row>
     <row r="200" spans="1:11">
       <c r="A200" s="5">
@@ -14031,23 +13654,23 @@
       <c r="B200" s="6">
         <v>3485</v>
       </c>
-      <c r="C200" s="56">
+      <c r="C200" s="53">
         <v>10</v>
       </c>
       <c r="D200" s="9" t="s">
         <v>463</v>
       </c>
-      <c r="E200" s="39" t="s">
+      <c r="E200" s="36" t="s">
         <v>464</v>
       </c>
-      <c r="F200" s="33" t="s">
+      <c r="F200" s="11" t="s">
         <v>717</v>
       </c>
       <c r="G200" s="9"/>
       <c r="H200" s="9"/>
       <c r="I200" s="9"/>
       <c r="J200" s="9"/>
-      <c r="K200" s="57"/>
+      <c r="K200" s="54"/>
     </row>
     <row r="201" spans="1:11">
       <c r="A201" s="5">
@@ -14057,23 +13680,23 @@
       <c r="B201" s="6">
         <v>3495</v>
       </c>
-      <c r="C201" s="56">
+      <c r="C201" s="53">
         <v>10</v>
       </c>
       <c r="D201" s="9" t="s">
         <v>465</v>
       </c>
-      <c r="E201" s="39" t="s">
+      <c r="E201" s="36" t="s">
         <v>466</v>
       </c>
-      <c r="F201" s="33" t="s">
+      <c r="F201" s="11" t="s">
         <v>717</v>
       </c>
       <c r="G201" s="9"/>
       <c r="H201" s="9"/>
       <c r="I201" s="9"/>
       <c r="J201" s="9"/>
-      <c r="K201" s="57"/>
+      <c r="K201" s="54"/>
     </row>
     <row r="202" spans="1:11">
       <c r="A202" s="5">
@@ -14083,13 +13706,13 @@
       <c r="B202" s="6">
         <v>3505</v>
       </c>
-      <c r="C202" s="56">
+      <c r="C202" s="53">
         <v>30</v>
       </c>
       <c r="D202" s="9" t="s">
         <v>467</v>
       </c>
-      <c r="E202" s="39" t="s">
+      <c r="E202" s="36" t="s">
         <v>468</v>
       </c>
       <c r="F202" s="1" t="s">
@@ -14101,7 +13724,7 @@
       </c>
       <c r="I202" s="9"/>
       <c r="J202" s="9"/>
-      <c r="K202" s="57"/>
+      <c r="K202" s="54"/>
     </row>
     <row r="203" spans="1:11" ht="89" customHeight="1">
       <c r="A203" s="5">
@@ -14111,16 +13734,16 @@
       <c r="B203" s="6">
         <v>3535</v>
       </c>
-      <c r="C203" s="56">
+      <c r="C203" s="53">
         <v>2</v>
       </c>
-      <c r="D203" s="58" t="s">
+      <c r="D203" s="55" t="s">
         <v>469</v>
       </c>
-      <c r="E203" s="39" t="s">
+      <c r="E203" s="36" t="s">
         <v>470</v>
       </c>
-      <c r="F203" s="33" t="s">
+      <c r="F203" s="11" t="s">
         <v>630</v>
       </c>
       <c r="G203" s="12" t="s">
@@ -14141,27 +13764,27 @@
       <c r="B204" s="6">
         <v>3537</v>
       </c>
-      <c r="C204" s="56">
+      <c r="C204" s="53">
         <v>28</v>
       </c>
       <c r="D204" s="9" t="s">
         <v>471</v>
       </c>
-      <c r="E204" s="39" t="s">
+      <c r="E204" s="36" t="s">
         <v>472</v>
       </c>
-      <c r="F204" s="33" t="s">
-        <v>630</v>
-      </c>
-      <c r="G204" s="26" t="s">
+      <c r="F204" s="11" t="s">
+        <v>630</v>
+      </c>
+      <c r="G204" s="24" t="s">
         <v>473</v>
       </c>
-      <c r="H204" s="26"/>
+      <c r="H204" s="24"/>
       <c r="I204" s="12" t="s">
         <v>706</v>
       </c>
-      <c r="J204" s="26"/>
-      <c r="K204" s="27"/>
+      <c r="J204" s="24"/>
+      <c r="K204" s="25"/>
     </row>
     <row r="205" spans="1:11" ht="42">
       <c r="A205" s="5">
@@ -14171,27 +13794,24 @@
       <c r="B205" s="6">
         <v>3565</v>
       </c>
-      <c r="C205" s="56">
+      <c r="C205" s="53">
         <v>5</v>
       </c>
       <c r="D205" s="9" t="s">
         <v>474</v>
       </c>
-      <c r="E205" s="39" t="s">
+      <c r="E205" s="36" t="s">
         <v>475</v>
       </c>
-      <c r="F205" s="33" t="s">
+      <c r="F205" s="11" t="s">
         <v>630</v>
       </c>
       <c r="G205" s="7" t="s">
         <v>608</v>
       </c>
-      <c r="H205" s="7"/>
       <c r="I205" s="12" t="s">
         <v>706</v>
       </c>
-      <c r="J205" s="7"/>
-      <c r="K205" s="10"/>
     </row>
     <row r="206" spans="1:11" ht="14">
       <c r="A206" s="5">
@@ -14201,16 +13821,16 @@
       <c r="B206" s="6">
         <v>3570</v>
       </c>
-      <c r="C206" s="56">
+      <c r="C206" s="53">
         <v>28</v>
       </c>
       <c r="D206" s="9" t="s">
         <v>476</v>
       </c>
-      <c r="E206" s="39" t="s">
+      <c r="E206" s="36" t="s">
         <v>477</v>
       </c>
-      <c r="F206" s="33" t="s">
+      <c r="F206" s="11" t="s">
         <v>630</v>
       </c>
       <c r="G206" s="9"/>
@@ -14219,7 +13839,7 @@
         <v>706</v>
       </c>
       <c r="J206" s="9"/>
-      <c r="K206" s="57"/>
+      <c r="K206" s="54"/>
     </row>
     <row r="207" spans="1:11" ht="42">
       <c r="A207" s="5">
@@ -14229,13 +13849,13 @@
       <c r="B207" s="6">
         <v>3598</v>
       </c>
-      <c r="C207" s="56">
+      <c r="C207" s="53">
         <v>100</v>
       </c>
       <c r="D207" s="7" t="s">
         <v>478</v>
       </c>
-      <c r="E207" s="39" t="s">
+      <c r="E207" s="36" t="s">
         <v>479</v>
       </c>
       <c r="F207" s="1" t="s">
@@ -14247,16 +13867,13 @@
       <c r="H207" s="7" t="s">
         <v>727</v>
       </c>
-      <c r="I207" s="7"/>
-      <c r="J207" s="7"/>
-      <c r="K207" s="10"/>
     </row>
     <row r="208" spans="1:11" ht="14">
       <c r="A208" s="5">
         <f t="shared" si="10"/>
         <v>207</v>
       </c>
-      <c r="B208" s="38">
+      <c r="B208" s="35">
         <f t="shared" ref="B208:B213" si="11">B207+C207</f>
         <v>3698</v>
       </c>
@@ -14272,18 +13889,13 @@
       <c r="F208" s="7" t="s">
         <v>717</v>
       </c>
-      <c r="G208" s="7"/>
-      <c r="H208" s="7"/>
-      <c r="I208" s="7"/>
-      <c r="J208" s="7"/>
-      <c r="K208" s="10"/>
     </row>
     <row r="209" spans="1:11" ht="14">
       <c r="A209" s="5">
         <f t="shared" si="10"/>
         <v>208</v>
       </c>
-      <c r="B209" s="38">
+      <c r="B209" s="35">
         <f t="shared" si="11"/>
         <v>3708</v>
       </c>
@@ -14299,20 +13911,16 @@
       <c r="F209" s="7" t="s">
         <v>630</v>
       </c>
-      <c r="G209" s="7"/>
-      <c r="H209" s="7"/>
       <c r="I209" s="7" t="s">
         <v>706</v>
       </c>
-      <c r="J209" s="7"/>
-      <c r="K209" s="10"/>
     </row>
     <row r="210" spans="1:11" ht="14">
       <c r="A210" s="5">
         <f t="shared" si="10"/>
         <v>209</v>
       </c>
-      <c r="B210" s="38">
+      <c r="B210" s="35">
         <f t="shared" si="11"/>
         <v>3718</v>
       </c>
@@ -14328,18 +13936,13 @@
       <c r="F210" s="7" t="s">
         <v>717</v>
       </c>
-      <c r="G210" s="7"/>
-      <c r="H210" s="7"/>
-      <c r="I210" s="7"/>
-      <c r="J210" s="7"/>
-      <c r="K210" s="10"/>
     </row>
     <row r="211" spans="1:11" ht="14">
       <c r="A211" s="5">
         <f t="shared" si="10"/>
         <v>210</v>
       </c>
-      <c r="B211" s="38">
+      <c r="B211" s="35">
         <f t="shared" si="11"/>
         <v>3746</v>
       </c>
@@ -14355,18 +13958,13 @@
       <c r="F211" s="7" t="s">
         <v>717</v>
       </c>
-      <c r="G211" s="7"/>
-      <c r="H211" s="7"/>
-      <c r="I211" s="7"/>
-      <c r="J211" s="7"/>
-      <c r="K211" s="10"/>
     </row>
     <row r="212" spans="1:11" ht="14">
       <c r="A212" s="5">
         <f t="shared" si="10"/>
         <v>211</v>
       </c>
-      <c r="B212" s="38">
+      <c r="B212" s="35">
         <f t="shared" si="11"/>
         <v>3756</v>
       </c>
@@ -14382,20 +13980,16 @@
       <c r="F212" s="7" t="s">
         <v>630</v>
       </c>
-      <c r="G212" s="7"/>
-      <c r="H212" s="7"/>
       <c r="I212" s="7" t="s">
         <v>706</v>
       </c>
-      <c r="J212" s="7"/>
-      <c r="K212" s="10"/>
     </row>
     <row r="213" spans="1:11" ht="24" customHeight="1">
       <c r="A213" s="5">
         <f t="shared" si="10"/>
         <v>212</v>
       </c>
-      <c r="B213" s="38">
+      <c r="B213" s="35">
         <f t="shared" si="11"/>
         <v>3766</v>
       </c>
@@ -14411,18 +14005,13 @@
       <c r="F213" s="7" t="s">
         <v>717</v>
       </c>
-      <c r="G213" s="7"/>
-      <c r="H213" s="7"/>
-      <c r="I213" s="7"/>
-      <c r="J213" s="7"/>
-      <c r="K213" s="10"/>
     </row>
     <row r="214" spans="1:11" ht="319">
       <c r="A214" s="5">
         <f t="shared" si="10"/>
         <v>213</v>
       </c>
-      <c r="B214" s="38">
+      <c r="B214" s="35">
         <v>3773</v>
       </c>
       <c r="C214" s="6">
@@ -14437,20 +14026,20 @@
       <c r="F214" s="7" t="s">
         <v>717</v>
       </c>
-      <c r="G214" s="40" t="s">
+      <c r="G214" s="37" t="s">
         <v>609</v>
       </c>
-      <c r="H214" s="40"/>
-      <c r="I214" s="40"/>
-      <c r="J214" s="40"/>
-      <c r="K214" s="41"/>
+      <c r="H214" s="37"/>
+      <c r="I214" s="37"/>
+      <c r="J214" s="37"/>
+      <c r="K214" s="38"/>
     </row>
     <row r="215" spans="1:11" ht="15.75" customHeight="1">
       <c r="A215" s="5">
         <f t="shared" si="10"/>
         <v>214</v>
       </c>
-      <c r="B215" s="38">
+      <c r="B215" s="35">
         <v>3823</v>
       </c>
       <c r="C215" s="6">
@@ -14468,10 +14057,6 @@
       <c r="G215" s="7" t="s">
         <v>307</v>
       </c>
-      <c r="H215" s="7"/>
-      <c r="I215" s="7"/>
-      <c r="J215" s="7"/>
-      <c r="K215" s="10"/>
     </row>
     <row r="216" spans="1:11" ht="118" customHeight="1">
       <c r="A216" s="5">
@@ -14481,16 +14066,16 @@
       <c r="B216" s="6">
         <v>3851</v>
       </c>
-      <c r="C216" s="56">
+      <c r="C216" s="53">
         <v>2</v>
       </c>
-      <c r="D216" s="58" t="s">
+      <c r="D216" s="55" t="s">
         <v>497</v>
       </c>
-      <c r="E216" s="39" t="s">
+      <c r="E216" s="36" t="s">
         <v>498</v>
       </c>
-      <c r="F216" s="33" t="s">
+      <c r="F216" s="11" t="s">
         <v>717</v>
       </c>
       <c r="G216" s="12" t="s">
@@ -14509,25 +14094,25 @@
       <c r="B217" s="6">
         <v>3853</v>
       </c>
-      <c r="C217" s="56">
+      <c r="C217" s="53">
         <v>28</v>
       </c>
-      <c r="D217" s="59" t="s">
+      <c r="D217" s="37" t="s">
         <v>499</v>
       </c>
-      <c r="E217" s="39" t="s">
+      <c r="E217" s="36" t="s">
         <v>500</v>
       </c>
-      <c r="F217" s="33" t="s">
+      <c r="F217" s="11" t="s">
         <v>717</v>
       </c>
-      <c r="G217" s="26" t="s">
+      <c r="G217" s="24" t="s">
         <v>473</v>
       </c>
-      <c r="H217" s="26"/>
-      <c r="I217" s="26"/>
-      <c r="J217" s="26"/>
-      <c r="K217" s="27"/>
+      <c r="H217" s="24"/>
+      <c r="I217" s="24"/>
+      <c r="J217" s="24"/>
+      <c r="K217" s="25"/>
     </row>
     <row r="218" spans="1:11" ht="112">
       <c r="A218" s="5">
@@ -14537,50 +14122,46 @@
       <c r="B218" s="6">
         <v>3881</v>
       </c>
-      <c r="C218" s="56">
+      <c r="C218" s="53">
         <v>9</v>
       </c>
       <c r="D218" s="9" t="s">
         <v>501</v>
       </c>
-      <c r="E218" s="39" t="s">
+      <c r="E218" s="36" t="s">
         <v>502</v>
       </c>
-      <c r="F218" s="33" t="s">
+      <c r="F218" s="11" t="s">
         <v>717</v>
       </c>
       <c r="G218" s="7" t="s">
         <v>313</v>
       </c>
-      <c r="H218" s="7"/>
-      <c r="I218" s="7"/>
-      <c r="J218" s="7"/>
-      <c r="K218" s="10"/>
     </row>
     <row r="219" spans="1:11" ht="28">
       <c r="A219" s="5">
         <f t="shared" si="10"/>
         <v>218</v>
       </c>
-      <c r="B219" s="56">
+      <c r="B219" s="53">
         <v>3890</v>
       </c>
-      <c r="C219" s="48">
+      <c r="C219" s="45">
         <v>8</v>
       </c>
       <c r="D219" s="11" t="s">
         <v>503</v>
       </c>
-      <c r="E219" s="60" t="s">
+      <c r="E219" s="36" t="s">
         <v>504</v>
       </c>
       <c r="F219" s="11" t="s">
         <v>630</v>
       </c>
-      <c r="G219" s="14" t="s">
+      <c r="G219" s="7" t="s">
         <v>505</v>
       </c>
-      <c r="I219" s="14" t="s">
+      <c r="I219" s="7" t="s">
         <v>706</v>
       </c>
     </row>
@@ -14592,16 +14173,16 @@
       <c r="B220" s="6">
         <v>3898</v>
       </c>
-      <c r="C220" s="56">
+      <c r="C220" s="53">
         <v>4</v>
       </c>
       <c r="D220" s="9" t="s">
         <v>506</v>
       </c>
-      <c r="E220" s="39" t="s">
+      <c r="E220" s="36" t="s">
         <v>507</v>
       </c>
-      <c r="F220" s="33" t="s">
+      <c r="F220" s="11" t="s">
         <v>630</v>
       </c>
       <c r="G220" s="9" t="s">
@@ -14612,7 +14193,7 @@
         <v>706</v>
       </c>
       <c r="J220" s="9"/>
-      <c r="K220" s="57"/>
+      <c r="K220" s="54"/>
     </row>
     <row r="221" spans="1:11" ht="14">
       <c r="A221" s="5">
@@ -14622,19 +14203,19 @@
       <c r="B221" s="6">
         <v>3902</v>
       </c>
-      <c r="C221" s="56">
+      <c r="C221" s="53">
         <v>50</v>
       </c>
       <c r="D221" s="9" t="s">
         <v>509</v>
       </c>
-      <c r="E221" s="39" t="s">
+      <c r="E221" s="36" t="s">
         <v>510</v>
       </c>
-      <c r="F221" s="33" t="s">
+      <c r="F221" s="11" t="s">
         <v>717</v>
       </c>
-      <c r="G221" s="14" t="s">
+      <c r="G221" s="7" t="s">
         <v>511</v>
       </c>
     </row>
@@ -14646,16 +14227,16 @@
       <c r="B222" s="6">
         <v>3952</v>
       </c>
-      <c r="C222" s="56">
+      <c r="C222" s="53">
         <v>50</v>
       </c>
       <c r="D222" s="9" t="s">
         <v>512</v>
       </c>
-      <c r="E222" s="39" t="s">
+      <c r="E222" s="36" t="s">
         <v>513</v>
       </c>
-      <c r="F222" s="33" t="s">
+      <c r="F222" s="11" t="s">
         <v>717</v>
       </c>
       <c r="G222" s="9" t="s">
@@ -14664,7 +14245,7 @@
       <c r="H222" s="9"/>
       <c r="I222" s="9"/>
       <c r="J222" s="9"/>
-      <c r="K222" s="57"/>
+      <c r="K222" s="54"/>
     </row>
     <row r="223" spans="1:11" ht="14">
       <c r="A223" s="5">
@@ -14674,19 +14255,19 @@
       <c r="B223" s="6">
         <v>4002</v>
       </c>
-      <c r="C223" s="56">
+      <c r="C223" s="53">
         <v>50</v>
       </c>
       <c r="D223" s="9" t="s">
         <v>514</v>
       </c>
-      <c r="E223" s="39" t="s">
+      <c r="E223" s="36" t="s">
         <v>515</v>
       </c>
-      <c r="F223" s="33" t="s">
+      <c r="F223" s="11" t="s">
         <v>717</v>
       </c>
-      <c r="G223" s="14" t="s">
+      <c r="G223" s="7" t="s">
         <v>511</v>
       </c>
     </row>
@@ -14698,16 +14279,16 @@
       <c r="B224" s="6">
         <v>4052</v>
       </c>
-      <c r="C224" s="56">
+      <c r="C224" s="53">
         <v>10</v>
       </c>
       <c r="D224" s="9" t="s">
         <v>516</v>
       </c>
-      <c r="E224" s="39" t="s">
+      <c r="E224" s="36" t="s">
         <v>517</v>
       </c>
-      <c r="F224" s="33" t="s">
+      <c r="F224" s="11" t="s">
         <v>717</v>
       </c>
       <c r="G224" s="9" t="s">
@@ -14716,14 +14297,14 @@
       <c r="H224" s="9"/>
       <c r="I224" s="9"/>
       <c r="J224" s="9"/>
-      <c r="K224" s="57"/>
+      <c r="K224" s="54"/>
     </row>
     <row r="225" spans="1:11" ht="14">
       <c r="A225" s="5">
         <f t="shared" si="10"/>
         <v>224</v>
       </c>
-      <c r="B225" s="38">
+      <c r="B225" s="35">
         <f t="shared" ref="B225:B230" si="12">B224+C224</f>
         <v>4062</v>
       </c>
@@ -14739,18 +14320,13 @@
       <c r="F225" s="7" t="s">
         <v>717</v>
       </c>
-      <c r="G225" s="7"/>
-      <c r="H225" s="7"/>
-      <c r="I225" s="7"/>
-      <c r="J225" s="7"/>
-      <c r="K225" s="10"/>
     </row>
     <row r="226" spans="1:11" ht="14">
       <c r="A226" s="5">
         <f t="shared" si="10"/>
         <v>225</v>
       </c>
-      <c r="B226" s="38">
+      <c r="B226" s="35">
         <f t="shared" si="12"/>
         <v>4072</v>
       </c>
@@ -14766,20 +14342,16 @@
       <c r="F226" s="7" t="s">
         <v>630</v>
       </c>
-      <c r="G226" s="7"/>
-      <c r="H226" s="7"/>
       <c r="I226" s="7" t="s">
         <v>706</v>
       </c>
-      <c r="J226" s="7"/>
-      <c r="K226" s="10"/>
     </row>
     <row r="227" spans="1:11" ht="14">
       <c r="A227" s="5">
         <f t="shared" si="10"/>
         <v>226</v>
       </c>
-      <c r="B227" s="38">
+      <c r="B227" s="35">
         <f t="shared" si="12"/>
         <v>4082</v>
       </c>
@@ -14795,18 +14367,13 @@
       <c r="F227" s="7" t="s">
         <v>717</v>
       </c>
-      <c r="G227" s="7"/>
-      <c r="H227" s="7"/>
-      <c r="I227" s="7"/>
-      <c r="J227" s="7"/>
-      <c r="K227" s="10"/>
     </row>
     <row r="228" spans="1:11" ht="14">
       <c r="A228" s="5">
         <f t="shared" si="10"/>
         <v>227</v>
       </c>
-      <c r="B228" s="38">
+      <c r="B228" s="35">
         <f t="shared" si="12"/>
         <v>4110</v>
       </c>
@@ -14822,18 +14389,13 @@
       <c r="F228" s="7" t="s">
         <v>717</v>
       </c>
-      <c r="G228" s="7"/>
-      <c r="H228" s="7"/>
-      <c r="I228" s="7"/>
-      <c r="J228" s="7"/>
-      <c r="K228" s="10"/>
     </row>
     <row r="229" spans="1:11" ht="14">
       <c r="A229" s="5">
         <f t="shared" si="10"/>
         <v>228</v>
       </c>
-      <c r="B229" s="38">
+      <c r="B229" s="35">
         <f t="shared" si="12"/>
         <v>4120</v>
       </c>
@@ -14849,20 +14411,16 @@
       <c r="F229" s="7" t="s">
         <v>630</v>
       </c>
-      <c r="G229" s="7"/>
-      <c r="H229" s="7"/>
       <c r="I229" s="7" t="s">
         <v>706</v>
       </c>
-      <c r="J229" s="7"/>
-      <c r="K229" s="10"/>
     </row>
     <row r="230" spans="1:11" ht="14">
       <c r="A230" s="5">
         <f t="shared" si="10"/>
         <v>229</v>
       </c>
-      <c r="B230" s="38">
+      <c r="B230" s="35">
         <f t="shared" si="12"/>
         <v>4130</v>
       </c>
@@ -14878,18 +14436,13 @@
       <c r="F230" s="7" t="s">
         <v>717</v>
       </c>
-      <c r="G230" s="7"/>
-      <c r="H230" s="7"/>
-      <c r="I230" s="7"/>
-      <c r="J230" s="7"/>
-      <c r="K230" s="10"/>
     </row>
     <row r="231" spans="1:11" ht="52.5" customHeight="1">
       <c r="A231" s="5">
         <f t="shared" si="10"/>
         <v>230</v>
       </c>
-      <c r="B231" s="38">
+      <c r="B231" s="35">
         <v>4137</v>
       </c>
       <c r="C231" s="6">
@@ -14904,20 +14457,20 @@
       <c r="F231" s="7" t="s">
         <v>717</v>
       </c>
-      <c r="G231" s="40" t="s">
+      <c r="G231" s="37" t="s">
         <v>532</v>
       </c>
-      <c r="H231" s="40"/>
-      <c r="I231" s="40"/>
-      <c r="J231" s="40"/>
-      <c r="K231" s="41"/>
+      <c r="H231" s="37"/>
+      <c r="I231" s="37"/>
+      <c r="J231" s="37"/>
+      <c r="K231" s="38"/>
     </row>
     <row r="232" spans="1:11" ht="42">
       <c r="A232" s="5">
         <f t="shared" si="10"/>
         <v>231</v>
       </c>
-      <c r="B232" s="38">
+      <c r="B232" s="35">
         <v>4187</v>
       </c>
       <c r="C232" s="6">
@@ -14935,10 +14488,6 @@
       <c r="G232" s="7" t="s">
         <v>307</v>
       </c>
-      <c r="H232" s="7"/>
-      <c r="I232" s="7"/>
-      <c r="J232" s="7"/>
-      <c r="K232" s="10"/>
     </row>
     <row r="233" spans="1:11" ht="112" customHeight="1">
       <c r="A233" s="5">
@@ -14948,16 +14497,16 @@
       <c r="B233" s="6">
         <v>4215</v>
       </c>
-      <c r="C233" s="56">
+      <c r="C233" s="53">
         <v>2</v>
       </c>
-      <c r="D233" s="58" t="s">
+      <c r="D233" s="55" t="s">
         <v>535</v>
       </c>
-      <c r="E233" s="39" t="s">
+      <c r="E233" s="36" t="s">
         <v>536</v>
       </c>
-      <c r="F233" s="33" t="s">
+      <c r="F233" s="11" t="s">
         <v>717</v>
       </c>
       <c r="G233" s="12" t="s">
@@ -14976,16 +14525,16 @@
       <c r="B234" s="6">
         <v>4217</v>
       </c>
-      <c r="C234" s="56">
+      <c r="C234" s="53">
         <v>28</v>
       </c>
-      <c r="D234" s="59" t="s">
+      <c r="D234" s="37" t="s">
         <v>537</v>
       </c>
-      <c r="E234" s="39" t="s">
+      <c r="E234" s="36" t="s">
         <v>538</v>
       </c>
-      <c r="F234" s="33" t="s">
+      <c r="F234" s="11" t="s">
         <v>717</v>
       </c>
       <c r="G234" s="12" t="s">
@@ -15004,25 +14553,21 @@
       <c r="B235" s="6">
         <v>4245</v>
       </c>
-      <c r="C235" s="56">
+      <c r="C235" s="53">
         <v>9</v>
       </c>
-      <c r="D235" s="61" t="s">
+      <c r="D235" s="56" t="s">
         <v>539</v>
       </c>
-      <c r="E235" s="39" t="s">
+      <c r="E235" s="36" t="s">
         <v>540</v>
       </c>
-      <c r="F235" s="33" t="s">
+      <c r="F235" s="11" t="s">
         <v>717</v>
       </c>
       <c r="G235" s="7" t="s">
         <v>313</v>
       </c>
-      <c r="H235" s="7"/>
-      <c r="I235" s="7"/>
-      <c r="J235" s="7"/>
-      <c r="K235" s="10"/>
     </row>
     <row r="236" spans="1:11">
       <c r="A236" s="5">
@@ -15032,16 +14577,16 @@
       <c r="B236" s="6">
         <v>4254</v>
       </c>
-      <c r="C236" s="56">
+      <c r="C236" s="53">
         <v>8</v>
       </c>
       <c r="D236" s="9" t="s">
         <v>541</v>
       </c>
-      <c r="E236" s="39" t="s">
+      <c r="E236" s="36" t="s">
         <v>542</v>
       </c>
-      <c r="F236" s="33" t="s">
+      <c r="F236" s="11" t="s">
         <v>630</v>
       </c>
       <c r="G236" s="9" t="s">
@@ -15052,7 +14597,7 @@
         <v>706</v>
       </c>
       <c r="J236" s="9"/>
-      <c r="K236" s="57"/>
+      <c r="K236" s="54"/>
     </row>
     <row r="237" spans="1:11" ht="56">
       <c r="A237" s="5">
@@ -15062,27 +14607,24 @@
       <c r="B237" s="6">
         <v>4262</v>
       </c>
-      <c r="C237" s="56">
+      <c r="C237" s="53">
         <v>8</v>
       </c>
       <c r="D237" s="9" t="s">
         <v>544</v>
       </c>
-      <c r="E237" s="39" t="s">
+      <c r="E237" s="36" t="s">
         <v>545</v>
       </c>
-      <c r="F237" s="33" t="s">
+      <c r="F237" s="11" t="s">
         <v>630</v>
       </c>
       <c r="G237" s="7" t="s">
         <v>546</v>
       </c>
-      <c r="H237" s="7"/>
       <c r="I237" s="7" t="s">
         <v>706</v>
       </c>
-      <c r="J237" s="7"/>
-      <c r="K237" s="10"/>
     </row>
     <row r="238" spans="1:11" ht="98">
       <c r="A238" s="5">
@@ -15092,27 +14634,27 @@
       <c r="B238" s="6">
         <v>4270</v>
       </c>
-      <c r="C238" s="56">
+      <c r="C238" s="53">
         <v>28</v>
       </c>
-      <c r="D238" s="59" t="s">
+      <c r="D238" s="37" t="s">
         <v>547</v>
       </c>
-      <c r="E238" s="39" t="s">
+      <c r="E238" s="36" t="s">
         <v>548</v>
       </c>
       <c r="F238" s="1" t="s">
         <v>733</v>
       </c>
-      <c r="G238" s="26" t="s">
+      <c r="G238" s="24" t="s">
         <v>549</v>
       </c>
-      <c r="H238" s="26" t="s">
-        <v>727</v>
-      </c>
-      <c r="I238" s="26"/>
-      <c r="J238" s="26"/>
-      <c r="K238" s="27"/>
+      <c r="H238" s="24" t="s">
+        <v>727</v>
+      </c>
+      <c r="I238" s="24"/>
+      <c r="J238" s="24"/>
+      <c r="K238" s="25"/>
     </row>
     <row r="239" spans="1:11" ht="84">
       <c r="A239" s="5">
@@ -15122,27 +14664,27 @@
       <c r="B239" s="6">
         <v>4298</v>
       </c>
-      <c r="C239" s="56">
+      <c r="C239" s="53">
         <v>28</v>
       </c>
-      <c r="D239" s="59" t="s">
+      <c r="D239" s="37" t="s">
         <v>550</v>
       </c>
-      <c r="E239" s="39" t="s">
+      <c r="E239" s="36" t="s">
         <v>551</v>
       </c>
       <c r="F239" s="1" t="s">
         <v>640</v>
       </c>
-      <c r="G239" s="26" t="s">
+      <c r="G239" s="24" t="s">
         <v>473</v>
       </c>
-      <c r="H239" s="26" t="s">
-        <v>727</v>
-      </c>
-      <c r="I239" s="26"/>
-      <c r="J239" s="26"/>
-      <c r="K239" s="27"/>
+      <c r="H239" s="24" t="s">
+        <v>727</v>
+      </c>
+      <c r="I239" s="24"/>
+      <c r="J239" s="24"/>
+      <c r="K239" s="25"/>
     </row>
     <row r="240" spans="1:11" ht="42">
       <c r="A240" s="5">
@@ -15168,12 +14710,9 @@
       <c r="G240" s="7" t="s">
         <v>608</v>
       </c>
-      <c r="H240" s="7"/>
       <c r="I240" s="7" t="s">
         <v>706</v>
       </c>
-      <c r="J240" s="7"/>
-      <c r="K240" s="10"/>
     </row>
     <row r="241" spans="1:11" ht="42">
       <c r="A241" s="5">
@@ -15183,27 +14722,24 @@
       <c r="B241" s="6">
         <v>4328</v>
       </c>
-      <c r="C241" s="56">
+      <c r="C241" s="53">
         <v>28</v>
       </c>
       <c r="D241" s="9" t="s">
         <v>554</v>
       </c>
-      <c r="E241" s="39" t="s">
+      <c r="E241" s="36" t="s">
         <v>555</v>
       </c>
-      <c r="F241" s="33" t="s">
+      <c r="F241" s="11" t="s">
         <v>630</v>
       </c>
       <c r="G241" s="7" t="s">
         <v>556</v>
       </c>
-      <c r="H241" s="7"/>
       <c r="I241" s="7" t="s">
         <v>706</v>
       </c>
-      <c r="J241" s="7"/>
-      <c r="K241" s="10"/>
     </row>
     <row r="242" spans="1:11" ht="56">
       <c r="A242" s="5">
@@ -15213,27 +14749,24 @@
       <c r="B242" s="6">
         <v>4356</v>
       </c>
-      <c r="C242" s="56">
+      <c r="C242" s="53">
         <v>3</v>
       </c>
       <c r="D242" s="9" t="s">
         <v>557</v>
       </c>
-      <c r="E242" s="39" t="s">
+      <c r="E242" s="36" t="s">
         <v>558</v>
       </c>
-      <c r="F242" s="33" t="s">
+      <c r="F242" s="11" t="s">
         <v>630</v>
       </c>
       <c r="G242" s="7" t="s">
         <v>559</v>
       </c>
-      <c r="H242" s="7"/>
       <c r="I242" s="7" t="s">
         <v>706</v>
       </c>
-      <c r="J242" s="7"/>
-      <c r="K242" s="10"/>
     </row>
     <row r="243" spans="1:11" ht="28">
       <c r="A243" s="5">
@@ -15243,27 +14776,24 @@
       <c r="B243" s="6">
         <v>4359</v>
       </c>
-      <c r="C243" s="56">
+      <c r="C243" s="53">
         <v>1</v>
       </c>
       <c r="D243" s="9" t="s">
         <v>560</v>
       </c>
-      <c r="E243" s="39" t="s">
+      <c r="E243" s="36" t="s">
         <v>561</v>
       </c>
-      <c r="F243" s="33" t="s">
+      <c r="F243" s="11" t="s">
         <v>630</v>
       </c>
       <c r="G243" s="7" t="s">
         <v>562</v>
       </c>
-      <c r="H243" s="7"/>
       <c r="I243" s="7" t="s">
         <v>706</v>
       </c>
-      <c r="J243" s="7"/>
-      <c r="K243" s="10"/>
     </row>
     <row r="244" spans="1:11" ht="14">
       <c r="A244" s="5">
@@ -15273,27 +14803,24 @@
       <c r="B244" s="6">
         <v>4360</v>
       </c>
-      <c r="C244" s="56">
+      <c r="C244" s="53">
         <v>1</v>
       </c>
       <c r="D244" s="9" t="s">
         <v>563</v>
       </c>
-      <c r="E244" s="39" t="s">
+      <c r="E244" s="36" t="s">
         <v>564</v>
       </c>
-      <c r="F244" s="33" t="s">
+      <c r="F244" s="11" t="s">
         <v>630</v>
       </c>
       <c r="G244" s="7" t="s">
         <v>565</v>
       </c>
-      <c r="H244" s="7"/>
       <c r="I244" s="7" t="s">
         <v>706</v>
       </c>
-      <c r="J244" s="7"/>
-      <c r="K244" s="10"/>
     </row>
     <row r="245" spans="1:11" ht="28">
       <c r="A245" s="5">
@@ -15303,27 +14830,24 @@
       <c r="B245" s="6">
         <v>4361</v>
       </c>
-      <c r="C245" s="56">
+      <c r="C245" s="53">
         <v>8</v>
       </c>
       <c r="D245" s="9" t="s">
         <v>566</v>
       </c>
-      <c r="E245" s="39" t="s">
+      <c r="E245" s="36" t="s">
         <v>567</v>
       </c>
-      <c r="F245" s="33" t="s">
+      <c r="F245" s="11" t="s">
         <v>630</v>
       </c>
       <c r="G245" s="7" t="s">
         <v>568</v>
       </c>
-      <c r="H245" s="7"/>
       <c r="I245" s="7" t="s">
         <v>706</v>
       </c>
-      <c r="J245" s="7"/>
-      <c r="K245" s="10"/>
     </row>
     <row r="246" spans="1:11" ht="42">
       <c r="A246" s="5">
@@ -15333,27 +14857,24 @@
       <c r="B246" s="6">
         <v>4369</v>
       </c>
-      <c r="C246" s="56">
+      <c r="C246" s="53">
         <v>8</v>
       </c>
       <c r="D246" s="9" t="s">
         <v>569</v>
       </c>
-      <c r="E246" s="39" t="s">
+      <c r="E246" s="36" t="s">
         <v>570</v>
       </c>
-      <c r="F246" s="33" t="s">
+      <c r="F246" s="11" t="s">
         <v>630</v>
       </c>
       <c r="G246" s="7" t="s">
         <v>569</v>
       </c>
-      <c r="H246" s="7"/>
       <c r="I246" s="7" t="s">
         <v>706</v>
       </c>
-      <c r="J246" s="7"/>
-      <c r="K246" s="10"/>
     </row>
     <row r="247" spans="1:11" ht="27.75" customHeight="1">
       <c r="A247" s="5">
@@ -15363,13 +14884,13 @@
       <c r="B247" s="6">
         <v>4377</v>
       </c>
-      <c r="C247" s="56">
+      <c r="C247" s="53">
         <v>50</v>
       </c>
       <c r="D247" s="11" t="s">
         <v>571</v>
       </c>
-      <c r="E247" s="39" t="s">
+      <c r="E247" s="36" t="s">
         <v>572</v>
       </c>
       <c r="F247" s="1" t="s">
@@ -15381,11 +14902,8 @@
       <c r="H247" s="7" t="s">
         <v>727</v>
       </c>
-      <c r="I247" s="7"/>
-      <c r="J247" s="7"/>
-      <c r="K247" s="10"/>
-    </row>
-    <row r="248" spans="1:11" s="33" customFormat="1" ht="14">
+    </row>
+    <row r="248" spans="1:11" ht="14">
       <c r="A248" s="5">
         <f t="shared" si="10"/>
         <v>247</v>
@@ -15393,327 +14911,323 @@
       <c r="B248" s="6">
         <v>4427</v>
       </c>
-      <c r="C248" s="62">
+      <c r="C248" s="53">
         <v>3</v>
       </c>
-      <c r="D248" s="33" t="s">
+      <c r="D248" s="11" t="s">
         <v>574</v>
       </c>
-      <c r="E248" s="63" t="s">
+      <c r="E248" s="57" t="s">
         <v>712</v>
       </c>
-      <c r="F248" s="72" t="s">
-        <v>630</v>
-      </c>
-      <c r="G248" s="7"/>
-      <c r="H248" s="7"/>
+      <c r="F248" s="9" t="s">
+        <v>630</v>
+      </c>
       <c r="I248" s="7" t="s">
         <v>706</v>
       </c>
-      <c r="J248" s="7"/>
-      <c r="K248" s="10"/>
-    </row>
-    <row r="249" spans="1:11" s="33" customFormat="1" ht="14">
+    </row>
+    <row r="249" spans="1:11" ht="14">
       <c r="A249" s="5">
         <f t="shared" si="10"/>
         <v>248</v>
       </c>
-      <c r="B249" s="64">
+      <c r="B249" s="58">
         <v>4430</v>
       </c>
-      <c r="C249" s="65">
+      <c r="C249" s="59">
         <v>1</v>
       </c>
-      <c r="D249" s="66" t="s">
+      <c r="D249" s="60" t="s">
         <v>585</v>
       </c>
-      <c r="E249" s="67" t="s">
+      <c r="E249" s="61" t="s">
         <v>595</v>
       </c>
-      <c r="F249" s="73" t="s">
-        <v>630</v>
-      </c>
-      <c r="G249" s="68" t="s">
+      <c r="F249" s="65" t="s">
+        <v>630</v>
+      </c>
+      <c r="G249" s="62" t="s">
         <v>584</v>
       </c>
-      <c r="H249" s="68"/>
-      <c r="I249" s="68" t="s">
-        <v>706</v>
-      </c>
-      <c r="J249" s="68"/>
-      <c r="K249" s="69"/>
-    </row>
-    <row r="250" spans="1:11" s="33" customFormat="1" ht="14">
+      <c r="H249" s="62"/>
+      <c r="I249" s="62" t="s">
+        <v>706</v>
+      </c>
+      <c r="J249" s="62"/>
+      <c r="K249" s="63"/>
+    </row>
+    <row r="250" spans="1:11" ht="14">
       <c r="A250" s="5">
         <f t="shared" si="10"/>
         <v>249</v>
       </c>
-      <c r="B250" s="64">
+      <c r="B250" s="58">
         <v>4431</v>
       </c>
-      <c r="C250" s="65">
+      <c r="C250" s="59">
         <v>1</v>
       </c>
-      <c r="D250" s="66" t="s">
+      <c r="D250" s="60" t="s">
         <v>586</v>
       </c>
-      <c r="E250" s="67" t="s">
+      <c r="E250" s="61" t="s">
         <v>596</v>
       </c>
-      <c r="F250" s="73" t="s">
-        <v>630</v>
-      </c>
-      <c r="G250" s="68" t="s">
+      <c r="F250" s="65" t="s">
+        <v>630</v>
+      </c>
+      <c r="G250" s="62" t="s">
         <v>584</v>
       </c>
-      <c r="H250" s="68"/>
-      <c r="I250" s="68" t="s">
-        <v>706</v>
-      </c>
-      <c r="J250" s="68"/>
-      <c r="K250" s="69"/>
-    </row>
-    <row r="251" spans="1:11" s="33" customFormat="1" ht="14">
+      <c r="H250" s="62"/>
+      <c r="I250" s="62" t="s">
+        <v>706</v>
+      </c>
+      <c r="J250" s="62"/>
+      <c r="K250" s="63"/>
+    </row>
+    <row r="251" spans="1:11" ht="14">
       <c r="A251" s="5">
         <f t="shared" si="10"/>
         <v>250</v>
       </c>
-      <c r="B251" s="64">
+      <c r="B251" s="58">
         <v>4432</v>
       </c>
-      <c r="C251" s="65">
+      <c r="C251" s="59">
         <v>1</v>
       </c>
-      <c r="D251" s="66" t="s">
+      <c r="D251" s="60" t="s">
         <v>587</v>
       </c>
-      <c r="E251" s="67" t="s">
+      <c r="E251" s="61" t="s">
         <v>597</v>
       </c>
-      <c r="F251" s="73" t="s">
-        <v>630</v>
-      </c>
-      <c r="G251" s="68" t="s">
+      <c r="F251" s="65" t="s">
+        <v>630</v>
+      </c>
+      <c r="G251" s="62" t="s">
         <v>584</v>
       </c>
-      <c r="H251" s="68"/>
-      <c r="I251" s="68" t="s">
-        <v>706</v>
-      </c>
-      <c r="J251" s="68"/>
-      <c r="K251" s="69"/>
-    </row>
-    <row r="252" spans="1:11" s="33" customFormat="1" ht="14">
+      <c r="H251" s="62"/>
+      <c r="I251" s="62" t="s">
+        <v>706</v>
+      </c>
+      <c r="J251" s="62"/>
+      <c r="K251" s="63"/>
+    </row>
+    <row r="252" spans="1:11" ht="14">
       <c r="A252" s="5">
         <f t="shared" si="10"/>
         <v>251</v>
       </c>
-      <c r="B252" s="64">
+      <c r="B252" s="58">
         <v>4433</v>
       </c>
-      <c r="C252" s="65">
+      <c r="C252" s="59">
         <v>1</v>
       </c>
-      <c r="D252" s="66" t="s">
+      <c r="D252" s="60" t="s">
         <v>588</v>
       </c>
-      <c r="E252" s="67" t="s">
+      <c r="E252" s="61" t="s">
         <v>598</v>
       </c>
-      <c r="F252" s="73" t="s">
-        <v>630</v>
-      </c>
-      <c r="G252" s="68" t="s">
+      <c r="F252" s="65" t="s">
+        <v>630</v>
+      </c>
+      <c r="G252" s="62" t="s">
         <v>584</v>
       </c>
-      <c r="H252" s="68"/>
-      <c r="I252" s="68" t="s">
-        <v>706</v>
-      </c>
-      <c r="J252" s="68"/>
-      <c r="K252" s="69"/>
-    </row>
-    <row r="253" spans="1:11" s="33" customFormat="1" ht="14">
+      <c r="H252" s="62"/>
+      <c r="I252" s="62" t="s">
+        <v>706</v>
+      </c>
+      <c r="J252" s="62"/>
+      <c r="K252" s="63"/>
+    </row>
+    <row r="253" spans="1:11" ht="14">
       <c r="A253" s="5">
         <f t="shared" si="10"/>
         <v>252</v>
       </c>
-      <c r="B253" s="64">
+      <c r="B253" s="58">
         <v>4434</v>
       </c>
-      <c r="C253" s="65">
+      <c r="C253" s="59">
         <v>1</v>
       </c>
-      <c r="D253" s="66" t="s">
+      <c r="D253" s="60" t="s">
         <v>589</v>
       </c>
-      <c r="E253" s="67" t="s">
+      <c r="E253" s="61" t="s">
         <v>599</v>
       </c>
-      <c r="F253" s="73" t="s">
-        <v>630</v>
-      </c>
-      <c r="G253" s="68" t="s">
+      <c r="F253" s="65" t="s">
+        <v>630</v>
+      </c>
+      <c r="G253" s="62" t="s">
         <v>584</v>
       </c>
-      <c r="H253" s="68"/>
-      <c r="I253" s="68" t="s">
-        <v>706</v>
-      </c>
-      <c r="J253" s="68"/>
-      <c r="K253" s="69"/>
-    </row>
-    <row r="254" spans="1:11" s="33" customFormat="1" ht="14">
+      <c r="H253" s="62"/>
+      <c r="I253" s="62" t="s">
+        <v>706</v>
+      </c>
+      <c r="J253" s="62"/>
+      <c r="K253" s="63"/>
+    </row>
+    <row r="254" spans="1:11" ht="14">
       <c r="A254" s="5">
         <f t="shared" si="10"/>
         <v>253</v>
       </c>
-      <c r="B254" s="64">
+      <c r="B254" s="58">
         <v>4435</v>
       </c>
-      <c r="C254" s="65">
+      <c r="C254" s="59">
         <v>1</v>
       </c>
-      <c r="D254" s="66" t="s">
+      <c r="D254" s="60" t="s">
         <v>590</v>
       </c>
-      <c r="E254" s="67" t="s">
+      <c r="E254" s="61" t="s">
         <v>600</v>
       </c>
-      <c r="F254" s="73" t="s">
-        <v>630</v>
-      </c>
-      <c r="G254" s="68" t="s">
+      <c r="F254" s="65" t="s">
+        <v>630</v>
+      </c>
+      <c r="G254" s="62" t="s">
         <v>584</v>
       </c>
-      <c r="H254" s="68"/>
-      <c r="I254" s="68" t="s">
-        <v>706</v>
-      </c>
-      <c r="J254" s="68"/>
-      <c r="K254" s="69"/>
-    </row>
-    <row r="255" spans="1:11" s="33" customFormat="1" ht="14">
+      <c r="H254" s="62"/>
+      <c r="I254" s="62" t="s">
+        <v>706</v>
+      </c>
+      <c r="J254" s="62"/>
+      <c r="K254" s="63"/>
+    </row>
+    <row r="255" spans="1:11" ht="14">
       <c r="A255" s="5">
         <f t="shared" si="10"/>
         <v>254</v>
       </c>
-      <c r="B255" s="64">
+      <c r="B255" s="58">
         <v>4436</v>
       </c>
-      <c r="C255" s="65">
+      <c r="C255" s="59">
         <v>8</v>
       </c>
-      <c r="D255" s="66" t="s">
+      <c r="D255" s="60" t="s">
         <v>591</v>
       </c>
-      <c r="E255" s="67" t="s">
+      <c r="E255" s="61" t="s">
         <v>601</v>
       </c>
-      <c r="F255" s="73" t="s">
-        <v>630</v>
-      </c>
-      <c r="G255" s="68" t="s">
+      <c r="F255" s="65" t="s">
+        <v>630</v>
+      </c>
+      <c r="G255" s="62" t="s">
         <v>584</v>
       </c>
-      <c r="H255" s="68"/>
-      <c r="I255" s="68" t="s">
-        <v>706</v>
-      </c>
-      <c r="J255" s="68"/>
-      <c r="K255" s="69"/>
-    </row>
-    <row r="256" spans="1:11" s="33" customFormat="1" ht="14">
+      <c r="H255" s="62"/>
+      <c r="I255" s="62" t="s">
+        <v>706</v>
+      </c>
+      <c r="J255" s="62"/>
+      <c r="K255" s="63"/>
+    </row>
+    <row r="256" spans="1:11" ht="14">
       <c r="A256" s="5">
         <f t="shared" si="10"/>
         <v>255</v>
       </c>
-      <c r="B256" s="64">
+      <c r="B256" s="58">
         <v>4444</v>
       </c>
-      <c r="C256" s="65">
+      <c r="C256" s="59">
         <v>8</v>
       </c>
-      <c r="D256" s="66" t="s">
+      <c r="D256" s="60" t="s">
         <v>592</v>
       </c>
-      <c r="E256" s="67" t="s">
+      <c r="E256" s="61" t="s">
         <v>602</v>
       </c>
-      <c r="F256" s="73" t="s">
-        <v>630</v>
-      </c>
-      <c r="G256" s="68" t="s">
+      <c r="F256" s="65" t="s">
+        <v>630</v>
+      </c>
+      <c r="G256" s="62" t="s">
         <v>584</v>
       </c>
-      <c r="H256" s="68"/>
-      <c r="I256" s="68" t="s">
-        <v>706</v>
-      </c>
-      <c r="J256" s="68"/>
-      <c r="K256" s="69"/>
-    </row>
-    <row r="257" spans="1:11" s="33" customFormat="1" ht="14">
+      <c r="H256" s="62"/>
+      <c r="I256" s="62" t="s">
+        <v>706</v>
+      </c>
+      <c r="J256" s="62"/>
+      <c r="K256" s="63"/>
+    </row>
+    <row r="257" spans="1:11" ht="14">
       <c r="A257" s="5">
         <f t="shared" si="10"/>
         <v>256</v>
       </c>
-      <c r="B257" s="64">
+      <c r="B257" s="58">
         <v>4452</v>
       </c>
-      <c r="C257" s="65">
+      <c r="C257" s="59">
         <v>8</v>
       </c>
-      <c r="D257" s="66" t="s">
+      <c r="D257" s="60" t="s">
         <v>593</v>
       </c>
-      <c r="E257" s="67" t="s">
+      <c r="E257" s="61" t="s">
         <v>603</v>
       </c>
-      <c r="F257" s="73" t="s">
-        <v>630</v>
-      </c>
-      <c r="G257" s="68" t="s">
+      <c r="F257" s="65" t="s">
+        <v>630</v>
+      </c>
+      <c r="G257" s="62" t="s">
         <v>584</v>
       </c>
-      <c r="H257" s="68"/>
-      <c r="I257" s="68" t="s">
-        <v>706</v>
-      </c>
-      <c r="J257" s="68"/>
-      <c r="K257" s="69"/>
-    </row>
-    <row r="258" spans="1:11" s="33" customFormat="1" ht="14">
+      <c r="H257" s="62"/>
+      <c r="I257" s="62" t="s">
+        <v>706</v>
+      </c>
+      <c r="J257" s="62"/>
+      <c r="K257" s="63"/>
+    </row>
+    <row r="258" spans="1:11" ht="14">
       <c r="A258" s="5">
         <f t="shared" si="10"/>
         <v>257</v>
       </c>
-      <c r="B258" s="64">
+      <c r="B258" s="58">
         <v>4460</v>
       </c>
-      <c r="C258" s="65">
+      <c r="C258" s="59">
         <v>20</v>
       </c>
-      <c r="D258" s="66" t="s">
+      <c r="D258" s="60" t="s">
         <v>594</v>
       </c>
-      <c r="E258" s="67" t="s">
+      <c r="E258" s="61" t="s">
         <v>604</v>
       </c>
-      <c r="F258" s="73" t="s">
-        <v>630</v>
-      </c>
-      <c r="G258" s="68" t="s">
+      <c r="F258" s="65" t="s">
+        <v>630</v>
+      </c>
+      <c r="G258" s="62" t="s">
         <v>584</v>
       </c>
-      <c r="H258" s="68"/>
-      <c r="I258" s="68" t="s">
-        <v>706</v>
-      </c>
-      <c r="J258" s="68"/>
-      <c r="K258" s="69"/>
-    </row>
-    <row r="259" spans="1:11" s="33" customFormat="1" ht="70">
+      <c r="H258" s="62"/>
+      <c r="I258" s="62" t="s">
+        <v>706</v>
+      </c>
+      <c r="J258" s="62"/>
+      <c r="K258" s="63"/>
+    </row>
+    <row r="259" spans="1:11" ht="70">
       <c r="A259" s="5">
         <f t="shared" ref="A259:A260" si="13">A258+1</f>
         <v>258</v>
@@ -15721,27 +15235,24 @@
       <c r="B259" s="6">
         <v>4480</v>
       </c>
-      <c r="C259" s="62">
+      <c r="C259" s="53">
         <v>250</v>
       </c>
-      <c r="D259" s="33" t="s">
+      <c r="D259" s="11" t="s">
         <v>575</v>
       </c>
-      <c r="E259" s="63" t="s">
+      <c r="E259" s="57" t="s">
         <v>576</v>
       </c>
-      <c r="F259" s="72" t="s">
+      <c r="F259" s="9" t="s">
         <v>630</v>
       </c>
       <c r="G259" s="7" t="s">
         <v>577</v>
       </c>
-      <c r="H259" s="7"/>
       <c r="I259" s="7" t="s">
         <v>706</v>
       </c>
-      <c r="J259" s="7"/>
-      <c r="K259" s="10"/>
     </row>
     <row r="260" spans="1:11" ht="98">
       <c r="A260" s="5">
@@ -15766,12 +15277,9 @@
       <c r="G260" s="7" t="s">
         <v>580</v>
       </c>
-      <c r="H260" s="7"/>
       <c r="I260" s="7" t="s">
         <v>706</v>
       </c>
-      <c r="J260" s="7"/>
-      <c r="K260" s="10"/>
     </row>
     <row r="1048511" spans="6:6">
       <c r="F1048511" s="7"/>
@@ -15815,7 +15323,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -16041,12 +15554,7 @@
 </file>
 
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -16061,9 +15569,9 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F6E1C13E-614F-4B48-A9FE-F6158F0F568F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A2D8D0BD-9993-4EC8-86D1-0A7C5F6E1934}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -16089,9 +15597,9 @@
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A2D8D0BD-9993-4EC8-86D1-0A7C5F6E1934}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F6E1C13E-614F-4B48-A9FE-F6158F0F568F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/tools/IJE_File_Layouts_Tabular_Input_Mapping_Version_2021.xlsx
+++ b/tools/IJE_File_Layouts_Tabular_Input_Mapping_Version_2021.xlsx
@@ -5,19 +5,19 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/krautscheid/git/vrdr-dotnet/tools/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rscalfani/Documents/code/NVSS/vrdr-dotnet/tools/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1700D00C-B164-A748-B4CF-19E68D35B176}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C458F75-F412-3245-9CDD-2129125E0949}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2980" yWindow="7940" windowWidth="25600" windowHeight="20500" tabRatio="779" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="480" windowWidth="51200" windowHeight="28320" tabRatio="779" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mortality_Trim_mappings" sheetId="2" r:id="rId1"/>
     <sheet name="Mortality_Full_Details" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Mortality_Full_Details!$B$2:$Q$260</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Mortality_Full_Details!$A$1:$K$260</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">Mortality_Full_Details!$A$1:$G$260</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Mortality_Full_Details!$1:$1</definedName>
     <definedName name="Z_F1069C25_F3CC_400B_8C16_E88E31027CCC_.wvu.FilterData" localSheetId="1" hidden="1">Mortality_Full_Details!$B$2:$Q$260</definedName>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1977" uniqueCount="749">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1980" uniqueCount="753">
   <si>
     <t>Field #</t>
   </si>
@@ -2628,6 +2628,18 @@
   <si>
     <t>SPOUSEL</t>
   </si>
+  <si>
+    <t>two_digit_country</t>
+  </si>
+  <si>
+    <t>Time of Injury Modifier</t>
+  </si>
+  <si>
+    <t>full_state_name</t>
+  </si>
+  <si>
+    <t>toi_unit_modifier</t>
+  </si>
 </sst>
 </file>
 
@@ -2636,7 +2648,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -2698,6 +2710,12 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Sans-serif"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="8">
@@ -2767,7 +2785,7 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2950,13 +2968,14 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="45" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3304,8 +3323,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD74E696-0F05-DF43-9EB9-28DAB6A6F493}">
   <dimension ref="A1:G260"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="C146" sqref="C146"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="G127" sqref="G127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -3593,7 +3612,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:7">
       <c r="A17">
         <f t="shared" si="0"/>
         <v>200</v>
@@ -3611,7 +3630,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:7">
       <c r="A18">
         <f t="shared" si="0"/>
         <v>201</v>
@@ -3629,7 +3648,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:7">
       <c r="A19">
         <f t="shared" si="0"/>
         <v>204</v>
@@ -3647,7 +3666,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:7">
       <c r="A20">
         <f t="shared" si="0"/>
         <v>205</v>
@@ -3665,7 +3684,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:7">
       <c r="A21">
         <f t="shared" si="0"/>
         <v>209</v>
@@ -3683,7 +3702,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:7">
       <c r="A22">
         <f t="shared" si="0"/>
         <v>211</v>
@@ -3701,7 +3720,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:7">
       <c r="A23">
         <f t="shared" si="0"/>
         <v>213</v>
@@ -3718,8 +3737,11 @@
       <c r="E23" t="s">
         <v>727</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="G23" s="68" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24">
         <f t="shared" si="0"/>
         <v>215</v>
@@ -3737,7 +3759,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:7">
       <c r="A25">
         <f t="shared" si="0"/>
         <v>217</v>
@@ -3755,7 +3777,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:7">
       <c r="A26">
         <f t="shared" si="0"/>
         <v>222</v>
@@ -3773,7 +3795,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:7">
       <c r="A27">
         <f t="shared" si="0"/>
         <v>225</v>
@@ -3791,7 +3813,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:7">
       <c r="A28">
         <f t="shared" si="0"/>
         <v>227</v>
@@ -3809,7 +3831,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:7">
       <c r="A29">
         <f t="shared" si="0"/>
         <v>229</v>
@@ -3827,7 +3849,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:7">
       <c r="A30">
         <f t="shared" si="0"/>
         <v>230</v>
@@ -3845,7 +3867,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:7">
       <c r="A31">
         <f t="shared" si="0"/>
         <v>231</v>
@@ -3863,7 +3885,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:7">
       <c r="A32">
         <f t="shared" si="0"/>
         <v>232</v>
@@ -5271,11 +5293,11 @@
       <c r="C109" t="s">
         <v>243</v>
       </c>
-      <c r="D109" t="s">
-        <v>707</v>
-      </c>
-      <c r="E109" t="s">
-        <v>727</v>
+      <c r="D109" s="68" t="s">
+        <v>630</v>
+      </c>
+      <c r="F109" s="68" t="s">
+        <v>706</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -5332,7 +5354,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="113" spans="1:6">
+    <row r="113" spans="1:7">
       <c r="A113">
         <f t="shared" si="2"/>
         <v>979</v>
@@ -5350,7 +5372,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="114" spans="1:6">
+    <row r="114" spans="1:7">
       <c r="A114">
         <f t="shared" si="2"/>
         <v>980</v>
@@ -5368,7 +5390,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="115" spans="1:6">
+    <row r="115" spans="1:7">
       <c r="A115">
         <f t="shared" si="2"/>
         <v>981</v>
@@ -5386,7 +5408,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="116" spans="1:6">
+    <row r="116" spans="1:7">
       <c r="A116">
         <f t="shared" si="2"/>
         <v>983</v>
@@ -5404,7 +5426,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="117" spans="1:6">
+    <row r="117" spans="1:7">
       <c r="A117">
         <f t="shared" si="2"/>
         <v>985</v>
@@ -5422,7 +5444,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="118" spans="1:6">
+    <row r="118" spans="1:7">
       <c r="A118">
         <f t="shared" si="2"/>
         <v>989</v>
@@ -5440,7 +5462,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="119" spans="1:6">
+    <row r="119" spans="1:7">
       <c r="A119">
         <f t="shared" si="2"/>
         <v>993</v>
@@ -5458,7 +5480,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="120" spans="1:6">
+    <row r="120" spans="1:7">
       <c r="A120">
         <f t="shared" si="2"/>
         <v>994</v>
@@ -5476,7 +5498,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="121" spans="1:6">
+    <row r="121" spans="1:7">
       <c r="A121">
         <f t="shared" si="2"/>
         <v>1024</v>
@@ -5494,7 +5516,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="122" spans="1:6">
+    <row r="122" spans="1:7">
       <c r="A122">
         <f t="shared" si="2"/>
         <v>1025</v>
@@ -5512,7 +5534,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="123" spans="1:6">
+    <row r="123" spans="1:7">
       <c r="A123">
         <f t="shared" si="2"/>
         <v>1037</v>
@@ -5530,7 +5552,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="124" spans="1:6">
+    <row r="124" spans="1:7">
       <c r="A124">
         <f t="shared" si="2"/>
         <v>1067</v>
@@ -5548,7 +5570,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="125" spans="1:6">
+    <row r="125" spans="1:7">
       <c r="A125">
         <f t="shared" si="2"/>
         <v>1069</v>
@@ -5566,7 +5588,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="126" spans="1:6">
+    <row r="126" spans="1:7">
       <c r="A126">
         <f t="shared" si="2"/>
         <v>1071</v>
@@ -5584,24 +5606,27 @@
         <v>706</v>
       </c>
     </row>
-    <row r="127" spans="1:6">
+    <row r="127" spans="1:7" ht="15">
       <c r="A127">
         <v>1075</v>
       </c>
       <c r="B127">
         <v>1</v>
       </c>
-      <c r="C127" t="s">
+      <c r="C127" s="68" t="s">
         <v>282</v>
       </c>
-      <c r="D127" t="s">
-        <v>630</v>
-      </c>
-      <c r="F127" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6">
+      <c r="D127" s="71" t="s">
+        <v>750</v>
+      </c>
+      <c r="E127" s="68" t="s">
+        <v>727</v>
+      </c>
+      <c r="G127" s="68" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7">
       <c r="A128">
         <v>1076</v>
       </c>
@@ -5906,7 +5931,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="145" spans="1:6">
+    <row r="145" spans="1:7">
       <c r="A145">
         <f t="shared" si="3"/>
         <v>1385</v>
@@ -5917,11 +5942,11 @@
       <c r="C145" t="s">
         <v>329</v>
       </c>
-      <c r="D145" s="70" t="s">
+      <c r="D145" s="68" t="s">
         <v>717</v>
       </c>
     </row>
-    <row r="146" spans="1:6">
+    <row r="146" spans="1:7">
       <c r="A146">
         <f t="shared" si="3"/>
         <v>1435</v>
@@ -5929,14 +5954,14 @@
       <c r="B146">
         <v>50</v>
       </c>
-      <c r="C146" s="70" t="s">
+      <c r="C146" s="68" t="s">
         <v>748</v>
       </c>
-      <c r="D146" s="70" t="s">
+      <c r="D146" s="68" t="s">
         <v>717</v>
       </c>
     </row>
-    <row r="147" spans="1:6">
+    <row r="147" spans="1:7">
       <c r="A147">
         <f t="shared" si="3"/>
         <v>1485</v>
@@ -5951,7 +5976,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="148" spans="1:6">
+    <row r="148" spans="1:7">
       <c r="A148">
         <f t="shared" si="3"/>
         <v>1495</v>
@@ -5969,7 +5994,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="149" spans="1:6">
+    <row r="149" spans="1:7">
       <c r="A149">
         <f t="shared" si="3"/>
         <v>1505</v>
@@ -5984,7 +6009,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="150" spans="1:6">
+    <row r="150" spans="1:7">
       <c r="A150">
         <f t="shared" si="3"/>
         <v>1533</v>
@@ -5999,7 +6024,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="151" spans="1:6">
+    <row r="151" spans="1:7">
       <c r="A151">
         <f t="shared" si="3"/>
         <v>1543</v>
@@ -6017,7 +6042,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="152" spans="1:6">
+    <row r="152" spans="1:7">
       <c r="A152">
         <f t="shared" si="3"/>
         <v>1553</v>
@@ -6032,7 +6057,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="153" spans="1:6">
+    <row r="153" spans="1:7">
       <c r="A153">
         <f t="shared" si="3"/>
         <v>1560</v>
@@ -6047,7 +6072,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="154" spans="1:6">
+    <row r="154" spans="1:7">
       <c r="A154">
         <f t="shared" si="3"/>
         <v>1588</v>
@@ -6065,7 +6090,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="155" spans="1:6">
+    <row r="155" spans="1:7">
       <c r="A155">
         <f t="shared" si="3"/>
         <v>1597</v>
@@ -6083,7 +6108,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="156" spans="1:6">
+    <row r="156" spans="1:7">
       <c r="A156">
         <f t="shared" si="3"/>
         <v>1625</v>
@@ -6100,8 +6125,11 @@
       <c r="E156" t="s">
         <v>727</v>
       </c>
-    </row>
-    <row r="157" spans="1:6">
+      <c r="G156" s="68" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7">
       <c r="A157">
         <f t="shared" si="3"/>
         <v>1653</v>
@@ -6119,7 +6147,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="158" spans="1:6">
+    <row r="158" spans="1:7">
       <c r="A158">
         <f t="shared" si="3"/>
         <v>1681</v>
@@ -6134,7 +6162,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="159" spans="1:6">
+    <row r="159" spans="1:7">
       <c r="A159">
         <f t="shared" si="3"/>
         <v>1731</v>
@@ -6152,7 +6180,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="160" spans="1:6">
+    <row r="160" spans="1:7">
       <c r="A160">
         <f t="shared" si="3"/>
         <v>1733</v>
@@ -7226,7 +7254,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="225" spans="1:6">
+    <row r="225" spans="1:7">
       <c r="A225">
         <f t="shared" ref="A225:A230" si="6">A224+B224</f>
         <v>4062</v>
@@ -7241,7 +7269,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="226" spans="1:6">
+    <row r="226" spans="1:7">
       <c r="A226">
         <f t="shared" si="6"/>
         <v>4072</v>
@@ -7259,7 +7287,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="227" spans="1:6">
+    <row r="227" spans="1:7">
       <c r="A227">
         <f t="shared" si="6"/>
         <v>4082</v>
@@ -7274,7 +7302,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="228" spans="1:6">
+    <row r="228" spans="1:7">
       <c r="A228">
         <f t="shared" si="6"/>
         <v>4110</v>
@@ -7289,7 +7317,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="229" spans="1:6">
+    <row r="229" spans="1:7">
       <c r="A229">
         <f t="shared" si="6"/>
         <v>4120</v>
@@ -7307,7 +7335,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="230" spans="1:6">
+    <row r="230" spans="1:7">
       <c r="A230">
         <f t="shared" si="6"/>
         <v>4130</v>
@@ -7322,7 +7350,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="231" spans="1:6">
+    <row r="231" spans="1:7">
       <c r="A231">
         <v>4137</v>
       </c>
@@ -7336,7 +7364,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="232" spans="1:6">
+    <row r="232" spans="1:7">
       <c r="A232">
         <v>4187</v>
       </c>
@@ -7350,7 +7378,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="233" spans="1:6">
+    <row r="233" spans="1:7">
       <c r="A233">
         <v>4215</v>
       </c>
@@ -7364,7 +7392,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="234" spans="1:6">
+    <row r="234" spans="1:7">
       <c r="A234">
         <v>4217</v>
       </c>
@@ -7378,7 +7406,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="235" spans="1:6">
+    <row r="235" spans="1:7">
       <c r="A235">
         <v>4245</v>
       </c>
@@ -7392,7 +7420,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="236" spans="1:6">
+    <row r="236" spans="1:7">
       <c r="A236">
         <v>4254</v>
       </c>
@@ -7409,7 +7437,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="237" spans="1:6">
+    <row r="237" spans="1:7">
       <c r="A237">
         <v>4262</v>
       </c>
@@ -7426,7 +7454,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="238" spans="1:6">
+    <row r="238" spans="1:7">
       <c r="A238">
         <v>4270</v>
       </c>
@@ -7443,7 +7471,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="239" spans="1:6">
+    <row r="239" spans="1:7">
       <c r="A239">
         <v>4298</v>
       </c>
@@ -7459,8 +7487,11 @@
       <c r="E239" t="s">
         <v>727</v>
       </c>
-    </row>
-    <row r="240" spans="1:6">
+      <c r="G239" s="68" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7">
       <c r="A240">
         <f>A239+B239</f>
         <v>4326</v>
@@ -7488,7 +7519,7 @@
       <c r="C241" t="s">
         <v>555</v>
       </c>
-      <c r="D241" t="s">
+      <c r="D241" s="68" t="s">
         <v>630</v>
       </c>
       <c r="F241" t="s">
@@ -7830,8 +7861,8 @@
   </sheetPr>
   <dimension ref="A1:L1048511"/>
   <sheetViews>
-    <sheetView topLeftCell="A138" zoomScaleNormal="100" zoomScaleSheetLayoutView="95" workbookViewId="0">
-      <selection activeCell="K147" sqref="K147"/>
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="95" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13"/>
@@ -7841,8 +7872,9 @@
     <col min="3" max="3" width="8.1640625" style="45" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="33.33203125" style="11" customWidth="1"/>
     <col min="5" max="5" width="19.5" style="11" customWidth="1"/>
-    <col min="6" max="6" width="24.1640625" style="11" customWidth="1"/>
-    <col min="7" max="8" width="13" style="7" customWidth="1"/>
+    <col min="6" max="6" width="29.5" style="11" customWidth="1"/>
+    <col min="7" max="7" width="31.1640625" style="7" customWidth="1"/>
+    <col min="8" max="8" width="13" style="7" customWidth="1"/>
     <col min="9" max="9" width="9" style="7" customWidth="1"/>
     <col min="10" max="10" width="15.5" style="7" customWidth="1"/>
     <col min="11" max="11" width="30.6640625" style="10" customWidth="1"/>
@@ -9800,7 +9832,7 @@
       <c r="C68" s="6">
         <v>3</v>
       </c>
-      <c r="D68" s="68" t="s">
+      <c r="D68" s="69" t="s">
         <v>168</v>
       </c>
       <c r="E68" s="8" t="s">
@@ -9831,7 +9863,7 @@
       <c r="C69" s="6">
         <v>3</v>
       </c>
-      <c r="D69" s="68"/>
+      <c r="D69" s="69"/>
       <c r="E69" s="8" t="s">
         <v>171</v>
       </c>
@@ -9860,7 +9892,7 @@
       <c r="C70" s="6">
         <v>3</v>
       </c>
-      <c r="D70" s="68"/>
+      <c r="D70" s="69"/>
       <c r="E70" s="8" t="s">
         <v>173</v>
       </c>
@@ -9889,7 +9921,7 @@
       <c r="C71" s="6">
         <v>3</v>
       </c>
-      <c r="D71" s="68"/>
+      <c r="D71" s="69"/>
       <c r="E71" s="8" t="s">
         <v>174</v>
       </c>
@@ -9918,7 +9950,7 @@
       <c r="C72" s="6">
         <v>3</v>
       </c>
-      <c r="D72" s="68"/>
+      <c r="D72" s="69"/>
       <c r="E72" s="8" t="s">
         <v>175</v>
       </c>
@@ -9947,7 +9979,7 @@
       <c r="C73" s="6">
         <v>3</v>
       </c>
-      <c r="D73" s="68"/>
+      <c r="D73" s="69"/>
       <c r="E73" s="8" t="s">
         <v>176</v>
       </c>
@@ -9976,7 +10008,7 @@
       <c r="C74" s="6">
         <v>3</v>
       </c>
-      <c r="D74" s="68"/>
+      <c r="D74" s="69"/>
       <c r="E74" s="8" t="s">
         <v>177</v>
       </c>
@@ -10005,7 +10037,7 @@
       <c r="C75" s="6">
         <v>3</v>
       </c>
-      <c r="D75" s="68"/>
+      <c r="D75" s="69"/>
       <c r="E75" s="8" t="s">
         <v>178</v>
       </c>
@@ -10034,7 +10066,7 @@
       <c r="C76" s="6">
         <v>3</v>
       </c>
-      <c r="D76" s="68"/>
+      <c r="D76" s="69"/>
       <c r="E76" s="8" t="s">
         <v>179</v>
       </c>
@@ -10063,7 +10095,7 @@
       <c r="C77" s="6">
         <v>3</v>
       </c>
-      <c r="D77" s="68"/>
+      <c r="D77" s="69"/>
       <c r="E77" s="8" t="s">
         <v>180</v>
       </c>
@@ -10092,7 +10124,7 @@
       <c r="C78" s="6">
         <v>3</v>
       </c>
-      <c r="D78" s="68"/>
+      <c r="D78" s="69"/>
       <c r="E78" s="8" t="s">
         <v>181</v>
       </c>
@@ -10121,7 +10153,7 @@
       <c r="C79" s="6">
         <v>3</v>
       </c>
-      <c r="D79" s="68"/>
+      <c r="D79" s="69"/>
       <c r="E79" s="8" t="s">
         <v>182</v>
       </c>
@@ -10150,7 +10182,7 @@
       <c r="C80" s="6">
         <v>3</v>
       </c>
-      <c r="D80" s="68"/>
+      <c r="D80" s="69"/>
       <c r="E80" s="8" t="s">
         <v>183</v>
       </c>
@@ -10179,7 +10211,7 @@
       <c r="C81" s="6">
         <v>3</v>
       </c>
-      <c r="D81" s="68"/>
+      <c r="D81" s="69"/>
       <c r="E81" s="8" t="s">
         <v>184</v>
       </c>
@@ -10208,7 +10240,7 @@
       <c r="C82" s="6">
         <v>3</v>
       </c>
-      <c r="D82" s="68"/>
+      <c r="D82" s="69"/>
       <c r="E82" s="8" t="s">
         <v>185</v>
       </c>
@@ -10237,7 +10269,7 @@
       <c r="C83" s="6">
         <v>3</v>
       </c>
-      <c r="D83" s="68"/>
+      <c r="D83" s="69"/>
       <c r="E83" s="8" t="s">
         <v>186</v>
       </c>
@@ -10798,7 +10830,7 @@
       <c r="F101" s="22" t="s">
         <v>685</v>
       </c>
-      <c r="G101" s="69" t="s">
+      <c r="G101" s="70" t="s">
         <v>227</v>
       </c>
       <c r="H101" s="20" t="s">
@@ -10829,7 +10861,7 @@
       <c r="F102" s="11" t="s">
         <v>630</v>
       </c>
-      <c r="G102" s="69"/>
+      <c r="G102" s="70"/>
       <c r="H102" s="33"/>
       <c r="I102" s="7" t="s">
         <v>706</v>
@@ -10861,7 +10893,7 @@
       <c r="F103" s="11" t="s">
         <v>630</v>
       </c>
-      <c r="G103" s="69"/>
+      <c r="G103" s="70"/>
       <c r="H103" s="33"/>
       <c r="I103" s="7" t="s">
         <v>706</v>
@@ -10892,7 +10924,7 @@
       <c r="F104" s="22" t="s">
         <v>686</v>
       </c>
-      <c r="G104" s="69"/>
+      <c r="G104" s="70"/>
       <c r="H104" s="20" t="s">
         <v>727</v>
       </c>
@@ -10923,7 +10955,7 @@
       <c r="F105" s="1" t="s">
         <v>713</v>
       </c>
-      <c r="G105" s="69"/>
+      <c r="G105" s="70"/>
       <c r="H105" s="20" t="s">
         <v>727</v>
       </c>
@@ -10952,7 +10984,7 @@
       <c r="F106" s="11" t="s">
         <v>630</v>
       </c>
-      <c r="G106" s="69"/>
+      <c r="G106" s="70"/>
       <c r="H106" s="33"/>
       <c r="I106" s="33" t="s">
         <v>706</v>
@@ -10983,7 +11015,7 @@
       <c r="F107" s="11" t="s">
         <v>630</v>
       </c>
-      <c r="G107" s="69"/>
+      <c r="G107" s="70"/>
       <c r="H107" s="33"/>
       <c r="I107" s="33" t="s">
         <v>706</v>
@@ -11014,7 +11046,7 @@
       <c r="F108" s="11" t="s">
         <v>630</v>
       </c>
-      <c r="G108" s="69"/>
+      <c r="G108" s="70"/>
       <c r="H108" s="33"/>
       <c r="I108" s="33" t="s">
         <v>706</v>
@@ -11045,7 +11077,7 @@
       <c r="F109" s="11" t="s">
         <v>707</v>
       </c>
-      <c r="G109" s="69"/>
+      <c r="G109" s="70"/>
       <c r="H109" s="20" t="s">
         <v>727</v>
       </c>
@@ -11076,7 +11108,7 @@
       <c r="F110" s="22" t="s">
         <v>689</v>
       </c>
-      <c r="G110" s="69"/>
+      <c r="G110" s="70"/>
       <c r="H110" s="20" t="s">
         <v>727</v>
       </c>
@@ -11105,7 +11137,7 @@
       <c r="F111" s="22" t="s">
         <v>690</v>
       </c>
-      <c r="G111" s="69"/>
+      <c r="G111" s="70"/>
       <c r="H111" s="20" t="s">
         <v>727</v>
       </c>
@@ -11134,7 +11166,7 @@
       <c r="F112" s="22" t="s">
         <v>691</v>
       </c>
-      <c r="G112" s="69"/>
+      <c r="G112" s="70"/>
       <c r="H112" s="20" t="s">
         <v>727</v>
       </c>
@@ -11163,7 +11195,7 @@
       <c r="F113" s="22" t="s">
         <v>692</v>
       </c>
-      <c r="G113" s="69"/>
+      <c r="G113" s="70"/>
       <c r="H113" s="20" t="s">
         <v>727</v>
       </c>
@@ -11192,7 +11224,7 @@
       <c r="F114" s="64" t="s">
         <v>630</v>
       </c>
-      <c r="G114" s="69"/>
+      <c r="G114" s="70"/>
       <c r="H114" s="33"/>
       <c r="I114" s="33" t="s">
         <v>706</v>
@@ -11221,7 +11253,7 @@
       <c r="F115" s="22" t="s">
         <v>693</v>
       </c>
-      <c r="G115" s="69"/>
+      <c r="G115" s="70"/>
       <c r="H115" s="20" t="s">
         <v>727</v>
       </c>
@@ -11250,7 +11282,7 @@
       <c r="F116" s="22" t="s">
         <v>694</v>
       </c>
-      <c r="G116" s="69"/>
+      <c r="G116" s="70"/>
       <c r="H116" s="20" t="s">
         <v>727</v>
       </c>
@@ -11279,7 +11311,7 @@
       <c r="F117" s="22" t="s">
         <v>630</v>
       </c>
-      <c r="G117" s="69"/>
+      <c r="G117" s="70"/>
       <c r="H117" s="20"/>
       <c r="I117" s="33">
         <v>2022</v>
@@ -11310,7 +11342,7 @@
       <c r="F118" s="22" t="s">
         <v>695</v>
       </c>
-      <c r="G118" s="69"/>
+      <c r="G118" s="70"/>
       <c r="H118" s="20" t="s">
         <v>727</v>
       </c>
@@ -11339,7 +11371,7 @@
       <c r="F119" s="22" t="s">
         <v>262</v>
       </c>
-      <c r="G119" s="69"/>
+      <c r="G119" s="70"/>
       <c r="H119" s="20" t="s">
         <v>727</v>
       </c>
@@ -11368,7 +11400,7 @@
       <c r="F120" s="22" t="s">
         <v>696</v>
       </c>
-      <c r="G120" s="69"/>
+      <c r="G120" s="70"/>
       <c r="H120" s="20" t="s">
         <v>727</v>
       </c>
@@ -11397,7 +11429,7 @@
       <c r="F121" s="64" t="s">
         <v>630</v>
       </c>
-      <c r="G121" s="69"/>
+      <c r="G121" s="70"/>
       <c r="H121" s="33"/>
       <c r="I121" s="33" t="s">
         <v>706</v>
@@ -11427,7 +11459,7 @@
       <c r="F122" s="64" t="s">
         <v>630</v>
       </c>
-      <c r="G122" s="69"/>
+      <c r="G122" s="70"/>
       <c r="H122" s="33"/>
       <c r="I122" s="33" t="s">
         <v>706</v>
@@ -12400,9 +12432,7 @@
       <c r="E156" s="21" t="s">
         <v>352</v>
       </c>
-      <c r="F156" s="1" t="s">
-        <v>642</v>
-      </c>
+      <c r="F156" s="1"/>
       <c r="G156" s="20" t="s">
         <v>310</v>
       </c>
@@ -14732,7 +14762,7 @@
         <v>555</v>
       </c>
       <c r="F241" s="11" t="s">
-        <v>630</v>
+        <v>727</v>
       </c>
       <c r="G241" s="7" t="s">
         <v>556</v>
@@ -15312,26 +15342,10 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="b5a44311-ed64-4a72-909f-c9dc6973bde2" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="c1a58edb-1ba6-4800-9942-1e1defaa36d6">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101002752A2C1F044FE469AAF2142AB326B8C" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="3d8a0f530da2fdbe2e55626e9ad23fb0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="c1a58edb-1ba6-4800-9942-1e1defaa36d6" xmlns:ns3="4b113022-9134-4b2e-abe8-26e86c9e296e" xmlns:ns4="b5a44311-ed64-4a72-909f-c9dc6973bde2" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d278552e3c3a0a08e9db34919b560943" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="c1a58edb-1ba6-4800-9942-1e1defaa36d6"/>
@@ -15553,30 +15567,35 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="b5a44311-ed64-4a72-909f-c9dc6973bde2" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="c1a58edb-1ba6-4800-9942-1e1defaa36d6">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{370C49E3-78D0-405B-AC39-DEC8FE68C756}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F6E1C13E-614F-4B48-A9FE-F6158F0F568F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="b5a44311-ed64-4a72-909f-c9dc6973bde2"/>
-    <ds:schemaRef ds:uri="c1a58edb-1ba6-4800-9942-1e1defaa36d6"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A2D8D0BD-9993-4EC8-86D1-0A7C5F6E1934}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8C0A455F-891F-4D48-ABA8-1B564ACEA7DD}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -15596,10 +15615,21 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A2D8D0BD-9993-4EC8-86D1-0A7C5F6E1934}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F6E1C13E-614F-4B48-A9FE-F6158F0F568F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{370C49E3-78D0-405B-AC39-DEC8FE68C756}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="b5a44311-ed64-4a72-909f-c9dc6973bde2"/>
+    <ds:schemaRef ds:uri="c1a58edb-1ba6-4800-9942-1e1defaa36d6"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/tools/IJE_File_Layouts_Tabular_Input_Mapping_Version_2021.xlsx
+++ b/tools/IJE_File_Layouts_Tabular_Input_Mapping_Version_2021.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rscalfani/Documents/code/NVSS/vrdr-dotnet/tools/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C458F75-F412-3245-9CDD-2129125E0949}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A281594E-EE57-C946-A648-86809F3FEF36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="480" windowWidth="51200" windowHeight="28320" tabRatio="779" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="25600" yWindow="500" windowWidth="25600" windowHeight="28300" tabRatio="779" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mortality_Trim_mappings" sheetId="2" r:id="rId1"/>
@@ -18,6 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Mortality_Full_Details!$A$1:$K$260</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Mortality_Trim_mappings!$A$1:$G$260</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">Mortality_Full_Details!$A$1:$G$260</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Mortality_Full_Details!$1:$1</definedName>
     <definedName name="Z_F1069C25_F3CC_400B_8C16_E88E31027CCC_.wvu.FilterData" localSheetId="1" hidden="1">Mortality_Full_Details!$B$2:$Q$260</definedName>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1980" uniqueCount="753">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1984" uniqueCount="761">
   <si>
     <t>Field #</t>
   </si>
@@ -2639,6 +2640,30 @@
   </si>
   <si>
     <t>toi_unit_modifier</t>
+  </si>
+  <si>
+    <t>Certifier Not Found</t>
+  </si>
+  <si>
+    <t>county_code_to_name</t>
+  </si>
+  <si>
+    <t>Date Received</t>
+  </si>
+  <si>
+    <t>extract_month</t>
+  </si>
+  <si>
+    <t>extract_day</t>
+  </si>
+  <si>
+    <t>reuse_certstatecd</t>
+  </si>
+  <si>
+    <t>reuse_funstatecd</t>
+  </si>
+  <si>
+    <t>capitalize_first_letter</t>
   </si>
 </sst>
 </file>
@@ -2969,13 +2994,13 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="45" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3323,8 +3348,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD74E696-0F05-DF43-9EB9-28DAB6A6F493}">
   <dimension ref="A1:G260"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="G127" sqref="G127"/>
+    <sheetView tabSelected="1" topLeftCell="A93" workbookViewId="0">
+      <selection activeCell="G138" sqref="G138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -5067,7 +5092,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="97" spans="1:6">
+    <row r="97" spans="1:7">
       <c r="A97">
         <f t="shared" si="1"/>
         <v>689</v>
@@ -5085,7 +5110,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="98" spans="1:6">
+    <row r="98" spans="1:7">
       <c r="A98">
         <f t="shared" si="1"/>
         <v>693</v>
@@ -5097,13 +5122,16 @@
         <v>219</v>
       </c>
       <c r="D98" t="s">
-        <v>630</v>
-      </c>
-      <c r="F98" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
+        <v>755</v>
+      </c>
+      <c r="E98" s="68" t="s">
+        <v>727</v>
+      </c>
+      <c r="G98" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99">
         <f t="shared" si="1"/>
         <v>695</v>
@@ -5115,13 +5143,16 @@
         <v>222</v>
       </c>
       <c r="D99" t="s">
-        <v>630</v>
-      </c>
-      <c r="F99" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6">
+        <v>755</v>
+      </c>
+      <c r="E99" s="68" t="s">
+        <v>727</v>
+      </c>
+      <c r="G99" s="68" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100">
         <f t="shared" si="1"/>
         <v>697</v>
@@ -5139,7 +5170,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="101" spans="1:6">
+    <row r="101" spans="1:7">
       <c r="A101">
         <v>701</v>
       </c>
@@ -5156,7 +5187,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="102" spans="1:6">
+    <row r="102" spans="1:7">
       <c r="A102">
         <f>A101+B101</f>
         <v>702</v>
@@ -5174,7 +5205,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="103" spans="1:6">
+    <row r="103" spans="1:7">
       <c r="A103">
         <f t="shared" ref="A103:A126" si="2">A102+B102</f>
         <v>703</v>
@@ -5192,7 +5223,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="104" spans="1:6">
+    <row r="104" spans="1:7">
       <c r="A104">
         <f t="shared" si="2"/>
         <v>704</v>
@@ -5210,7 +5241,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="105" spans="1:6">
+    <row r="105" spans="1:7">
       <c r="A105">
         <f t="shared" si="2"/>
         <v>705</v>
@@ -5228,7 +5259,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="106" spans="1:6">
+    <row r="106" spans="1:7">
       <c r="A106">
         <f t="shared" si="2"/>
         <v>710</v>
@@ -5246,7 +5277,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="107" spans="1:6">
+    <row r="107" spans="1:7">
       <c r="A107">
         <f t="shared" si="2"/>
         <v>715</v>
@@ -5264,7 +5295,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="108" spans="1:6">
+    <row r="108" spans="1:7">
       <c r="A108">
         <f t="shared" si="2"/>
         <v>875</v>
@@ -5282,7 +5313,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="109" spans="1:6">
+    <row r="109" spans="1:7">
       <c r="A109">
         <f t="shared" si="2"/>
         <v>876</v>
@@ -5300,7 +5331,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="110" spans="1:6">
+    <row r="110" spans="1:7">
       <c r="A110">
         <f t="shared" si="2"/>
         <v>976</v>
@@ -5318,7 +5349,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="111" spans="1:6">
+    <row r="111" spans="1:7">
       <c r="A111">
         <f t="shared" si="2"/>
         <v>977</v>
@@ -5336,7 +5367,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="112" spans="1:6">
+    <row r="112" spans="1:7">
       <c r="A112">
         <f t="shared" si="2"/>
         <v>978</v>
@@ -5491,11 +5522,11 @@
       <c r="C120" t="s">
         <v>265</v>
       </c>
-      <c r="D120" t="s">
-        <v>696</v>
-      </c>
-      <c r="E120" t="s">
-        <v>727</v>
+      <c r="D120" s="68" t="s">
+        <v>630</v>
+      </c>
+      <c r="F120" s="68" t="s">
+        <v>753</v>
       </c>
     </row>
     <row r="121" spans="1:7">
@@ -5616,7 +5647,7 @@
       <c r="C127" s="68" t="s">
         <v>282</v>
       </c>
-      <c r="D127" s="71" t="s">
+      <c r="D127" s="69" t="s">
         <v>750</v>
       </c>
       <c r="E127" s="68" t="s">
@@ -5643,7 +5674,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="129" spans="1:6">
+    <row r="129" spans="1:7">
       <c r="A129">
         <f>A128+B128</f>
         <v>1081</v>
@@ -5661,7 +5692,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="130" spans="1:6">
+    <row r="130" spans="1:7">
       <c r="A130">
         <f t="shared" ref="A130:A185" si="3">A129+B129</f>
         <v>1082</v>
@@ -5679,7 +5710,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="131" spans="1:6">
+    <row r="131" spans="1:7">
       <c r="A131">
         <f t="shared" si="3"/>
         <v>1112</v>
@@ -5697,7 +5728,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="132" spans="1:6">
+    <row r="132" spans="1:7">
       <c r="A132">
         <f t="shared" si="3"/>
         <v>1162</v>
@@ -5715,7 +5746,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="133" spans="1:6">
+    <row r="133" spans="1:7">
       <c r="A133">
         <f t="shared" si="3"/>
         <v>1172</v>
@@ -5733,7 +5764,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="134" spans="1:6">
+    <row r="134" spans="1:7">
       <c r="A134">
         <f t="shared" si="3"/>
         <v>1182</v>
@@ -5751,7 +5782,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="135" spans="1:6">
+    <row r="135" spans="1:7">
       <c r="A135">
         <f t="shared" si="3"/>
         <v>1232</v>
@@ -5769,7 +5800,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="136" spans="1:6">
+    <row r="136" spans="1:7">
       <c r="A136">
         <f t="shared" si="3"/>
         <v>1242</v>
@@ -5787,7 +5818,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="137" spans="1:6">
+    <row r="137" spans="1:7">
       <c r="A137">
         <f t="shared" si="3"/>
         <v>1252</v>
@@ -5805,7 +5836,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="138" spans="1:6">
+    <row r="138" spans="1:7">
       <c r="A138">
         <f t="shared" si="3"/>
         <v>1280</v>
@@ -5822,8 +5853,11 @@
       <c r="E138" t="s">
         <v>727</v>
       </c>
-    </row>
-    <row r="139" spans="1:6">
+      <c r="G138" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7">
       <c r="A139">
         <f t="shared" si="3"/>
         <v>1308</v>
@@ -5841,7 +5875,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="140" spans="1:6">
+    <row r="140" spans="1:7">
       <c r="A140">
         <f t="shared" si="3"/>
         <v>1317</v>
@@ -5859,7 +5893,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="141" spans="1:6">
+    <row r="141" spans="1:7">
       <c r="A141">
         <f t="shared" si="3"/>
         <v>1345</v>
@@ -5877,7 +5911,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="142" spans="1:6">
+    <row r="142" spans="1:7">
       <c r="A142">
         <f t="shared" si="3"/>
         <v>1350</v>
@@ -5895,7 +5929,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="143" spans="1:6">
+    <row r="143" spans="1:7">
       <c r="A143">
         <f t="shared" si="3"/>
         <v>1367</v>
@@ -5913,7 +5947,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="144" spans="1:6">
+    <row r="144" spans="1:7">
       <c r="A144">
         <f t="shared" si="3"/>
         <v>1384</v>
@@ -6102,10 +6136,13 @@
         <v>350</v>
       </c>
       <c r="D155" t="s">
-        <v>719</v>
+        <v>641</v>
       </c>
       <c r="E155" t="s">
         <v>727</v>
+      </c>
+      <c r="G155" s="68" t="s">
+        <v>754</v>
       </c>
     </row>
     <row r="156" spans="1:7">
@@ -7013,7 +7050,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="209" spans="1:6">
+    <row r="209" spans="1:7">
       <c r="A209">
         <f t="shared" si="5"/>
         <v>3708</v>
@@ -7031,7 +7068,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="210" spans="1:6">
+    <row r="210" spans="1:7">
       <c r="A210">
         <f t="shared" si="5"/>
         <v>3718</v>
@@ -7046,7 +7083,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="211" spans="1:6">
+    <row r="211" spans="1:7">
       <c r="A211">
         <f t="shared" si="5"/>
         <v>3746</v>
@@ -7061,7 +7098,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="212" spans="1:6">
+    <row r="212" spans="1:7">
       <c r="A212">
         <f t="shared" si="5"/>
         <v>3756</v>
@@ -7079,7 +7116,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="213" spans="1:6">
+    <row r="213" spans="1:7">
       <c r="A213">
         <f t="shared" si="5"/>
         <v>3766</v>
@@ -7094,7 +7131,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="214" spans="1:6">
+    <row r="214" spans="1:7">
       <c r="A214">
         <v>3773</v>
       </c>
@@ -7108,7 +7145,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="215" spans="1:6">
+    <row r="215" spans="1:7">
       <c r="A215">
         <v>3823</v>
       </c>
@@ -7122,7 +7159,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="216" spans="1:6">
+    <row r="216" spans="1:7">
       <c r="A216">
         <v>3851</v>
       </c>
@@ -7136,7 +7173,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="217" spans="1:6">
+    <row r="217" spans="1:7">
       <c r="A217">
         <v>3853</v>
       </c>
@@ -7146,11 +7183,11 @@
       <c r="C217" t="s">
         <v>500</v>
       </c>
-      <c r="D217" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="218" spans="1:6">
+      <c r="G217" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7">
       <c r="A218">
         <v>3881</v>
       </c>
@@ -7164,7 +7201,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="219" spans="1:6">
+    <row r="219" spans="1:7">
       <c r="A219">
         <v>3890</v>
       </c>
@@ -7181,7 +7218,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="220" spans="1:6">
+    <row r="220" spans="1:7">
       <c r="A220">
         <v>3898</v>
       </c>
@@ -7198,7 +7235,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="221" spans="1:6">
+    <row r="221" spans="1:7">
       <c r="A221">
         <v>3902</v>
       </c>
@@ -7212,7 +7249,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="222" spans="1:6">
+    <row r="222" spans="1:7">
       <c r="A222">
         <v>3952</v>
       </c>
@@ -7226,7 +7263,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="223" spans="1:6">
+    <row r="223" spans="1:7">
       <c r="A223">
         <v>4002</v>
       </c>
@@ -7240,7 +7277,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="224" spans="1:6">
+    <row r="224" spans="1:7">
       <c r="A224">
         <v>4052</v>
       </c>
@@ -7402,8 +7439,9 @@
       <c r="C234" t="s">
         <v>538</v>
       </c>
-      <c r="D234" t="s">
-        <v>717</v>
+      <c r="D234" s="68"/>
+      <c r="G234" s="68" t="s">
+        <v>758</v>
       </c>
     </row>
     <row r="235" spans="1:7">
@@ -7505,8 +7543,8 @@
       <c r="D240" t="s">
         <v>630</v>
       </c>
-      <c r="F240" t="s">
-        <v>706</v>
+      <c r="F240" s="68" t="s">
+        <v>702</v>
       </c>
     </row>
     <row r="241" spans="1:6">
@@ -7522,8 +7560,8 @@
       <c r="D241" s="68" t="s">
         <v>630</v>
       </c>
-      <c r="F241" t="s">
-        <v>706</v>
+      <c r="F241" s="68" t="s">
+        <v>721</v>
       </c>
     </row>
     <row r="242" spans="1:6">
@@ -7982,7 +8020,7 @@
       <c r="K3" s="13"/>
       <c r="L3" s="7"/>
     </row>
-    <row r="4" spans="1:12" ht="42">
+    <row r="4" spans="1:12" ht="14">
       <c r="A4" s="5">
         <f t="shared" ref="A4:A67" si="0">A3+1</f>
         <v>3</v>
@@ -8010,7 +8048,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="56">
+    <row r="5" spans="1:12" ht="28">
       <c r="A5" s="5">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -8041,7 +8079,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="56">
+    <row r="6" spans="1:12" ht="28">
       <c r="A6" s="5">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -8069,7 +8107,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="84">
+    <row r="7" spans="1:12" ht="42">
       <c r="A7" s="5">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -8150,7 +8188,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="28">
+    <row r="10" spans="1:12" ht="14">
       <c r="A10" s="5">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -8203,7 +8241,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="56">
+    <row r="12" spans="1:12" ht="28">
       <c r="A12" s="5">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -8287,7 +8325,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="70">
+    <row r="15" spans="1:12" ht="42">
       <c r="A15" s="5">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -8318,7 +8356,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="56">
+    <row r="16" spans="1:12" ht="28">
       <c r="A16" s="5">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -8346,7 +8384,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="112">
+    <row r="17" spans="1:12" ht="84">
       <c r="A17" s="5">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -8374,7 +8412,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="266">
+    <row r="18" spans="1:12" ht="168">
       <c r="A18" s="5">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -8402,7 +8440,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="70">
+    <row r="19" spans="1:12" ht="42">
       <c r="A19" s="5">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -8433,7 +8471,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="42">
+    <row r="20" spans="1:12" ht="14">
       <c r="A20" s="5">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -8489,7 +8527,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="28">
+    <row r="22" spans="1:12" ht="14">
       <c r="A22" s="5">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -8517,7 +8555,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="42">
+    <row r="23" spans="1:12" ht="14">
       <c r="A23" s="5">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -8579,7 +8617,7 @@
       <c r="J24" s="12"/>
       <c r="K24" s="13"/>
     </row>
-    <row r="25" spans="1:12" ht="42">
+    <row r="25" spans="1:12" ht="14">
       <c r="A25" s="5">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -8607,7 +8645,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="42">
+    <row r="26" spans="1:12" ht="14">
       <c r="A26" s="5">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -8726,7 +8764,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="126">
+    <row r="30" spans="1:12" ht="84">
       <c r="A30" s="5">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -8754,7 +8792,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="140">
+    <row r="31" spans="1:12" ht="84">
       <c r="A31" s="5">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -8813,7 +8851,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="140">
+    <row r="33" spans="1:11" ht="56">
       <c r="A33" s="5">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -8844,7 +8882,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="34" spans="1:11" ht="126">
+    <row r="34" spans="1:11" ht="98">
       <c r="A34" s="5">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -8900,7 +8938,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="36" spans="1:11" ht="28">
+    <row r="36" spans="1:11" ht="14">
       <c r="A36" s="5">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -8990,7 +9028,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="39" spans="1:11" ht="182">
+    <row r="39" spans="1:11" ht="98">
       <c r="A39" s="5">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -9021,7 +9059,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="40" spans="1:11" ht="70">
+    <row r="40" spans="1:11" ht="42">
       <c r="A40" s="5">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -9052,7 +9090,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="41" spans="1:11" ht="70">
+    <row r="41" spans="1:11" ht="42">
       <c r="A41" s="5">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -9083,7 +9121,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="42" spans="1:11" ht="70">
+    <row r="42" spans="1:11" ht="42">
       <c r="A42" s="5">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -9114,7 +9152,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="43" spans="1:11" ht="70">
+    <row r="43" spans="1:11" ht="42">
       <c r="A43" s="5">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -9176,7 +9214,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="45" spans="1:11" ht="84">
+    <row r="45" spans="1:11" ht="28">
       <c r="A45" s="5">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -9820,7 +9858,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="68" spans="1:11" ht="70">
+    <row r="68" spans="1:11" ht="42">
       <c r="A68" s="5">
         <f t="shared" ref="A68:A100" si="2">A67+1</f>
         <v>67</v>
@@ -9832,7 +9870,7 @@
       <c r="C68" s="6">
         <v>3</v>
       </c>
-      <c r="D68" s="69" t="s">
+      <c r="D68" s="70" t="s">
         <v>168</v>
       </c>
       <c r="E68" s="8" t="s">
@@ -9863,7 +9901,7 @@
       <c r="C69" s="6">
         <v>3</v>
       </c>
-      <c r="D69" s="69"/>
+      <c r="D69" s="70"/>
       <c r="E69" s="8" t="s">
         <v>171</v>
       </c>
@@ -9892,7 +9930,7 @@
       <c r="C70" s="6">
         <v>3</v>
       </c>
-      <c r="D70" s="69"/>
+      <c r="D70" s="70"/>
       <c r="E70" s="8" t="s">
         <v>173</v>
       </c>
@@ -9921,7 +9959,7 @@
       <c r="C71" s="6">
         <v>3</v>
       </c>
-      <c r="D71" s="69"/>
+      <c r="D71" s="70"/>
       <c r="E71" s="8" t="s">
         <v>174</v>
       </c>
@@ -9950,7 +9988,7 @@
       <c r="C72" s="6">
         <v>3</v>
       </c>
-      <c r="D72" s="69"/>
+      <c r="D72" s="70"/>
       <c r="E72" s="8" t="s">
         <v>175</v>
       </c>
@@ -9979,7 +10017,7 @@
       <c r="C73" s="6">
         <v>3</v>
       </c>
-      <c r="D73" s="69"/>
+      <c r="D73" s="70"/>
       <c r="E73" s="8" t="s">
         <v>176</v>
       </c>
@@ -10008,7 +10046,7 @@
       <c r="C74" s="6">
         <v>3</v>
       </c>
-      <c r="D74" s="69"/>
+      <c r="D74" s="70"/>
       <c r="E74" s="8" t="s">
         <v>177</v>
       </c>
@@ -10037,7 +10075,7 @@
       <c r="C75" s="6">
         <v>3</v>
       </c>
-      <c r="D75" s="69"/>
+      <c r="D75" s="70"/>
       <c r="E75" s="8" t="s">
         <v>178</v>
       </c>
@@ -10066,7 +10104,7 @@
       <c r="C76" s="6">
         <v>3</v>
       </c>
-      <c r="D76" s="69"/>
+      <c r="D76" s="70"/>
       <c r="E76" s="8" t="s">
         <v>179</v>
       </c>
@@ -10095,7 +10133,7 @@
       <c r="C77" s="6">
         <v>3</v>
       </c>
-      <c r="D77" s="69"/>
+      <c r="D77" s="70"/>
       <c r="E77" s="8" t="s">
         <v>180</v>
       </c>
@@ -10124,7 +10162,7 @@
       <c r="C78" s="6">
         <v>3</v>
       </c>
-      <c r="D78" s="69"/>
+      <c r="D78" s="70"/>
       <c r="E78" s="8" t="s">
         <v>181</v>
       </c>
@@ -10153,7 +10191,7 @@
       <c r="C79" s="6">
         <v>3</v>
       </c>
-      <c r="D79" s="69"/>
+      <c r="D79" s="70"/>
       <c r="E79" s="8" t="s">
         <v>182</v>
       </c>
@@ -10182,7 +10220,7 @@
       <c r="C80" s="6">
         <v>3</v>
       </c>
-      <c r="D80" s="69"/>
+      <c r="D80" s="70"/>
       <c r="E80" s="8" t="s">
         <v>183</v>
       </c>
@@ -10211,7 +10249,7 @@
       <c r="C81" s="6">
         <v>3</v>
       </c>
-      <c r="D81" s="69"/>
+      <c r="D81" s="70"/>
       <c r="E81" s="8" t="s">
         <v>184</v>
       </c>
@@ -10240,7 +10278,7 @@
       <c r="C82" s="6">
         <v>3</v>
       </c>
-      <c r="D82" s="69"/>
+      <c r="D82" s="70"/>
       <c r="E82" s="8" t="s">
         <v>185</v>
       </c>
@@ -10269,7 +10307,7 @@
       <c r="C83" s="6">
         <v>3</v>
       </c>
-      <c r="D83" s="69"/>
+      <c r="D83" s="70"/>
       <c r="E83" s="8" t="s">
         <v>186</v>
       </c>
@@ -10286,7 +10324,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="84" spans="1:11" ht="70">
+    <row r="84" spans="1:11" ht="42">
       <c r="A84" s="5">
         <f t="shared" si="2"/>
         <v>83</v>
@@ -10346,7 +10384,7 @@
       <c r="J85" s="20"/>
       <c r="K85" s="23"/>
     </row>
-    <row r="86" spans="1:11" ht="182">
+    <row r="86" spans="1:11" ht="70">
       <c r="A86" s="5">
         <f t="shared" si="2"/>
         <v>85</v>
@@ -10406,7 +10444,7 @@
       <c r="J87" s="20"/>
       <c r="K87" s="23"/>
     </row>
-    <row r="88" spans="1:11" ht="182">
+    <row r="88" spans="1:11" ht="70">
       <c r="A88" s="5">
         <f t="shared" si="2"/>
         <v>87</v>
@@ -10439,7 +10477,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="89" spans="1:11" ht="56">
+    <row r="89" spans="1:11" ht="28">
       <c r="A89" s="5">
         <f t="shared" si="2"/>
         <v>88</v>
@@ -10470,7 +10508,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="90" spans="1:11" ht="98">
+    <row r="90" spans="1:11" ht="56">
       <c r="A90" s="5">
         <f t="shared" si="2"/>
         <v>89</v>
@@ -10529,7 +10567,7 @@
       <c r="J91" s="12"/>
       <c r="K91" s="13"/>
     </row>
-    <row r="92" spans="1:11" ht="42">
+    <row r="92" spans="1:11" ht="14">
       <c r="A92" s="5">
         <f t="shared" si="2"/>
         <v>91</v>
@@ -10689,7 +10727,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="97" spans="1:12" ht="154">
+    <row r="97" spans="1:12" ht="56">
       <c r="A97" s="5">
         <f t="shared" si="2"/>
         <v>96</v>
@@ -10748,7 +10786,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="99" spans="1:12" ht="42">
+    <row r="99" spans="1:12" ht="28">
       <c r="A99" s="5">
         <f t="shared" si="2"/>
         <v>98</v>
@@ -10830,7 +10868,7 @@
       <c r="F101" s="22" t="s">
         <v>685</v>
       </c>
-      <c r="G101" s="70" t="s">
+      <c r="G101" s="71" t="s">
         <v>227</v>
       </c>
       <c r="H101" s="20" t="s">
@@ -10861,7 +10899,7 @@
       <c r="F102" s="11" t="s">
         <v>630</v>
       </c>
-      <c r="G102" s="70"/>
+      <c r="G102" s="71"/>
       <c r="H102" s="33"/>
       <c r="I102" s="7" t="s">
         <v>706</v>
@@ -10893,7 +10931,7 @@
       <c r="F103" s="11" t="s">
         <v>630</v>
       </c>
-      <c r="G103" s="70"/>
+      <c r="G103" s="71"/>
       <c r="H103" s="33"/>
       <c r="I103" s="7" t="s">
         <v>706</v>
@@ -10924,7 +10962,7 @@
       <c r="F104" s="22" t="s">
         <v>686</v>
       </c>
-      <c r="G104" s="70"/>
+      <c r="G104" s="71"/>
       <c r="H104" s="20" t="s">
         <v>727</v>
       </c>
@@ -10955,7 +10993,7 @@
       <c r="F105" s="1" t="s">
         <v>713</v>
       </c>
-      <c r="G105" s="70"/>
+      <c r="G105" s="71"/>
       <c r="H105" s="20" t="s">
         <v>727</v>
       </c>
@@ -10984,7 +11022,7 @@
       <c r="F106" s="11" t="s">
         <v>630</v>
       </c>
-      <c r="G106" s="70"/>
+      <c r="G106" s="71"/>
       <c r="H106" s="33"/>
       <c r="I106" s="33" t="s">
         <v>706</v>
@@ -11015,7 +11053,7 @@
       <c r="F107" s="11" t="s">
         <v>630</v>
       </c>
-      <c r="G107" s="70"/>
+      <c r="G107" s="71"/>
       <c r="H107" s="33"/>
       <c r="I107" s="33" t="s">
         <v>706</v>
@@ -11046,7 +11084,7 @@
       <c r="F108" s="11" t="s">
         <v>630</v>
       </c>
-      <c r="G108" s="70"/>
+      <c r="G108" s="71"/>
       <c r="H108" s="33"/>
       <c r="I108" s="33" t="s">
         <v>706</v>
@@ -11077,7 +11115,7 @@
       <c r="F109" s="11" t="s">
         <v>707</v>
       </c>
-      <c r="G109" s="70"/>
+      <c r="G109" s="71"/>
       <c r="H109" s="20" t="s">
         <v>727</v>
       </c>
@@ -11108,7 +11146,7 @@
       <c r="F110" s="22" t="s">
         <v>689</v>
       </c>
-      <c r="G110" s="70"/>
+      <c r="G110" s="71"/>
       <c r="H110" s="20" t="s">
         <v>727</v>
       </c>
@@ -11137,7 +11175,7 @@
       <c r="F111" s="22" t="s">
         <v>690</v>
       </c>
-      <c r="G111" s="70"/>
+      <c r="G111" s="71"/>
       <c r="H111" s="20" t="s">
         <v>727</v>
       </c>
@@ -11166,7 +11204,7 @@
       <c r="F112" s="22" t="s">
         <v>691</v>
       </c>
-      <c r="G112" s="70"/>
+      <c r="G112" s="71"/>
       <c r="H112" s="20" t="s">
         <v>727</v>
       </c>
@@ -11195,7 +11233,7 @@
       <c r="F113" s="22" t="s">
         <v>692</v>
       </c>
-      <c r="G113" s="70"/>
+      <c r="G113" s="71"/>
       <c r="H113" s="20" t="s">
         <v>727</v>
       </c>
@@ -11224,7 +11262,7 @@
       <c r="F114" s="64" t="s">
         <v>630</v>
       </c>
-      <c r="G114" s="70"/>
+      <c r="G114" s="71"/>
       <c r="H114" s="33"/>
       <c r="I114" s="33" t="s">
         <v>706</v>
@@ -11253,7 +11291,7 @@
       <c r="F115" s="22" t="s">
         <v>693</v>
       </c>
-      <c r="G115" s="70"/>
+      <c r="G115" s="71"/>
       <c r="H115" s="20" t="s">
         <v>727</v>
       </c>
@@ -11282,7 +11320,7 @@
       <c r="F116" s="22" t="s">
         <v>694</v>
       </c>
-      <c r="G116" s="70"/>
+      <c r="G116" s="71"/>
       <c r="H116" s="20" t="s">
         <v>727</v>
       </c>
@@ -11311,7 +11349,7 @@
       <c r="F117" s="22" t="s">
         <v>630</v>
       </c>
-      <c r="G117" s="70"/>
+      <c r="G117" s="71"/>
       <c r="H117" s="20"/>
       <c r="I117" s="33">
         <v>2022</v>
@@ -11342,7 +11380,7 @@
       <c r="F118" s="22" t="s">
         <v>695</v>
       </c>
-      <c r="G118" s="70"/>
+      <c r="G118" s="71"/>
       <c r="H118" s="20" t="s">
         <v>727</v>
       </c>
@@ -11371,7 +11409,7 @@
       <c r="F119" s="22" t="s">
         <v>262</v>
       </c>
-      <c r="G119" s="70"/>
+      <c r="G119" s="71"/>
       <c r="H119" s="20" t="s">
         <v>727</v>
       </c>
@@ -11400,7 +11438,7 @@
       <c r="F120" s="22" t="s">
         <v>696</v>
       </c>
-      <c r="G120" s="70"/>
+      <c r="G120" s="71"/>
       <c r="H120" s="20" t="s">
         <v>727</v>
       </c>
@@ -11429,7 +11467,7 @@
       <c r="F121" s="64" t="s">
         <v>630</v>
       </c>
-      <c r="G121" s="70"/>
+      <c r="G121" s="71"/>
       <c r="H121" s="33"/>
       <c r="I121" s="33" t="s">
         <v>706</v>
@@ -11459,7 +11497,7 @@
       <c r="F122" s="64" t="s">
         <v>630</v>
       </c>
-      <c r="G122" s="70"/>
+      <c r="G122" s="71"/>
       <c r="H122" s="33"/>
       <c r="I122" s="33" t="s">
         <v>706</v>
@@ -11467,7 +11505,7 @@
       <c r="J122" s="33"/>
       <c r="K122" s="34"/>
     </row>
-    <row r="123" spans="1:12" ht="182">
+    <row r="123" spans="1:12" ht="70">
       <c r="A123" s="5">
         <f t="shared" si="4"/>
         <v>122</v>
@@ -11499,7 +11537,7 @@
       <c r="K123" s="23"/>
       <c r="L123" s="7"/>
     </row>
-    <row r="124" spans="1:12" ht="28">
+    <row r="124" spans="1:12" ht="14">
       <c r="A124" s="5">
         <f t="shared" si="4"/>
         <v>123</v>
@@ -11531,7 +11569,7 @@
       <c r="K124" s="23"/>
       <c r="L124" s="7"/>
     </row>
-    <row r="125" spans="1:12" ht="42">
+    <row r="125" spans="1:12" ht="14">
       <c r="A125" s="5">
         <f t="shared" si="4"/>
         <v>124</v>
@@ -11563,7 +11601,7 @@
       <c r="K125" s="23"/>
       <c r="L125" s="7"/>
     </row>
-    <row r="126" spans="1:12" ht="56">
+    <row r="126" spans="1:12" ht="28">
       <c r="A126" s="5">
         <f t="shared" si="4"/>
         <v>125</v>
@@ -11595,7 +11633,7 @@
       <c r="K126" s="23"/>
       <c r="L126" s="7"/>
     </row>
-    <row r="127" spans="1:12" ht="42">
+    <row r="127" spans="1:12" ht="14">
       <c r="A127" s="5">
         <f t="shared" si="4"/>
         <v>126</v>
@@ -11653,7 +11691,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="129" spans="1:11" ht="28">
+    <row r="129" spans="1:11" ht="14">
       <c r="A129" s="5">
         <f>A128+1</f>
         <v>128</v>
@@ -11681,7 +11719,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="130" spans="1:11" ht="98">
+    <row r="130" spans="1:11" ht="42">
       <c r="A130" s="5">
         <f>A129+1</f>
         <v>129</v>
@@ -11865,7 +11903,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="137" spans="1:11" ht="42">
+    <row r="137" spans="1:11" ht="14">
       <c r="A137" s="5">
         <f t="shared" si="7"/>
         <v>136</v>
@@ -11893,7 +11931,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="138" spans="1:11" ht="70">
+    <row r="138" spans="1:11" ht="28">
       <c r="A138" s="5">
         <f t="shared" si="7"/>
         <v>137</v>
@@ -11921,7 +11959,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="139" spans="1:11" ht="112">
+    <row r="139" spans="1:11" ht="42">
       <c r="A139" s="5">
         <f t="shared" si="7"/>
         <v>138</v>
@@ -11949,7 +11987,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="140" spans="1:11" ht="28">
+    <row r="140" spans="1:11" ht="14">
       <c r="A140" s="5">
         <f t="shared" si="7"/>
         <v>139</v>
@@ -12061,7 +12099,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="144" spans="1:11" ht="70">
+    <row r="144" spans="1:11" ht="42">
       <c r="A144" s="5">
         <f t="shared" si="7"/>
         <v>143</v>
@@ -12089,7 +12127,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="145" spans="1:11" ht="56">
+    <row r="145" spans="1:11" ht="28">
       <c r="A145" s="5">
         <f t="shared" si="7"/>
         <v>144</v>
@@ -12117,7 +12155,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="146" spans="1:11" ht="56">
+    <row r="146" spans="1:11" ht="28">
       <c r="A146" s="5">
         <f t="shared" si="7"/>
         <v>145</v>
@@ -12319,7 +12357,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="153" spans="1:11" ht="42">
+    <row r="153" spans="1:11" ht="28">
       <c r="A153" s="5">
         <f t="shared" si="7"/>
         <v>152</v>
@@ -12414,7 +12452,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="156" spans="1:11" ht="70">
+    <row r="156" spans="1:11" ht="28">
       <c r="A156" s="5">
         <f t="shared" si="7"/>
         <v>155</v>
@@ -12443,7 +12481,7 @@
       <c r="J156" s="20"/>
       <c r="K156" s="23"/>
     </row>
-    <row r="157" spans="1:11" ht="42">
+    <row r="157" spans="1:11" ht="28">
       <c r="A157" s="5">
         <f t="shared" si="7"/>
         <v>156</v>
@@ -12701,7 +12739,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="166" spans="1:11" ht="70">
+    <row r="166" spans="1:11" ht="28">
       <c r="A166" s="5">
         <f t="shared" si="7"/>
         <v>165</v>
@@ -12938,7 +12976,7 @@
       <c r="J174" s="20"/>
       <c r="K174" s="23"/>
     </row>
-    <row r="175" spans="1:11" ht="56">
+    <row r="175" spans="1:11" ht="28">
       <c r="A175" s="5">
         <f t="shared" si="7"/>
         <v>174</v>
@@ -13000,7 +13038,7 @@
       <c r="J176" s="20"/>
       <c r="K176" s="23"/>
     </row>
-    <row r="177" spans="1:12" ht="42">
+    <row r="177" spans="1:12" ht="28">
       <c r="A177" s="5">
         <f t="shared" si="7"/>
         <v>176</v>
@@ -13028,7 +13066,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="178" spans="1:12" ht="84">
+    <row r="178" spans="1:12" ht="42">
       <c r="A178" s="5">
         <f t="shared" si="7"/>
         <v>177</v>
@@ -13056,7 +13094,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="179" spans="1:12" ht="42">
+    <row r="179" spans="1:12" ht="28">
       <c r="A179" s="5">
         <f t="shared" si="7"/>
         <v>178</v>
@@ -13084,7 +13122,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="180" spans="1:12" ht="70">
+    <row r="180" spans="1:12" ht="28">
       <c r="A180" s="5">
         <f t="shared" si="7"/>
         <v>179</v>
@@ -13199,7 +13237,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="184" spans="1:12" ht="224">
+    <row r="184" spans="1:12" ht="112">
       <c r="A184" s="5">
         <f t="shared" si="7"/>
         <v>183</v>
@@ -13231,7 +13269,7 @@
       <c r="K184" s="49"/>
       <c r="L184" s="7"/>
     </row>
-    <row r="185" spans="1:12" ht="98">
+    <row r="185" spans="1:12" ht="28">
       <c r="A185" s="5">
         <f t="shared" si="7"/>
         <v>184</v>
@@ -13571,7 +13609,7 @@
       <c r="J195" s="9"/>
       <c r="K195" s="54"/>
     </row>
-    <row r="196" spans="1:11" ht="42">
+    <row r="196" spans="1:11" ht="14">
       <c r="A196" s="5">
         <f t="shared" si="10"/>
         <v>195</v>
@@ -13786,7 +13824,7 @@
       <c r="J203" s="12"/>
       <c r="K203" s="13"/>
     </row>
-    <row r="204" spans="1:11" ht="84">
+    <row r="204" spans="1:11" ht="28">
       <c r="A204" s="5">
         <f t="shared" si="10"/>
         <v>203</v>
@@ -13816,7 +13854,7 @@
       <c r="J204" s="24"/>
       <c r="K204" s="25"/>
     </row>
-    <row r="205" spans="1:11" ht="42">
+    <row r="205" spans="1:11" ht="14">
       <c r="A205" s="5">
         <f t="shared" si="10"/>
         <v>204</v>
@@ -13871,7 +13909,7 @@
       <c r="J206" s="9"/>
       <c r="K206" s="54"/>
     </row>
-    <row r="207" spans="1:11" ht="42">
+    <row r="207" spans="1:11" ht="28">
       <c r="A207" s="5">
         <f t="shared" si="10"/>
         <v>206</v>
@@ -14036,7 +14074,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="214" spans="1:11" ht="319">
+    <row r="214" spans="1:11" ht="112">
       <c r="A214" s="5">
         <f t="shared" si="10"/>
         <v>213</v>
@@ -14116,7 +14154,7 @@
       <c r="J216" s="12"/>
       <c r="K216" s="13"/>
     </row>
-    <row r="217" spans="1:11" ht="84">
+    <row r="217" spans="1:11" ht="28">
       <c r="A217" s="5">
         <f t="shared" si="10"/>
         <v>216</v>
@@ -14144,7 +14182,7 @@
       <c r="J217" s="24"/>
       <c r="K217" s="25"/>
     </row>
-    <row r="218" spans="1:11" ht="112">
+    <row r="218" spans="1:11" ht="42">
       <c r="A218" s="5">
         <f t="shared" si="10"/>
         <v>217</v>
@@ -14168,7 +14206,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="219" spans="1:11" ht="28">
+    <row r="219" spans="1:11" ht="14">
       <c r="A219" s="5">
         <f t="shared" si="10"/>
         <v>218</v>
@@ -14495,7 +14533,7 @@
       <c r="J231" s="37"/>
       <c r="K231" s="38"/>
     </row>
-    <row r="232" spans="1:11" ht="42">
+    <row r="232" spans="1:11" ht="14">
       <c r="A232" s="5">
         <f t="shared" si="10"/>
         <v>231</v>
@@ -14547,7 +14585,7 @@
       <c r="J233" s="12"/>
       <c r="K233" s="13"/>
     </row>
-    <row r="234" spans="1:11" ht="70">
+    <row r="234" spans="1:11" ht="28">
       <c r="A234" s="5">
         <f t="shared" si="10"/>
         <v>233</v>
@@ -14575,7 +14613,7 @@
       <c r="J234" s="12"/>
       <c r="K234" s="13"/>
     </row>
-    <row r="235" spans="1:11" ht="112">
+    <row r="235" spans="1:11" ht="42">
       <c r="A235" s="5">
         <f t="shared" si="10"/>
         <v>234</v>
@@ -14629,7 +14667,7 @@
       <c r="J236" s="9"/>
       <c r="K236" s="54"/>
     </row>
-    <row r="237" spans="1:11" ht="56">
+    <row r="237" spans="1:11" ht="28">
       <c r="A237" s="5">
         <f t="shared" si="10"/>
         <v>236</v>
@@ -14656,7 +14694,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="238" spans="1:11" ht="98">
+    <row r="238" spans="1:11" ht="42">
       <c r="A238" s="5">
         <f t="shared" si="10"/>
         <v>237</v>
@@ -14686,7 +14724,7 @@
       <c r="J238" s="24"/>
       <c r="K238" s="25"/>
     </row>
-    <row r="239" spans="1:11" ht="84">
+    <row r="239" spans="1:11" ht="28">
       <c r="A239" s="5">
         <f t="shared" si="10"/>
         <v>238</v>
@@ -14716,7 +14754,7 @@
       <c r="J239" s="24"/>
       <c r="K239" s="25"/>
     </row>
-    <row r="240" spans="1:11" ht="42">
+    <row r="240" spans="1:11" ht="14">
       <c r="A240" s="5">
         <f t="shared" si="10"/>
         <v>239</v>
@@ -14744,7 +14782,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="241" spans="1:11" ht="42">
+    <row r="241" spans="1:11" ht="14">
       <c r="A241" s="5">
         <f t="shared" si="10"/>
         <v>240</v>
@@ -14771,7 +14809,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="242" spans="1:11" ht="56">
+    <row r="242" spans="1:11" ht="28">
       <c r="A242" s="5">
         <f t="shared" si="10"/>
         <v>241</v>
@@ -14798,7 +14836,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="243" spans="1:11" ht="28">
+    <row r="243" spans="1:11" ht="14">
       <c r="A243" s="5">
         <f t="shared" si="10"/>
         <v>242</v>
@@ -14852,7 +14890,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="245" spans="1:11" ht="28">
+    <row r="245" spans="1:11" ht="14">
       <c r="A245" s="5">
         <f t="shared" si="10"/>
         <v>244</v>
@@ -14879,7 +14917,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="246" spans="1:11" ht="42">
+    <row r="246" spans="1:11" ht="14">
       <c r="A246" s="5">
         <f t="shared" si="10"/>
         <v>245</v>
@@ -15257,7 +15295,7 @@
       <c r="J258" s="62"/>
       <c r="K258" s="63"/>
     </row>
-    <row r="259" spans="1:11" ht="70">
+    <row r="259" spans="1:11" ht="28">
       <c r="A259" s="5">
         <f t="shared" ref="A259:A260" si="13">A258+1</f>
         <v>258</v>
@@ -15284,7 +15322,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="260" spans="1:11" ht="98">
+    <row r="260" spans="1:11" ht="28">
       <c r="A260" s="5">
         <f t="shared" si="13"/>
         <v>259</v>

--- a/tools/IJE_File_Layouts_Tabular_Input_Mapping_Version_2021.xlsx
+++ b/tools/IJE_File_Layouts_Tabular_Input_Mapping_Version_2021.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rscalfani/Documents/code/NVSS/vrdr-dotnet/tools/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A281594E-EE57-C946-A648-86809F3FEF36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9DF61D8-C191-B242-8B05-63C2DCE89612}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="25600" yWindow="500" windowWidth="25600" windowHeight="28300" tabRatio="779" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1984" uniqueCount="761">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1985" uniqueCount="763">
   <si>
     <t>Field #</t>
   </si>
@@ -2664,6 +2664,12 @@
   </si>
   <si>
     <t>capitalize_first_letter</t>
+  </si>
+  <si>
+    <t>military_time</t>
+  </si>
+  <si>
+    <t>use_2022_if_no_injury</t>
   </si>
 </sst>
 </file>
@@ -3349,7 +3355,7 @@
   <dimension ref="A1:G260"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A93" workbookViewId="0">
-      <selection activeCell="G138" sqref="G138"/>
+      <selection activeCell="G117" sqref="G117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -5468,11 +5474,8 @@
       <c r="C117" t="s">
         <v>259</v>
       </c>
-      <c r="D117" t="s">
-        <v>630</v>
-      </c>
-      <c r="F117">
-        <v>2022</v>
+      <c r="G117" s="68" t="s">
+        <v>762</v>
       </c>
     </row>
     <row r="118" spans="1:7">
@@ -5491,6 +5494,9 @@
       </c>
       <c r="E118" t="s">
         <v>727</v>
+      </c>
+      <c r="G118" s="68" t="s">
+        <v>761</v>
       </c>
     </row>
     <row r="119" spans="1:7">

--- a/tools/IJE_File_Layouts_Tabular_Input_Mapping_Version_2021.xlsx
+++ b/tools/IJE_File_Layouts_Tabular_Input_Mapping_Version_2021.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rscalfani/Documents/code/NVSS/vrdr-dotnet/tools/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/krautscheid/git/vrdr-dotnet/tools/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9DF61D8-C191-B242-8B05-63C2DCE89612}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6D5611D-4C67-4A4E-A2C6-8BC5C21053EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="25600" yWindow="500" windowWidth="25600" windowHeight="28300" tabRatio="779" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1985" uniqueCount="763">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1987" uniqueCount="764">
   <si>
     <t>Field #</t>
   </si>
@@ -2670,6 +2670,9 @@
   </si>
   <si>
     <t>use_2022_if_no_injury</t>
+  </si>
+  <si>
+    <t>Injury Date year</t>
   </si>
 </sst>
 </file>
@@ -3032,7 +3035,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2013 - 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3354,8 +3357,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD74E696-0F05-DF43-9EB9-28DAB6A6F493}">
   <dimension ref="A1:G260"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A93" workbookViewId="0">
-      <selection activeCell="G117" sqref="G117"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="F117" sqref="F117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -5473,6 +5476,12 @@
       </c>
       <c r="C117" t="s">
         <v>259</v>
+      </c>
+      <c r="D117" s="68" t="s">
+        <v>763</v>
+      </c>
+      <c r="E117" s="68" t="s">
+        <v>727</v>
       </c>
       <c r="G117" s="68" t="s">
         <v>762</v>
@@ -15386,10 +15395,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="b5a44311-ed64-4a72-909f-c9dc6973bde2" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="c1a58edb-1ba6-4800-9942-1e1defaa36d6">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101002752A2C1F044FE469AAF2142AB326B8C" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="3d8a0f530da2fdbe2e55626e9ad23fb0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="c1a58edb-1ba6-4800-9942-1e1defaa36d6" xmlns:ns3="4b113022-9134-4b2e-abe8-26e86c9e296e" xmlns:ns4="b5a44311-ed64-4a72-909f-c9dc6973bde2" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d278552e3c3a0a08e9db34919b560943" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="c1a58edb-1ba6-4800-9942-1e1defaa36d6"/>
@@ -15611,35 +15636,30 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="b5a44311-ed64-4a72-909f-c9dc6973bde2" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="c1a58edb-1ba6-4800-9942-1e1defaa36d6">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F6E1C13E-614F-4B48-A9FE-F6158F0F568F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{370C49E3-78D0-405B-AC39-DEC8FE68C756}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="b5a44311-ed64-4a72-909f-c9dc6973bde2"/>
+    <ds:schemaRef ds:uri="c1a58edb-1ba6-4800-9942-1e1defaa36d6"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A2D8D0BD-9993-4EC8-86D1-0A7C5F6E1934}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8C0A455F-891F-4D48-ABA8-1B564ACEA7DD}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -15659,21 +15679,10 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A2D8D0BD-9993-4EC8-86D1-0A7C5F6E1934}">
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F6E1C13E-614F-4B48-A9FE-F6158F0F568F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{370C49E3-78D0-405B-AC39-DEC8FE68C756}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="b5a44311-ed64-4a72-909f-c9dc6973bde2"/>
-    <ds:schemaRef ds:uri="c1a58edb-1ba6-4800-9942-1e1defaa36d6"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/tools/IJE_File_Layouts_Tabular_Input_Mapping_Version_2021.xlsx
+++ b/tools/IJE_File_Layouts_Tabular_Input_Mapping_Version_2021.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/krautscheid/git/vrdr-dotnet/tools/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6D5611D-4C67-4A4E-A2C6-8BC5C21053EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF1076B6-4331-6C47-B355-9D5F56E19D6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="25600" yWindow="500" windowWidth="25600" windowHeight="28300" tabRatio="779" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1987" uniqueCount="764">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1982" uniqueCount="764">
   <si>
     <t>Field #</t>
   </si>
@@ -3357,8 +3357,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD74E696-0F05-DF43-9EB9-28DAB6A6F493}">
   <dimension ref="A1:G260"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="F117" sqref="F117"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -3627,8 +3627,8 @@
       <c r="D15" t="s">
         <v>630</v>
       </c>
-      <c r="F15" t="s">
-        <v>706</v>
+      <c r="F15">
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -3696,8 +3696,8 @@
       <c r="D19" t="s">
         <v>630</v>
       </c>
-      <c r="F19" t="s">
-        <v>706</v>
+      <c r="F19">
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -3915,8 +3915,8 @@
       <c r="D31" t="s">
         <v>630</v>
       </c>
-      <c r="F31" t="s">
-        <v>706</v>
+      <c r="F31">
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -4059,8 +4059,8 @@
       <c r="D39" t="s">
         <v>630</v>
       </c>
-      <c r="F39" t="s">
-        <v>706</v>
+      <c r="F39">
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -5426,8 +5426,8 @@
       <c r="D114" t="s">
         <v>630</v>
       </c>
-      <c r="F114" t="s">
-        <v>706</v>
+      <c r="F114">
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:7">
@@ -7915,7 +7915,7 @@
   <dimension ref="A1:L1048511"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="95" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13"/>
@@ -15395,26 +15395,10 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="b5a44311-ed64-4a72-909f-c9dc6973bde2" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="c1a58edb-1ba6-4800-9942-1e1defaa36d6">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101002752A2C1F044FE469AAF2142AB326B8C" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="3d8a0f530da2fdbe2e55626e9ad23fb0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="c1a58edb-1ba6-4800-9942-1e1defaa36d6" xmlns:ns3="4b113022-9134-4b2e-abe8-26e86c9e296e" xmlns:ns4="b5a44311-ed64-4a72-909f-c9dc6973bde2" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d278552e3c3a0a08e9db34919b560943" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="c1a58edb-1ba6-4800-9942-1e1defaa36d6"/>
@@ -15636,30 +15620,35 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="b5a44311-ed64-4a72-909f-c9dc6973bde2" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="c1a58edb-1ba6-4800-9942-1e1defaa36d6">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{370C49E3-78D0-405B-AC39-DEC8FE68C756}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F6E1C13E-614F-4B48-A9FE-F6158F0F568F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="b5a44311-ed64-4a72-909f-c9dc6973bde2"/>
-    <ds:schemaRef ds:uri="c1a58edb-1ba6-4800-9942-1e1defaa36d6"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A2D8D0BD-9993-4EC8-86D1-0A7C5F6E1934}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8C0A455F-891F-4D48-ABA8-1B564ACEA7DD}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -15679,10 +15668,21 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A2D8D0BD-9993-4EC8-86D1-0A7C5F6E1934}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F6E1C13E-614F-4B48-A9FE-F6158F0F568F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{370C49E3-78D0-405B-AC39-DEC8FE68C756}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="b5a44311-ed64-4a72-909f-c9dc6973bde2"/>
+    <ds:schemaRef ds:uri="c1a58edb-1ba6-4800-9942-1e1defaa36d6"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>